--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4941F2C-C536-4C45-A97B-C7C9D38AD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE451B2C-2DF1-4450-B269-3583B125BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>CODIGO</t>
   </si>
@@ -65,54 +65,6 @@
     <t>MODAL</t>
   </si>
   <si>
-    <t>DIG100</t>
-  </si>
-  <si>
-    <t>DIG101</t>
-  </si>
-  <si>
-    <t>DIG102</t>
-  </si>
-  <si>
-    <t>DIG103</t>
-  </si>
-  <si>
-    <t>DIG104</t>
-  </si>
-  <si>
-    <t>DIG105</t>
-  </si>
-  <si>
-    <t>DIG106</t>
-  </si>
-  <si>
-    <t>DIG107</t>
-  </si>
-  <si>
-    <t>DIG108</t>
-  </si>
-  <si>
-    <t>DIG109</t>
-  </si>
-  <si>
-    <t>DIG110</t>
-  </si>
-  <si>
-    <t>DIG111</t>
-  </si>
-  <si>
-    <t>DIG112</t>
-  </si>
-  <si>
-    <t>DIG113</t>
-  </si>
-  <si>
-    <t>DIG114</t>
-  </si>
-  <si>
-    <t>DIG115</t>
-  </si>
-  <si>
     <t>Avast Premium Security</t>
   </si>
   <si>
@@ -161,51 +113,15 @@
     <t>Gemini</t>
   </si>
   <si>
-    <t>DIG116</t>
-  </si>
-  <si>
-    <t>DIG117</t>
-  </si>
-  <si>
-    <t>DIG118</t>
-  </si>
-  <si>
-    <t>DIG119</t>
-  </si>
-  <si>
-    <t>DIG120</t>
-  </si>
-  <si>
-    <t>DIG121</t>
-  </si>
-  <si>
-    <t>DIG122</t>
-  </si>
-  <si>
-    <t>DIG123</t>
-  </si>
-  <si>
-    <t>DIG124</t>
-  </si>
-  <si>
-    <t>DIG125</t>
-  </si>
-  <si>
     <t>Google One 2TB</t>
   </si>
   <si>
-    <t>ChatGPT Pro - Privado</t>
-  </si>
-  <si>
     <t>ChatGPT PLUS - Privado</t>
   </si>
   <si>
     <t>ChatGPT PLUS - Compartido</t>
   </si>
   <si>
-    <t>ChatGPT Pro - Compartido</t>
-  </si>
-  <si>
     <t>Autodesk - Autocad 2026</t>
   </si>
   <si>
@@ -302,78 +218,6 @@
     <t>Bitdefender Antivirus Plus</t>
   </si>
   <si>
-    <t>DIG126</t>
-  </si>
-  <si>
-    <t>DIG127</t>
-  </si>
-  <si>
-    <t>DIG128</t>
-  </si>
-  <si>
-    <t>DIG129</t>
-  </si>
-  <si>
-    <t>DIG130</t>
-  </si>
-  <si>
-    <t>DIG131</t>
-  </si>
-  <si>
-    <t>DIG132</t>
-  </si>
-  <si>
-    <t>DIG133</t>
-  </si>
-  <si>
-    <t>DIG134</t>
-  </si>
-  <si>
-    <t>DIG135</t>
-  </si>
-  <si>
-    <t>DIG136</t>
-  </si>
-  <si>
-    <t>DIG137</t>
-  </si>
-  <si>
-    <t>DIG138</t>
-  </si>
-  <si>
-    <t>DIG139</t>
-  </si>
-  <si>
-    <t>DIG140</t>
-  </si>
-  <si>
-    <t>DIG141</t>
-  </si>
-  <si>
-    <t>DIG142</t>
-  </si>
-  <si>
-    <t>DIG143</t>
-  </si>
-  <si>
-    <t>DIG144</t>
-  </si>
-  <si>
-    <t>DIG145</t>
-  </si>
-  <si>
-    <t>DIG146</t>
-  </si>
-  <si>
-    <t>DIG147</t>
-  </si>
-  <si>
-    <t>DIG148</t>
-  </si>
-  <si>
-    <t>DIG149</t>
-  </si>
-  <si>
     <t>Microsoft Windows 10 Pro</t>
   </si>
   <si>
@@ -383,15 +227,6 @@
     <t>Microsoft Windows 10 LTSC</t>
   </si>
   <si>
-    <t>DIG150</t>
-  </si>
-  <si>
-    <t>DIG151</t>
-  </si>
-  <si>
-    <t>DIG152</t>
-  </si>
-  <si>
     <t>PRODUCTIVIDAD</t>
   </si>
   <si>
@@ -408,6 +243,12 @@
   </si>
   <si>
     <t>ENTRETENIMIENTO</t>
+  </si>
+  <si>
+    <t>https://nguyenpremium.com/wp-content/uploads/2024/09/ChatGPT-Plus-1.jpg</t>
+  </si>
+  <si>
+    <t>Sucripcion x 30 dias</t>
   </si>
 </sst>
 </file>
@@ -716,13 +557,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:J54" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
-    <sortCondition ref="B1:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:J52" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
+    <sortCondition ref="B1:B49"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
+      <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
@@ -1026,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,1091 +921,1139 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
+      <c r="A2" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A52" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG101</v>
+        <v>DIG102</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG102</v>
+        <v>DIG103</v>
       </c>
       <c r="H4" s="5"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG103</v>
+        <v>DIG104</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG104</v>
+        <v>DIG105</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG105</v>
+        <v>DIG106</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG106</v>
+        <v>DIG107</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG107</v>
+        <v>DIG108</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG108</v>
+        <v>DIG109</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG109</v>
+        <v>DIG110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG110</v>
+        <v>DIG111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
+        <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG112</v>
+        <v>DIG113</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG113</v>
+        <v>DIG114</v>
       </c>
       <c r="H15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG115</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F16" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG114</v>
+        <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="H16" s="5">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG115</v>
+        <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="H17" s="5">
+        <v>80</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG116</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>28</v>
+        <v>DIG117</v>
       </c>
       <c r="H18" s="5"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG117</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>28</v>
+        <v>DIG118</v>
       </c>
       <c r="H19" s="5"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG118</v>
+        <v>DIG119</v>
       </c>
       <c r="H20" s="5"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG119</v>
+        <v>DIG120</v>
       </c>
       <c r="H21" s="5"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG120</v>
+        <v>DIG121</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG122</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG121</v>
+        <v>DIG122</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F24" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG122</v>
+        <v>DIG123</v>
       </c>
       <c r="H24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG123</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG124</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="F26" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG124</v>
+        <v>DIG125</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="5"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>51</v>
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG125</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG126</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>89</v>
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG126</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>28</v>
+        <v>DIG127</v>
       </c>
       <c r="H28" s="5"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>90</v>
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG127</v>
+        <v>DIG128</v>
       </c>
       <c r="H29" s="5"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>91</v>
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG128</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG129</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>92</v>
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG129</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG130</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>93</v>
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG130</v>
+        <v>23</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>94</v>
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
+        <v>23</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>95</v>
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG132</v>
+        <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>96</v>
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG133</v>
+        <v>DIG134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F36" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG134</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>28</v>
+        <v>DIG135</v>
       </c>
       <c r="H36" s="5"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>98</v>
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG136</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F37" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG135</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>28</v>
+        <v>DIG136</v>
       </c>
       <c r="H37" s="5"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>99</v>
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F38" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG136</v>
+        <v>DIG137</v>
       </c>
       <c r="H38" s="5"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>100</v>
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG137</v>
+        <v>DIG138</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>101</v>
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F40" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG138</v>
+        <v>DIG139</v>
       </c>
       <c r="H40" s="5"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>102</v>
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C41" s="4">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F41" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG139</v>
+        <v>DIG140</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>103</v>
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4">
         <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="F42" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG140</v>
+        <v>DIG141</v>
       </c>
       <c r="H42" s="5"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>104</v>
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F43" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG141</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>28</v>
+        <v>DIG142</v>
       </c>
       <c r="H43" s="5"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>105</v>
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
       </c>
+      <c r="E44" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F44" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG142</v>
+        <v>DIG143</v>
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>106</v>
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
       </c>
+      <c r="E45" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F45" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG143</v>
+        <v>DIG144</v>
       </c>
       <c r="H45" s="5"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>107</v>
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
       </c>
+      <c r="E46" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F46" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG144</v>
+        <v>DIG145</v>
       </c>
       <c r="H46" s="5"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>108</v>
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4">
         <v>10</v>
       </c>
+      <c r="E47" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F47" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG145</v>
+        <v>DIG146</v>
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>109</v>
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
       </c>
+      <c r="E48" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F48" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG146</v>
+        <v>DIG147</v>
       </c>
       <c r="H48" s="5"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>110</v>
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG148</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
+      <c r="E49" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F49" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG147</v>
+        <v>DIG148</v>
       </c>
       <c r="H49" s="5"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>111</v>
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4">
         <v>10</v>
       </c>
+      <c r="E50" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F50" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG148</v>
+        <v>DIG149</v>
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>112</v>
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4">
         <v>10</v>
       </c>
+      <c r="E51" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F51" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG149</v>
+        <v>DIG150</v>
       </c>
       <c r="H51" s="5"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>116</v>
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DIG151</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4">
         <v>10</v>
       </c>
+      <c r="E52" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F52" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG150</v>
+        <v>DIG151</v>
       </c>
       <c r="H52" s="5"/>
       <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="4">
-        <v>10</v>
-      </c>
-      <c r="F53" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG151</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4">
-        <v>10</v>
-      </c>
-      <c r="F54" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG152</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="J54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\digicode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE451B2C-2DF1-4450-B269-3583B125BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DC9DD-BE49-402A-BC82-E3DBE7519B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>CODIGO</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Perplexity</t>
   </si>
   <si>
-    <t>BlackBox</t>
-  </si>
-  <si>
     <t>SEGURIDAD</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>MUBI</t>
   </si>
   <si>
-    <t>Apple TV</t>
-  </si>
-  <si>
     <t>Disney +</t>
   </si>
   <si>
@@ -249,6 +243,90 @@
   </si>
   <si>
     <t>Sucripcion x 30 dias</t>
+  </si>
+  <si>
+    <t>https://5.imimg.com/data5/SELLER/Default/2020/12/VI/AI/PH/7202139/71rls2rhebl-ac-sl1421--500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://keys.franboxoriginal.com/wp-content/uploads/2024/09/2019-digital-key.jpg</t>
+  </si>
+  <si>
+    <t>https://pisces.bbystatic.com/image2/BestBuy_US/images/products/6570/6570513_sd.jpg</t>
+  </si>
+  <si>
+    <t>Apple TV+</t>
+  </si>
+  <si>
+    <t>https://cdn.mos.cms.futurecdn.net/J3fWG9m7HcZ2sQ7edv3ub9.png</t>
+  </si>
+  <si>
+    <t>https://hips.hearstapps.com/hmg-prod/images/audible-1673609759.png</t>
+  </si>
+  <si>
+    <t>https://expresskeys.cl/wp-content/uploads/2025/03/AutoCAD-2026.webp</t>
+  </si>
+  <si>
+    <t>https://it-nerd24.es/media/image/4d/24/8c/1111o0AQv0ZkDZW2j_600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://expresskeys.cl/wp-content/uploads/2025/05/Revit-2026.webp</t>
+  </si>
+  <si>
+    <t>https://products.eneba.games/resized-products/JnDb6fsLmrz4W4IAu6Bs3imDaak4Ui6rIJBqfkzUJgk_350x200_1x-0.jpeg</t>
+  </si>
+  <si>
+    <t>https://antiviruslicensekey.co.uk/wp-content/uploads/2022/03/avg-ultimate-protection.jpg</t>
+  </si>
+  <si>
+    <t>https://www.clavecd.es/wp-content/uploads/buy-bitdefender-total-security-cd-key-pc-download-img1.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSj5hUeEgjDre6B5CUOQInUKhWkckg_NxAj7Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://static.promodescuentos.com/threads/raw/uIhe8/989682_1/re/768x768/qt/60/989682_1.jpg</t>
+  </si>
+  <si>
+    <t>https://revolutionsoft.net/1357-large_default/coreldraw-technical-suite-2024.jpg</t>
+  </si>
+  <si>
+    <t>CorelDraw 25</t>
+  </si>
+  <si>
+    <t>https://licenseglobal.it/cdn/shop/files/corel_461eed79-ceab-471c-9395-2fef704836b7.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR7p016ivNhB39mL1REH2H8F7OYZS3osxL3RQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT8SJXO3sRXaswjyuX9nw2tWwIx0j6Qx_a8xg&amp;s</t>
+  </si>
+  <si>
+    <t>https://libertycr.com/documents/297305827/299239317/disney-plus.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/DP3TINU-RLw/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://stonkstutors.com/wp-content/uploads/2022/05/Duolingo-Plus-5-funciones-que-no-encontraras-en-el-gratuito.jpg</t>
+  </si>
+  <si>
+    <t>https://oechsle.vteximg.com.br/arquivos/ids/17881650-1000-1000/image-51ebc4a3a2e94e56b676da9d21b2915f.jpg</t>
+  </si>
+  <si>
+    <t>https://www.win-keys.com/wp-content/uploads/2025/06/Eset-NOD32-Antivirus-Winkeys.png</t>
+  </si>
+  <si>
+    <t>https://www.revistaeyn.com/binrepository/1200x746/0c0/0d0/none/26086/IXDS/geminiiagoogle_6684589_20240208154244.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.vbrae.com/images/assets/img/template-image/92b4e5d4a18c6d8445ea951af481f1ef.webp</t>
+  </si>
+  <si>
+    <t>https://vanthangmtd.github.io/getcid_v3/assets/img/product/category/google/advertisement/google_one_admin_2tb.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQJbdU3DBDDZGjciQHY5Blxe1KMphuTDO1JKw&amp;s</t>
   </si>
 </sst>
 </file>
@@ -333,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -349,25 +427,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -508,6 +572,19 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
@@ -557,26 +634,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:J52" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
     <sortCondition ref="B1:B49"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="9">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="4">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,13 +1003,13 @@
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -942,6 +1019,9 @@
         <v>12</v>
       </c>
       <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -950,19 +1030,22 @@
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG102</v>
       </c>
       <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,19 +1054,22 @@
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG103</v>
       </c>
       <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,19 +1078,22 @@
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="H5" s="5"/>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,19 +1102,22 @@
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
       <c r="H6" s="5"/>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,19 +1126,22 @@
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
       <c r="H7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,19 +1150,22 @@
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
       </c>
       <c r="H8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,19 +1174,22 @@
         <v>DIG108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG108</v>
       </c>
       <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1113,7 +1214,9 @@
         <v>12</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1138,7 +1241,9 @@
         <v>12</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1163,7 +1268,9 @@
         <v>12</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,22 +1279,22 @@
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H13" s="5"/>
+      <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1202,13 +1309,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="H14" s="5"/>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,19 +1327,27 @@
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG114</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="5">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,26 +1356,26 @@
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="5">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1267,26 +1385,21 @@
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="5">
-        <v>80</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1302,13 +1415,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="H18" s="5"/>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,19 +1433,22 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="H19" s="5"/>
+      <c r="I19" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1338,19 +1457,22 @@
         <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="H20" s="5"/>
+      <c r="I20" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1359,19 +1481,22 @@
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="H21" s="5"/>
+      <c r="I21" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1380,19 +1505,22 @@
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="H22" s="5"/>
+      <c r="I22" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,19 +1529,22 @@
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="H23" s="5"/>
+      <c r="I23" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,19 +1553,22 @@
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="H24" s="5"/>
+      <c r="I24" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1449,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1459,7 +1593,9 @@
         <v>12</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1468,15 +1604,15 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG125</v>
       </c>
@@ -1484,6 +1620,9 @@
         <v>12</v>
       </c>
       <c r="H26" s="5"/>
+      <c r="I26" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,19 +1631,22 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="7" t="str">
+        <v>66</v>
+      </c>
+      <c r="F27" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG126</v>
       </c>
       <c r="H27" s="5"/>
+      <c r="I27" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1513,19 +1655,22 @@
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG127</v>
       </c>
       <c r="H28" s="5"/>
+      <c r="I28" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,19 +1679,22 @@
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="7" t="str">
+        <v>67</v>
+      </c>
+      <c r="F29" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG128</v>
       </c>
       <c r="H29" s="5"/>
+      <c r="I29" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1561,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1586,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1611,9 +1759,9 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
@@ -1635,9 +1783,9 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG132</v>
       </c>
@@ -1659,9 +1807,9 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
@@ -1683,9 +1831,9 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG134</v>
       </c>
@@ -1701,15 +1849,15 @@
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG135</v>
       </c>
@@ -1722,15 +1870,15 @@
         <v>DIG136</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F37" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG136</v>
       </c>
@@ -1743,15 +1891,15 @@
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
@@ -1764,15 +1912,15 @@
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG138</v>
       </c>
@@ -1785,15 +1933,15 @@
         <v>DIG139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG139</v>
       </c>
@@ -1812,9 +1960,9 @@
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="F41" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
@@ -1830,15 +1978,15 @@
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4">
         <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="7" t="str">
+        <v>63</v>
+      </c>
+      <c r="F42" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG141</v>
       </c>
@@ -1851,15 +1999,15 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F43" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
@@ -1872,15 +2020,15 @@
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG143</v>
       </c>
@@ -1893,15 +2041,15 @@
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG144</v>
       </c>
@@ -1914,15 +2062,15 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
@@ -1935,15 +2083,15 @@
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4">
         <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG146</v>
       </c>
@@ -1956,15 +2104,15 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="7" t="str">
+        <v>62</v>
+      </c>
+      <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG147</v>
       </c>
@@ -1977,15 +2125,15 @@
         <v>DIG148</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG148</v>
       </c>
@@ -1998,15 +2146,15 @@
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4">
         <v>10</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="7" t="str">
+        <v>66</v>
+      </c>
+      <c r="F50" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
@@ -2019,15 +2167,15 @@
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="7" t="str">
+        <v>66</v>
+      </c>
+      <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG150</v>
       </c>
@@ -2040,15 +2188,15 @@
         <v>DIG151</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="4">
         <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="7" t="str">
+        <v>66</v>
+      </c>
+      <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG151</v>
       </c>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\digicode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DC9DD-BE49-402A-BC82-E3DBE7519B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F3336-A71D-4FAA-9412-7E7ACBCE21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
   <si>
     <t>CODIGO</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Kaspersky Standard</t>
   </si>
   <si>
-    <t>Perplexity</t>
-  </si>
-  <si>
     <t>SEGURIDAD</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Microsoft 365</t>
   </si>
   <si>
-    <t>PicsArt</t>
-  </si>
-  <si>
     <t>Domestika PLUS</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>NitroPDF Pro 10</t>
   </si>
   <si>
-    <t>Power ISO</t>
-  </si>
-  <si>
     <t>Duolingo PLUS</t>
   </si>
   <si>
@@ -327,6 +318,84 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQJbdU3DBDDZGjciQHY5Blxe1KMphuTDO1JKw&amp;s</t>
+  </si>
+  <si>
+    <t>https://cdn.pacifiko.com/image/cache/catalog/af6e1b11-9a7e-43e4-8d18-7d50ae1ef35d1712293481-500x500.png</t>
+  </si>
+  <si>
+    <t>https://computermania.co.za/cdn/shop/files/12196_ESD-card_K_VPN_license2.png</t>
+  </si>
+  <si>
+    <t>Sucripcion Permanente</t>
+  </si>
+  <si>
+    <t>Suscripcion Permanente</t>
+  </si>
+  <si>
+    <t>https://www.edscdkeys.com/51-thickbox_default/kaspersky-internet-security-1-device-1-year-cd-key.jpg</t>
+  </si>
+  <si>
+    <t>https://static.labeb.com/test/images/catalogs/193244/4d03tna5ler-w1920.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dealsplant.com/cdn/shop/products/kaspersky-anti-virus-softwares-kaspersky-anti-virus-latest-version-1-user-3-years-code-emailed-in-2-hours-no-cd-28321332428875.jpg</t>
+  </si>
+  <si>
+    <t>https://www.trelogy.pe/wp-content/uploads/2023/09/visio-pro-2021.png</t>
+  </si>
+  <si>
+    <t>visio</t>
+  </si>
+  <si>
+    <t>https://cdn.bodegadigital.biz/wp-content/uploads/2022/10/ProjectPro2021-2.png</t>
+  </si>
+  <si>
+    <t>https://www.trelogy.pe/wp-content/uploads/2025/03/project-pro-2024.webp</t>
+  </si>
+  <si>
+    <t>https://mexmads.com/wp-content/uploads/2023/01/mexmads_mubiestrenos_1.jpg</t>
+  </si>
+  <si>
+    <t>https://geeky.sfo2.cdn.digitaloceanspaces.com/geekydrop_production/29.png-GzhFOKcIq.png</t>
+  </si>
+  <si>
+    <t>https://lamanzanamordida.com/wp-content/uploads/2024/11/01.-Perplexity-Pro.png</t>
+  </si>
+  <si>
+    <t>Perplexity PRO</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/GGuIPIiXcAAyFaM.jpg</t>
+  </si>
+  <si>
+    <t>PicsArt PREMIUM</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/ELcAAOSw4v5lZS~u/s-l1200.jpg</t>
+  </si>
+  <si>
+    <t>Power ISO 8 PRO</t>
+  </si>
+  <si>
+    <t>https://i.blogs.es/dee5cd/prime-video/450_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://dropinblog.net/34249715/files/featured/12-que-es-udemy.png</t>
+  </si>
+  <si>
+    <t>https://lunawebnet.com/wp-content/uploads/2022/12/youtubepremium.jpg</t>
+  </si>
+  <si>
+    <t>https://vtubego.com/images/vtubego-logo.png</t>
+  </si>
+  <si>
+    <t>https://9xkey.com/wp-content/uploads/2023/12/windows-10-pro.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBErcIYGWnOiWAb9Ao5LNKxtPCtfwz8Ack9Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://computerkeys.xyz/wp-content/uploads/2023/11/Windows-11-Pro-2-600x600.png</t>
   </si>
 </sst>
 </file>
@@ -411,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -427,6 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +704,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:J52" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
-    <sortCondition ref="B1:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J53" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J53" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J52">
+    <sortCondition ref="C1:C52"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="9">
@@ -946,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,13 +1073,13 @@
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1020,20 +1090,20 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A52" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>62</v>
@@ -1042,169 +1112,190 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG102</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG103</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG108</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1214,24 +1305,21 @@
         <v>12</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1241,45 +1329,44 @@
         <v>12</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="H12" s="5">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -1291,22 +1378,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="5">
+        <v>37</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>63</v>
@@ -1315,64 +1407,67 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="4" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5">
-        <v>19</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H16" s="5">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>68</v>
@@ -1381,385 +1476,452 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5">
+        <v>10</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
       <c r="I20" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
       <c r="I21" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="5">
+        <v>19</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="G23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="5">
+        <v>80</v>
+      </c>
       <c r="I23" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="G24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="5">
+        <v>19</v>
+      </c>
       <c r="I24" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG124</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="H26" s="5">
+        <v>28</v>
+      </c>
       <c r="I26" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG126</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG126</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>10</v>
+      </c>
       <c r="I27" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG127</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="G28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10</v>
+      </c>
       <c r="I28" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F29" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG128</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5">
+        <v>10</v>
+      </c>
       <c r="I29" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG130</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H31" s="5">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1768,16 +1930,21 @@
       <c r="G32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="5">
+        <v>46</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -1790,24 +1957,29 @@
         <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H33" s="5">
+        <v>19</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1816,151 +1988,186 @@
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG135</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG136</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F37" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG136</v>
       </c>
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H37" s="5"/>
-      <c r="J37" s="4"/>
+      <c r="I37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H38" s="5"/>
+      <c r="I38" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG138</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG139</v>
       </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H40" s="5"/>
+      <c r="I40" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C41" s="4">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F41" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1969,239 +2176,353 @@
       <c r="G41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5">
+        <v>37</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
         <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F42" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG141</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5">
+        <v>19</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F43" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5">
+        <v>28</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG143</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="G44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="5">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG144</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="G45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="5">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="G46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="5">
+        <v>19</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4">
         <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG146</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="G47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="5">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG147</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="G48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="5">
+        <v>15</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG148</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG148</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="G49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="5">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="4">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="4">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG149</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG149</v>
-      </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="5">
+        <v>10</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C51" s="4">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG150</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="G51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="5">
+        <v>19</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG151</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="4">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG151</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG151</v>
-      </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG152</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG152</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F3336-A71D-4FAA-9412-7E7ACBCE21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30696A0-A271-4BA3-8A63-5E4D64CBAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="138">
   <si>
     <t>CODIGO</t>
   </si>
@@ -350,9 +350,6 @@
     <t>https://cdn.bodegadigital.biz/wp-content/uploads/2022/10/ProjectPro2021-2.png</t>
   </si>
   <si>
-    <t>https://www.trelogy.pe/wp-content/uploads/2025/03/project-pro-2024.webp</t>
-  </si>
-  <si>
     <t>https://mexmads.com/wp-content/uploads/2023/01/mexmads_mubiestrenos_1.jpg</t>
   </si>
   <si>
@@ -392,10 +389,64 @@
     <t>https://9xkey.com/wp-content/uploads/2023/12/windows-10-pro.png</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBErcIYGWnOiWAb9Ao5LNKxtPCtfwz8Ack9Q&amp;s</t>
-  </si>
-  <si>
     <t>https://computerkeys.xyz/wp-content/uploads/2023/11/Windows-11-Pro-2-600x600.png</t>
+  </si>
+  <si>
+    <t>https://kharido365.co.in/wp-content/uploads/2025/01/KIS21-1.jpg</t>
+  </si>
+  <si>
+    <t>https://key-mart.com/wp-content/uploads/2024/11/Project-Pro-2024-for-1-PC-instant-product-key-download_2.png</t>
+  </si>
+  <si>
+    <t>https://osiriss.lv/image/cache/catalog/a_image/products/5/4/9/8/7/4/f567ec8a32f67f2198928570b23e24b7/440x440-1000x1000.png</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus</t>
+  </si>
+  <si>
+    <t>KAVOF</t>
+  </si>
+  <si>
+    <t>Kaspersky Standard x3</t>
+  </si>
+  <si>
+    <t>Kaspersky Standard x5</t>
+  </si>
+  <si>
+    <t>Sucripcion x 730 dias</t>
+  </si>
+  <si>
+    <t>https://coolboxpe.vtexassets.com/arquivos/ids/344584/KL1041DDCFS.jpg</t>
+  </si>
+  <si>
+    <t>Kaspersky Plus x3</t>
+  </si>
+  <si>
+    <t>Kaspersky Plus x5</t>
+  </si>
+  <si>
+    <t>Kaspersky Plus x10</t>
+  </si>
+  <si>
+    <t>Kaspersky Premium x3</t>
+  </si>
+  <si>
+    <t>Kaspersky Premium x5</t>
+  </si>
+  <si>
+    <t>Kaspersky Premium x10</t>
+  </si>
+  <si>
+    <t>ESETOF</t>
+  </si>
+  <si>
+    <t>ESET Home Security Essential x10</t>
+  </si>
+  <si>
+    <t>ESET Home Security Premium x10</t>
+  </si>
+  <si>
+    <t>ESET Home Security Ultimate x10</t>
   </si>
 </sst>
 </file>
@@ -480,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -497,11 +548,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -704,26 +766,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J53" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:J53" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J52">
-    <sortCondition ref="C1:C52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:J74" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
+    <sortCondition ref="C1:C74"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="5">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1091,7 @@
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1073,24 +1135,24 @@
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -1100,7 +1162,7 @@
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1117,7 +1179,7 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1127,7 +1189,7 @@
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1144,7 +1206,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1154,26 +1216,28 @@
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
@@ -1181,10 +1245,10 @@
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -1196,9 +1260,11 @@
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>46</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -1208,26 +1274,26 @@
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
@@ -1235,13 +1301,13 @@
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1252,7 +1318,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1261,14 +1327,14 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1277,11 +1343,13 @@
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="H9" s="5">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
@@ -1289,22 +1357,24 @@
         <v>DIG109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG109</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>226</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,22 +1383,24 @@
         <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="H11" s="5">
+        <v>453</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,26 +1409,23 @@
         <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5">
-        <v>28</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -1366,26 +1435,23 @@
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F13" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H13" s="5">
-        <v>37</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1395,24 +1461,23 @@
         <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
+        <v>175</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1422,28 +1487,25 @@
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F15" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="H15" s="5">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
@@ -1451,26 +1513,24 @@
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="5">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="4" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1480,26 +1540,23 @@
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1509,26 +1566,23 @@
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H18" s="5">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>71</v>
+        <v>485</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1538,26 +1592,23 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1566,27 +1617,24 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG119</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
+      <c r="B20" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1596,26 +1644,23 @@
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F21" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1625,26 +1670,23 @@
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H22" s="5">
-        <v>19</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>65</v>
+        <v>382</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1654,26 +1696,23 @@
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H23" s="5">
-        <v>80</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1683,26 +1722,23 @@
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H24" s="5">
-        <v>19</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1712,26 +1748,23 @@
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG124</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H25" s="5">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1741,26 +1774,23 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C26" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H26" s="5">
-        <v>28</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1770,26 +1800,24 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="5">
-        <v>10</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1799,27 +1827,22 @@
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG127</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="5">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,27 +1851,22 @@
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="5">
-        <v>10</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,26 +1875,18 @@
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG129</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10</v>
-      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1886,28 +1896,28 @@
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG130</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
@@ -1915,15 +1925,15 @@
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C32" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="4" t="str">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
@@ -1931,12 +1941,9 @@
         <v>12</v>
       </c>
       <c r="H32" s="5">
-        <v>46</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
@@ -1944,26 +1951,26 @@
         <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1973,26 +1980,26 @@
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="H34" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2002,13 +2009,13 @@
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2021,7 +2028,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -2031,24 +2038,28 @@
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG135</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
@@ -2056,26 +2067,28 @@
         <v>DIG136</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F37" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG136</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H37" s="5">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
@@ -2083,24 +2096,26 @@
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5</v>
+      </c>
       <c r="I38" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -2110,22 +2125,27 @@
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG138</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,24 +2154,26 @@
         <v>DIG139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG139</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H40" s="5">
+        <v>19</v>
+      </c>
       <c r="I40" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J40" s="4"/>
     </row>
@@ -2161,26 +2183,26 @@
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F41" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H41" s="5">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -2190,26 +2212,26 @@
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4">
         <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG141</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H42" s="5">
         <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -2219,26 +2241,26 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H43" s="5">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -2248,26 +2270,26 @@
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG143</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H44" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -2277,26 +2299,26 @@
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG144</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H45" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2306,13 +2328,13 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2322,10 +2344,10 @@
         <v>66</v>
       </c>
       <c r="H46" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2335,13 +2357,13 @@
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4">
         <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2354,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2364,7 +2386,7 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
@@ -2377,13 +2399,13 @@
         <v>DIG147</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H48" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2393,13 +2415,13 @@
         <v>DIG148</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2412,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2422,28 +2444,28 @@
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4">
         <v>10</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F50" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H50" s="5">
-        <v>10</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
@@ -2451,26 +2473,26 @@
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG150</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H51" s="5">
         <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -2480,26 +2502,26 @@
         <v>DIG151</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C52" s="4">
         <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG151</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H52" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2509,23 +2531,639 @@
         <v>DIG152</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG152</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="G53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="5">
+        <v>10</v>
+      </c>
       <c r="I53" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG153</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG153</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="5">
+        <v>254</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG154</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG154</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="5">
+        <v>368</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG155</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG155</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="5">
+        <v>37</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG156</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG156</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="5">
+        <v>46</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG157</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="4">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG157</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="5">
+        <v>46</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG158</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="4">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG158</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="5">
+        <v>55</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG159</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG159</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="5">
+        <v>100</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG160</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG160</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="5">
+        <v>37</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG161</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG161</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="5">
+        <v>19</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG162</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG162</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="5">
+        <v>28</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG163</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="4">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG163</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="5">
+        <v>28</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG164</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG164</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="5">
+        <v>37</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG165</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="4">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG165</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="5">
+        <v>10</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG166</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG166</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="5">
+        <v>15</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG167</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="4">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG167</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="5">
+        <v>19</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG168</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="4">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG168</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="5">
+        <v>10</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG169</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="4">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG169</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="5">
+        <v>15</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG170</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="4">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG170</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="5">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG171</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG171</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="5">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG172</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="4">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG172</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="5">
+        <v>19</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG173</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="4">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG173</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="5">
+        <v>10</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C74">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30696A0-A271-4BA3-8A63-5E4D64CBAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D2760D-7F07-4DD2-915B-6054D0EDE25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
   <si>
     <t>CODIGO</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>ESET Home Security Ultimate x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciamiento Virtual (ESD) Microsoft 365 - 12 meses, 5 Dispositivos, 1TB de almacenamiento </t>
+  </si>
+  <si>
+    <t>https://licenciascol.com/cdn/shop/files/OneDrive.jpg</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -766,26 +782,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J74" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:J75" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
     <sortCondition ref="C1:C74"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1305,9 @@
       <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>93</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>59</v>
@@ -1316,7 +1334,9 @@
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>100</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>93</v>
       </c>
@@ -3157,10 +3177,39 @@
       </c>
       <c r="J74" s="4"/>
     </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG174</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="4">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG174</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="5">
+        <v>295</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C75">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D2760D-7F07-4DD2-915B-6054D0EDE25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFDF32-B0EB-4B04-BDFD-7FBD424C571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
   <si>
     <t>CODIGO</t>
   </si>
@@ -446,13 +446,34 @@
     <t>ESET Home Security Premium x10</t>
   </si>
   <si>
-    <t>ESET Home Security Ultimate x10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Licenciamiento Virtual (ESD) Microsoft 365 - 12 meses, 5 Dispositivos, 1TB de almacenamiento </t>
   </si>
   <si>
     <t>https://licenciascol.com/cdn/shop/files/OneDrive.jpg</t>
+  </si>
+  <si>
+    <t>Kaspersky Standard x2</t>
+  </si>
+  <si>
+    <t>Kaspersky Plus x2</t>
+  </si>
+  <si>
+    <t>https://giftcardoferta.com/tienda/wp-content/uploads/2022/07/Microsoft-orbit.png</t>
+  </si>
+  <si>
+    <t>https://www.imeqmo.com/web/image/product.template/19872/image_1920?unique=3a6922c</t>
+  </si>
+  <si>
+    <t>https://promart.vteximg.com.br/arquivos/ids/8810701-1000-1000/imageUrl_1.jpg</t>
+  </si>
+  <si>
+    <t>https://oechsle.vteximg.com.br/arquivos/ids/14341821-1000-1000/image-78abee6017a64318874246d7bbaec3d9.jpg</t>
+  </si>
+  <si>
+    <t>ESET Home Security Ultimate x5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81-Ee4V3nnL._UF1000,1000_QL80_.jpg</t>
   </si>
 </sst>
 </file>
@@ -782,10 +803,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:J75" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
-    <sortCondition ref="C1:C74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:J78" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
+    <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11">
@@ -1094,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,24 +1172,26 @@
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="H2" s="5">
+        <v>19</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -1178,13 +1201,13 @@
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1193,9 +1216,11 @@
       <c r="G3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1205,13 +1230,13 @@
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1220,9 +1245,11 @@
       <c r="G4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1232,28 +1259,28 @@
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H5" s="5">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
@@ -1261,28 +1288,26 @@
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
@@ -1290,13 +1315,13 @@
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1305,11 +1330,9 @@
       <c r="G7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1319,26 +1342,24 @@
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1347,8 +1368,8 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG108</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -1364,10 +1385,10 @@
         <v>12</v>
       </c>
       <c r="H9" s="5">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1377,15 +1398,15 @@
         <v>DIG109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="str">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG109</v>
       </c>
@@ -1393,9 +1414,12 @@
         <v>12</v>
       </c>
       <c r="H10" s="5">
-        <v>226</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
@@ -1403,23 +1427,26 @@
         <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="str">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5">
-        <v>453</v>
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -1429,15 +1456,15 @@
         <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="7" t="str">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
@@ -1445,9 +1472,12 @@
         <v>12</v>
       </c>
       <c r="H12" s="5">
-        <v>143</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
@@ -1455,23 +1485,26 @@
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1481,23 +1514,26 @@
         <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1507,23 +1543,26 @@
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="H15" s="5">
-        <v>350</v>
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1533,24 +1572,26 @@
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H16" s="5">
+        <v>80</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1560,23 +1601,26 @@
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H17" s="5">
-        <v>242</v>
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1586,23 +1630,26 @@
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5">
-        <v>485</v>
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1612,23 +1659,26 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H19" s="5">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1637,24 +1687,27 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG119</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>131</v>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="7" t="str">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="H20" s="5">
-        <v>318</v>
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1664,23 +1717,26 @@
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="7" t="str">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5">
-        <v>191</v>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1690,23 +1746,26 @@
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5">
-        <v>382</v>
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1716,23 +1775,26 @@
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H23" s="5">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1742,23 +1804,26 @@
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="H24" s="5">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1768,13 +1833,13 @@
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1784,7 +1849,10 @@
         <v>12</v>
       </c>
       <c r="H25" s="5">
-        <v>143</v>
+        <v>254</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1794,23 +1862,26 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="H26" s="5">
-        <v>259</v>
+        <v>368</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1820,24 +1891,26 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="4" t="str">
+        <v>134</v>
+      </c>
+      <c r="F27" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H27" s="5">
+        <v>361</v>
+      </c>
       <c r="I27" s="4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1847,13 +1920,13 @@
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1862,8 +1935,13 @@
       <c r="G28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="5">
+        <v>46</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
@@ -1871,23 +1949,28 @@
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="J29" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="H29" s="5">
+        <v>73</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
@@ -1895,18 +1978,26 @@
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG129</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="5">
+        <v>19</v>
+      </c>
       <c r="I30" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1916,13 +2007,13 @@
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1932,12 +2023,12 @@
         <v>12</v>
       </c>
       <c r="H31" s="5">
-        <v>55</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
@@ -1945,23 +2036,26 @@
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="C32" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H32" s="5">
-        <v>361</v>
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1971,13 +2065,13 @@
         <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1987,10 +2081,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="5">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -2000,26 +2094,26 @@
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H34" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2029,28 +2123,28 @@
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
@@ -2058,57 +2152,57 @@
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG135</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H36" s="5">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG136</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F37" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG136</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H37" s="5">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
@@ -2116,26 +2210,23 @@
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F38" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H38" s="5">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -2145,26 +2236,23 @@
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F39" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG138</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H39" s="5">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -2173,29 +2261,29 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG139</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>26</v>
+      <c r="B40" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG139</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H40" s="5">
-        <v>19</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
@@ -2203,26 +2291,23 @@
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F41" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5">
-        <v>80</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -2232,26 +2317,23 @@
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F42" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG141</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H42" s="5">
-        <v>19</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -2261,26 +2343,23 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F43" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H43" s="5">
-        <v>19</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -2290,26 +2369,23 @@
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F44" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG143</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H44" s="5">
-        <v>28</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -2319,26 +2395,24 @@
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG144</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="5">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2348,26 +2422,23 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F46" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H46" s="5">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>86</v>
+        <v>485</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2377,26 +2448,23 @@
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F47" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG146</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H47" s="5">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2406,26 +2474,23 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F48" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG147</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H48" s="5">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2434,27 +2499,27 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG148</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>45</v>
+      <c r="B49" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F49" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG148</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="H49" s="5">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2464,28 +2529,25 @@
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F50" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="H50" s="5">
-        <v>46</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
@@ -2493,26 +2555,23 @@
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F51" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG150</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H51" s="5">
-        <v>19</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -2521,14 +2580,14 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG151</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>36</v>
+      <c r="B52" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C52" s="4">
         <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2538,10 +2597,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="5">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2550,27 +2609,27 @@
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG152</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>46</v>
+      <c r="B53" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG152</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -2580,23 +2639,23 @@
         <v>DIG153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F54" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="H54" s="5">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -2606,13 +2665,13 @@
         <v>DIG154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F55" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2622,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="5">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="J55" s="4"/>
     </row>
@@ -2632,28 +2691,25 @@
         <v>DIG155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C56" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F56" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="H56" s="5">
-        <v>37</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
@@ -2661,15 +2717,15 @@
         <v>DIG156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="4" t="str">
+        <v>123</v>
+      </c>
+      <c r="F57" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG156</v>
       </c>
@@ -2677,12 +2733,9 @@
         <v>12</v>
       </c>
       <c r="H57" s="5">
-        <v>46</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J57" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
@@ -2690,7 +2743,7 @@
         <v>DIG157</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C58" s="4">
         <v>10</v>
@@ -2706,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2719,7 +2772,7 @@
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -2735,10 +2788,10 @@
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J59" s="4"/>
     </row>
@@ -2748,15 +2801,15 @@
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="4" t="str">
+        <v>59</v>
+      </c>
+      <c r="F60" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG159</v>
       </c>
@@ -2764,10 +2817,10 @@
         <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="J60" s="4"/>
     </row>
@@ -2796,7 +2849,7 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="J61" s="4"/>
     </row>
@@ -2864,10 +2917,10 @@
         <v>DIG163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C64" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>63</v>
@@ -2879,11 +2932,9 @@
       <c r="G64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="5">
-        <v>28</v>
-      </c>
+      <c r="H64" s="5"/>
       <c r="I64" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J64" s="4"/>
     </row>
@@ -2893,7 +2944,7 @@
         <v>DIG164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="4">
         <v>10</v>
@@ -2909,10 +2960,10 @@
         <v>97</v>
       </c>
       <c r="H65" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J65" s="4"/>
     </row>
@@ -2922,26 +2973,26 @@
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H66" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J66" s="4"/>
     </row>
@@ -2951,26 +3002,26 @@
         <v>DIG166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H67" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J67" s="4"/>
     </row>
@@ -2980,26 +3031,26 @@
         <v>DIG167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H68" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J68" s="4"/>
     </row>
@@ -3009,13 +3060,13 @@
         <v>DIG168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F69" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3025,10 +3076,10 @@
         <v>66</v>
       </c>
       <c r="H69" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J69" s="4"/>
     </row>
@@ -3038,26 +3089,26 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H70" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J70" s="4"/>
     </row>
@@ -3067,26 +3118,26 @@
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H71" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J71" s="4"/>
     </row>
@@ -3096,13 +3147,13 @@
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3115,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3125,27 +3176,22 @@
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="5">
-        <v>19</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H73" s="5"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,27 +3200,22 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C74" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG173</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H74" s="5">
-        <v>10</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H74" s="5"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3183,7 +3224,7 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C75" s="4">
         <v>10</v>
@@ -3191,25 +3232,104 @@
       <c r="E75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="7" t="str">
+      <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H75" s="5">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG175</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG175</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG176</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="4">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG176</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="5">
+        <v>19</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG177</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="4">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG177</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" s="5">
+        <v>10</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C75">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C78">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFDF32-B0EB-4B04-BDFD-7FBD424C571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A2489-5874-4973-8E53-3AE1EF512B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
   <si>
     <t>CODIGO</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Kaspersky Total Security</t>
   </si>
   <si>
-    <t>Kaspersky VPN</t>
-  </si>
-  <si>
     <t>Bitdefender Total Security</t>
   </si>
   <si>
@@ -474,6 +471,15 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81-Ee4V3nnL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Kaspersky VPN x5</t>
+  </si>
+  <si>
+    <t>https://buysalesbd.com/public/uploads/all/LaKp1XRWpOYtxF6zQwPw5SmKctHYuhms6HEJa2WV.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Creative Cloud All Apps </t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -803,26 +819,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:J78" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:J79" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
     <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1115,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,26 +1188,26 @@
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="5">
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -1201,26 +1217,26 @@
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="5">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1230,26 +1246,26 @@
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG103</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG103</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1259,26 +1275,26 @@
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1288,24 +1304,24 @@
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1315,24 +1331,24 @@
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1342,24 +1358,24 @@
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1375,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1388,7 +1404,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1404,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1417,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1427,13 +1443,13 @@
         <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1446,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -1456,13 +1472,13 @@
         <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1475,7 +1491,7 @@
         <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1485,26 +1501,26 @@
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1514,26 +1530,26 @@
         <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1543,26 +1559,26 @@
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="5">
         <v>19</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1572,26 +1588,26 @@
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="5">
         <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1601,26 +1617,26 @@
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="5">
         <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1630,26 +1646,26 @@
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="5">
         <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1659,26 +1675,26 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="5">
         <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1688,26 +1704,26 @@
         <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1717,26 +1733,26 @@
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1746,26 +1762,26 @@
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1775,26 +1791,26 @@
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1804,26 +1820,26 @@
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1833,13 +1849,13 @@
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1852,7 +1868,7 @@
         <v>254</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1862,13 +1878,13 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1881,7 +1897,7 @@
         <v>368</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1891,13 +1907,13 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1910,7 +1926,7 @@
         <v>361</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1920,13 +1936,13 @@
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1939,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1949,26 +1965,26 @@
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="5">
         <v>73</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -1978,26 +1994,26 @@
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="5">
         <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -2007,13 +2023,13 @@
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2026,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2036,26 +2052,26 @@
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="5">
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -2065,13 +2081,13 @@
         <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2084,7 +2100,7 @@
         <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -2094,26 +2110,26 @@
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="5">
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2123,13 +2139,13 @@
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2142,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -2158,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2171,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -2181,13 +2197,13 @@
         <v>DIG136</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2200,7 +2216,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -2210,20 +2226,20 @@
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H38" s="5">
         <v>453</v>
@@ -2236,13 +2252,13 @@
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2262,13 +2278,13 @@
         <v>DIG139</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2281,7 +2297,7 @@
         <v>91</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -2291,20 +2307,20 @@
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H41" s="5">
         <v>286</v>
@@ -2317,13 +2333,13 @@
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2343,20 +2359,20 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H43" s="5">
         <v>350</v>
@@ -2369,13 +2385,13 @@
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2395,13 +2411,13 @@
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2412,7 +2428,7 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2422,20 +2438,20 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F46" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="5">
         <v>485</v>
@@ -2448,13 +2464,13 @@
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2474,13 +2490,13 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F48" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2500,26 +2516,26 @@
         <v>DIG148</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG148</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H49" s="5">
         <v>318</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2529,20 +2545,20 @@
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H50" s="5">
         <v>382</v>
@@ -2555,13 +2571,13 @@
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F51" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2581,13 +2597,13 @@
         <v>DIG151</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C52" s="4">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2600,7 +2616,7 @@
         <v>46</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2610,13 +2626,13 @@
         <v>DIG152</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2629,7 +2645,7 @@
         <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -2639,20 +2655,20 @@
         <v>DIG153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H54" s="5">
         <v>222</v>
@@ -2665,13 +2681,13 @@
         <v>DIG154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2691,20 +2707,20 @@
         <v>DIG155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" s="5">
         <v>259</v>
@@ -2717,13 +2733,13 @@
         <v>DIG156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2749,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2762,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2772,13 +2788,13 @@
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2791,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J59" s="4"/>
     </row>
@@ -2801,13 +2817,13 @@
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="7" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2820,7 +2836,7 @@
         <v>295</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J60" s="4"/>
     </row>
@@ -2830,13 +2846,13 @@
         <v>DIG160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4">
         <v>10</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2849,7 +2865,7 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J61" s="4"/>
     </row>
@@ -2859,13 +2875,13 @@
         <v>DIG161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="4">
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2878,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="4"/>
     </row>
@@ -2888,13 +2904,13 @@
         <v>DIG162</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="4">
         <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2907,7 +2923,7 @@
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J63" s="4"/>
     </row>
@@ -2917,24 +2933,24 @@
         <v>DIG163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG163</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J64" s="4"/>
     </row>
@@ -2944,26 +2960,26 @@
         <v>DIG164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="4">
         <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG164</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65" s="5">
         <v>28</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J65" s="4"/>
     </row>
@@ -2973,26 +2989,26 @@
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H66" s="5">
         <v>37</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J66" s="4"/>
     </row>
@@ -3002,26 +3018,26 @@
         <v>DIG166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="5">
         <v>10</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J67" s="4"/>
     </row>
@@ -3031,26 +3047,26 @@
         <v>DIG167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" s="5">
         <v>15</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J68" s="4"/>
     </row>
@@ -3060,26 +3076,26 @@
         <v>DIG168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="5">
         <v>19</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J69" s="4"/>
     </row>
@@ -3089,26 +3105,26 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="5">
         <v>10</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J70" s="4"/>
     </row>
@@ -3118,13 +3134,13 @@
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3137,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J71" s="4"/>
     </row>
@@ -3147,26 +3163,26 @@
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG171</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="5">
         <v>10</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3176,13 +3192,13 @@
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3200,13 +3216,13 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F74" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3224,26 +3240,26 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="4">
         <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H75" s="5">
         <v>10</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J75" s="4"/>
     </row>
@@ -3253,7 +3269,7 @@
         <v>DIG175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -3264,7 +3280,7 @@
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J76" s="4"/>
     </row>
@@ -3274,26 +3290,26 @@
         <v>DIG176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4">
         <v>10</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG176</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H77" s="5">
         <v>19</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J77" s="4"/>
     </row>
@@ -3303,33 +3319,62 @@
         <v>DIG177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H78" s="5">
         <v>10</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG178</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="4">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="7" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG178</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H79" s="5">
+        <v>19</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C79">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A2489-5874-4973-8E53-3AE1EF512B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60751A47-738F-48FA-A601-4CA41BE14D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
   <si>
     <t>CODIGO</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Autodesk - Revit 2026</t>
   </si>
   <si>
-    <t>SolidWork 2024</t>
-  </si>
-  <si>
-    <t>SolidWork 2025</t>
-  </si>
-  <si>
     <t>Microsoft 365</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>https://lamanzanamordida.com/wp-content/uploads/2024/11/01.-Perplexity-Pro.png</t>
   </si>
   <si>
-    <t>Perplexity PRO</t>
-  </si>
-  <si>
     <t>https://pbs.twimg.com/media/GGuIPIiXcAAyFaM.jpg</t>
   </si>
   <si>
@@ -480,6 +471,48 @@
   </si>
   <si>
     <t xml:space="preserve">Adobe Creative Cloud All Apps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corel VideoStudio Ultimate X9 </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61sPTM2glUL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Corel VideoStudio Ultimate 2022</t>
+  </si>
+  <si>
+    <t>https://cdn.zyrosite.com/cdn-cgi/image/format=auto,w=768,h=576,fit=crop/cdn-ecommerce/store_01JEHN7Z2XHBRXZZN9JKN4V5PN%2Fassets%2F1744276464006-corelvideostudioprox9.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perplexity AI Pro </t>
+  </si>
+  <si>
+    <t>SolidWorks 2024 Premium – Licencia académica oficial</t>
+  </si>
+  <si>
+    <t>https://s13emagst.akamaized.net/products/85257/85256569/images/res_8053591c4f7c46c97b33533d5ae41b9a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.k4g.com/files/media/cache/cover_270/cover/7043dbbe5a8be55c2777da0ce11cbe32.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolidWorks </t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise LTSC 2019</t>
+  </si>
+  <si>
+    <t>https://safelicenses.com/wp-content/uploads/2021/09/Windows-10-Enterprise-LTSC-2019-1-PC.png</t>
+  </si>
+  <si>
+    <t>https://cdkeyprices.com/images/software/pinnacle-studio-ultimate-19/pinnacle-studio-ultimate-19-logo.jpeg</t>
+  </si>
+  <si>
+    <t>Pinnacle Studio Ultimate 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumion 24 Pro | Educational </t>
   </si>
 </sst>
 </file>
@@ -580,13 +613,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -819,26 +882,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:J79" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
-    <sortCondition ref="B1:B78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
+    <sortCondition ref="B1:B79"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="15">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="10">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1131,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,123 +1247,123 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A2:A33" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5">
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG103</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5">
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG105</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1310,24 +1373,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG106</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1337,24 +1400,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG107</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1364,24 +1427,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG108</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1404,13 +1467,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG109</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1433,17 +1496,17 @@
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -1462,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG111</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1491,71 +1554,71 @@
         <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG114</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1572,19 +1635,19 @@
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="5">
         <v>19</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG115</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1601,263 +1664,263 @@
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="5">
         <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="5">
         <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5">
         <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" s="5">
         <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="7" t="str">
+        <v>130</v>
+      </c>
+      <c r="F25" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG124</v>
       </c>
@@ -1868,25 +1931,25 @@
         <v>254</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="7" t="str">
+        <v>130</v>
+      </c>
+      <c r="F26" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG125</v>
       </c>
@@ -1897,25 +1960,25 @@
         <v>368</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="7" t="str">
+        <v>130</v>
+      </c>
+      <c r="F27" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG126</v>
       </c>
@@ -1926,13 +1989,13 @@
         <v>361</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1955,13 +2018,13 @@
         <v>46</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG128</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1978,19 +2041,19 @@
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H29" s="5">
         <v>73</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2007,29 +2070,29 @@
         <v>DIG129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" s="5">
         <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2042,13 +2105,13 @@
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2058,26 +2121,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H32" s="5">
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG132</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2087,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2100,46 +2163,46 @@
         <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A34:A65" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG133</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG133</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="H34" s="5">
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
@@ -2158,13 +2221,13 @@
         <v>37</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2187,16 +2250,16 @@
         <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG136</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="4">
@@ -2216,30 +2279,30 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG137</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F38" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG137</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H38" s="5">
         <v>453</v>
@@ -2248,19 +2311,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG138</v>
       </c>
@@ -2274,11 +2337,11 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG139</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>139</v>
+      <c r="B40" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -2297,30 +2360,30 @@
         <v>91</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG140</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F41" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG140</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H41" s="5">
         <v>286</v>
@@ -2329,19 +2392,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F42" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG141</v>
       </c>
@@ -2355,24 +2418,24 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG142</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F43" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG142</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H43" s="5">
         <v>350</v>
@@ -2381,19 +2444,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG143</v>
       </c>
@@ -2407,7 +2470,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2428,30 +2491,30 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG145</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F46" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG145</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H46" s="5">
         <v>485</v>
@@ -2460,19 +2523,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG146</v>
       </c>
@@ -2486,19 +2549,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG147</v>
       </c>
@@ -2512,53 +2575,53 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG148</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>130</v>
+      <c r="B49" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG148</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F49" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG148</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H49" s="5">
         <v>318</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG149</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F50" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG149</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H50" s="5">
         <v>382</v>
@@ -2567,19 +2630,19 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG150</v>
       </c>
@@ -2593,10 +2656,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG151</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="4">
@@ -2616,17 +2679,17 @@
         <v>46</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG152</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>138</v>
+      <c r="B53" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2645,30 +2708,30 @@
         <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG153</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F54" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG153</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H54" s="5">
         <v>222</v>
@@ -2677,19 +2740,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F55" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG154</v>
       </c>
@@ -2703,24 +2766,24 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG155</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F56" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG155</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H56" s="5">
         <v>259</v>
@@ -2729,19 +2792,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="7" t="str">
+        <v>119</v>
+      </c>
+      <c r="F57" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG156</v>
       </c>
@@ -2755,7 +2818,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG157</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2778,17 +2841,17 @@
         <v>55</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -2807,25 +2870,25 @@
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="7" t="str">
+        <v>56</v>
+      </c>
+      <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG159</v>
       </c>
@@ -2836,23 +2899,23 @@
         <v>295</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4">
         <v>10</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2865,23 +2928,23 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C62" s="4">
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F62" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2894,23 +2957,23 @@
         <v>19</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG162</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" s="4">
         <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2923,160 +2986,160 @@
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG163</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="4">
         <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG164</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H65" s="5">
         <v>28</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A66:A80" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H66" s="5">
         <v>37</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H67" s="5">
         <v>10</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H68" s="5">
         <v>15</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
@@ -3089,140 +3152,145 @@
         <v>DIG168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H69" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H71" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG171</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="H73" s="5">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F74" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3231,150 +3299,318 @@
       <c r="G74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="5"/>
+      <c r="H74" s="5">
+        <v>165</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C75" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H75" s="5">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG175</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="G76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="5">
+        <v>10</v>
+      </c>
       <c r="I76" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG176</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H77" s="5">
-        <v>19</v>
-      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H78" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIG178</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="4">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG178</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="5">
+        <v>10</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIG179</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG179</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="5">
+        <v>19</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="str">
         <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG178</v>
-      </c>
-      <c r="B79" s="4" t="s">
+        <v>DIG180</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG180</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="5">
+        <v>19</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG181</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="7" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG178</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="C82" s="4">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG181</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="5">
         <v>19</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J79" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG182</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="4">
+        <v>10</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG182</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="5">
+        <v>37</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG183</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="4">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG183</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" s="5">
+        <v>19</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG184</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="J85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C79">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C85">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60751A47-738F-48FA-A601-4CA41BE14D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A81A69-FFC4-4DCB-ACF8-BC954E3C05C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,9 +503,6 @@
     <t>Windows 10 Enterprise LTSC 2019</t>
   </si>
   <si>
-    <t>https://safelicenses.com/wp-content/uploads/2021/09/Windows-10-Enterprise-LTSC-2019-1-PC.png</t>
-  </si>
-  <si>
     <t>https://cdkeyprices.com/images/software/pinnacle-studio-ultimate-19/pinnacle-studio-ultimate-19-logo.jpeg</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lumion 24 Pro | Educational </t>
+  </si>
+  <si>
+    <t>https://comercializadoradigital.cl/wp-content/uploads/2025/05/WINDOWS-10-ENTERPRISE-LTSC-2.png</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3556,7 @@
         <v>37</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J83" s="4"/>
     </row>
@@ -3566,7 +3566,7 @@
         <v>DIG183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4">
         <v>10</v>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J84" s="4"/>
     </row>
@@ -3595,7 +3595,7 @@
         <v>DIG184</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A81A69-FFC4-4DCB-ACF8-BC954E3C05C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B463B1-7666-4A22-90C6-AB009BB68B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,9 +434,6 @@
     <t>ESET Home Security Premium x10</t>
   </si>
   <si>
-    <t xml:space="preserve">Licenciamiento Virtual (ESD) Microsoft 365 - 12 meses, 5 Dispositivos, 1TB de almacenamiento </t>
-  </si>
-  <si>
     <t>https://licenciascol.com/cdn/shop/files/OneDrive.jpg</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>https://comercializadoradigital.cl/wp-content/uploads/2025/05/WINDOWS-10-ENTERPRISE-LTSC-2.png</t>
+  </si>
+  <si>
+    <t>Licenciamiento Virtual (ESD) Microsoft 365  - 1TB x5</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
         <v>254</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1960,7 +1960,7 @@
         <v>368</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1970,7 +1970,7 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1989,7 +1989,7 @@
         <v>361</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -2341,7 +2341,7 @@
         <v>DIG139</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -2598,7 +2598,7 @@
         <v>318</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2689,7 +2689,7 @@
         <v>DIG152</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2851,7 +2851,7 @@
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
@@ -2899,7 +2899,7 @@
         <v>295</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J60" s="4"/>
     </row>
@@ -2928,7 +2928,7 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J61" s="4"/>
     </row>
@@ -3139,7 +3139,7 @@
         <v>DIG168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
@@ -3168,7 +3168,7 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
@@ -3284,7 +3284,7 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>165</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J74" s="4"/>
     </row>
@@ -3313,7 +3313,7 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>125</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75" s="4"/>
     </row>
@@ -3450,7 +3450,7 @@
         <v>DIG179</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="4">
         <v>10</v>
@@ -3469,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J80" s="4"/>
     </row>
@@ -3479,7 +3479,7 @@
         <v>DIG180</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4">
         <v>10</v>
@@ -3498,7 +3498,7 @@
         <v>19</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J81" s="4"/>
     </row>
@@ -3508,7 +3508,7 @@
         <v>DIG181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="4">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>19</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J82" s="4"/>
     </row>
@@ -3537,7 +3537,7 @@
         <v>DIG182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4">
         <v>10</v>
@@ -3556,7 +3556,7 @@
         <v>37</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J83" s="4"/>
     </row>
@@ -3566,7 +3566,7 @@
         <v>DIG183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4">
         <v>10</v>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J84" s="4"/>
     </row>
@@ -3595,7 +3595,7 @@
         <v>DIG184</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B463B1-7666-4A22-90C6-AB009BB68B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A57C39-5C97-47E8-967A-99AAAF37BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
     <t>https://comercializadoradigital.cl/wp-content/uploads/2025/05/WINDOWS-10-ENTERPRISE-LTSC-2.png</t>
   </si>
   <si>
-    <t>Licenciamiento Virtual (ESD) Microsoft 365  - 1TB x5</t>
+    <t>Microsoft 365 (ESD) + 1TB x5</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -614,62 +614,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -882,26 +831,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
     <sortCondition ref="B1:B79"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
       <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="5">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3487,7 +3436,7 @@
       <c r="E81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F81" s="8" t="str">
+      <c r="F81" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG180</v>
       </c>
@@ -3516,7 +3465,7 @@
       <c r="E82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F82" s="8" t="str">
+      <c r="F82" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG181</v>
       </c>
@@ -3545,7 +3494,7 @@
       <c r="E83" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="8" t="str">
+      <c r="F83" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG182</v>
       </c>
@@ -3574,7 +3523,7 @@
       <c r="E84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F84" s="8" t="str">
+      <c r="F84" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
       </c>
@@ -3600,7 +3549,7 @@
       <c r="C85" s="4">
         <v>0</v>
       </c>
-      <c r="F85" s="8" t="str">
+      <c r="F85" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG184</v>
       </c>
@@ -3610,7 +3559,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C85">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A57C39-5C97-47E8-967A-99AAAF37BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17104D6-BC44-4FDE-8667-93D2A1B51B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
   <si>
     <t>CODIGO</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Microsoft Windows 11 Pro</t>
   </si>
   <si>
-    <t>Microsoft Windows 10 LTSC</t>
-  </si>
-  <si>
     <t>PRODUCTIVIDAD</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>https://key-mart.com/wp-content/uploads/2024/11/Project-Pro-2024-for-1-PC-instant-product-key-download_2.png</t>
   </si>
   <si>
-    <t>https://osiriss.lv/image/cache/catalog/a_image/products/5/4/9/8/7/4/f567ec8a32f67f2198928570b23e24b7/440x440-1000x1000.png</t>
-  </si>
-  <si>
     <t>Kaspersky Antivirus</t>
   </si>
   <si>
@@ -497,9 +491,6 @@
     <t xml:space="preserve">SolidWorks </t>
   </si>
   <si>
-    <t>Windows 10 Enterprise LTSC 2019</t>
-  </si>
-  <si>
     <t>https://cdkeyprices.com/images/software/pinnacle-studio-ultimate-19/pinnacle-studio-ultimate-19-logo.jpeg</t>
   </si>
   <si>
@@ -513,6 +504,9 @@
   </si>
   <si>
     <t>Microsoft 365 (ESD) + 1TB x5</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise LTSC</t>
   </si>
 </sst>
 </file>
@@ -831,10 +825,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
-    <sortCondition ref="B1:B79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:J84" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
+    <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
@@ -1143,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,20 +1200,20 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5">
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -1235,20 +1229,20 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1258,26 +1252,26 @@
         <v>DIG103</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG103</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG103</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1293,20 +1287,20 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1322,18 +1316,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -1349,18 +1343,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1376,18 +1370,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1416,7 +1410,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1445,7 +1439,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1474,7 +1468,7 @@
         <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -1503,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1519,20 +1513,20 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1548,20 +1542,20 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1584,13 +1578,13 @@
         <v>DIG114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="5">
         <v>19</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1613,13 +1607,13 @@
         <v>DIG115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="5">
         <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1635,20 +1629,20 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5">
         <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1664,20 +1658,20 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="5">
         <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1687,26 +1681,26 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="5">
         <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1722,20 +1716,20 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1751,20 +1745,20 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1780,20 +1774,20 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1809,20 +1803,20 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1838,20 +1832,20 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1861,13 +1855,13 @@
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1880,7 +1874,7 @@
         <v>254</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1890,13 +1884,13 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1909,7 +1903,7 @@
         <v>368</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1919,13 +1913,13 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1938,7 +1932,7 @@
         <v>361</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1967,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1990,13 +1984,13 @@
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H29" s="5">
         <v>73</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -2019,13 +2013,13 @@
         <v>DIG129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="5">
         <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -2041,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2054,7 +2048,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2070,20 +2064,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32" s="5">
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -2099,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2112,13 +2106,13 @@
         <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A65" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A34:A64" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2128,20 +2122,20 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" s="5">
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2151,7 +2145,7 @@
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
@@ -2170,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -2199,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -2228,7 +2222,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -2238,20 +2232,20 @@
         <v>DIG137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="5">
         <v>453</v>
@@ -2264,13 +2258,13 @@
         <v>DIG138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2290,7 +2284,7 @@
         <v>DIG139</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -2309,7 +2303,7 @@
         <v>91</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -2319,20 +2313,20 @@
         <v>DIG140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H41" s="5">
         <v>286</v>
@@ -2345,13 +2339,13 @@
         <v>DIG141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2371,20 +2365,20 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F43" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H43" s="5">
         <v>350</v>
@@ -2397,13 +2391,13 @@
         <v>DIG143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2440,7 +2434,7 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2450,20 +2444,20 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46" s="5">
         <v>485</v>
@@ -2476,13 +2470,13 @@
         <v>DIG146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2502,13 +2496,13 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2528,26 +2522,26 @@
         <v>DIG148</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG148</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H49" s="5">
         <v>318</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2557,20 +2551,20 @@
         <v>DIG149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F50" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" s="5">
         <v>382</v>
@@ -2583,13 +2577,13 @@
         <v>DIG150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2628,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2638,7 +2632,7 @@
         <v>DIG152</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2657,7 +2651,7 @@
         <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -2667,20 +2661,20 @@
         <v>DIG153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H54" s="5">
         <v>222</v>
@@ -2693,13 +2687,13 @@
         <v>DIG154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2719,20 +2713,20 @@
         <v>DIG155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H56" s="5">
         <v>259</v>
@@ -2745,13 +2739,13 @@
         <v>DIG156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F57" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2790,7 +2784,7 @@
         <v>55</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2800,7 +2794,7 @@
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -2819,7 +2813,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J59" s="4"/>
     </row>
@@ -2829,13 +2823,13 @@
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2848,7 +2842,7 @@
         <v>295</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J60" s="4"/>
     </row>
@@ -2864,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2877,7 +2871,7 @@
         <v>37</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J61" s="4"/>
     </row>
@@ -2893,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F62" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2906,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J62" s="4"/>
     </row>
@@ -2922,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2935,7 +2929,7 @@
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J63" s="4"/>
     </row>
@@ -2945,50 +2939,52 @@
         <v>DIG163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG163</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="H64" s="5">
+        <v>28</v>
+      </c>
       <c r="I64" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A65:A79" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="4">
         <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG164</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H65" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>113</v>
@@ -2997,30 +2993,30 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A80" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H66" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J66" s="4"/>
     </row>
@@ -3030,23 +3026,23 @@
         <v>DIG166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H67" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>102</v>
@@ -3059,23 +3055,23 @@
         <v>DIG167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H68" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>103</v>
@@ -3088,7 +3084,7 @@
         <v>DIG168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
@@ -3101,13 +3097,13 @@
         <v>DIG168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H69" s="5">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J69" s="4"/>
     </row>
@@ -3117,23 +3113,23 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H70" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>104</v>
@@ -3146,26 +3142,26 @@
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="4">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG170</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="5">
+        <v>15</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C71" s="4">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG170</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="5">
-        <v>10</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="J71" s="4"/>
     </row>
@@ -3175,26 +3171,26 @@
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG171</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="5">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C72" s="4">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG171</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="5">
-        <v>15</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3204,10 +3200,10 @@
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>58</v>
@@ -3217,13 +3213,13 @@
         <v>DIG172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H73" s="5">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J73" s="4"/>
     </row>
@@ -3233,13 +3229,13 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F74" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3249,10 +3245,10 @@
         <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J74" s="4"/>
     </row>
@@ -3262,26 +3258,26 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H75" s="5">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="J75" s="4"/>
     </row>
@@ -3291,26 +3287,18 @@
         <v>DIG175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C76" s="4">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG175</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="5">
-        <v>10</v>
-      </c>
+      <c r="H76" s="5"/>
       <c r="I76" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J76" s="4"/>
     </row>
@@ -3320,18 +3308,26 @@
         <v>DIG176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C77" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG176</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="G77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="5">
+        <v>19</v>
+      </c>
       <c r="I77" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J77" s="4"/>
     </row>
@@ -3341,26 +3337,26 @@
         <v>DIG177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H78" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J78" s="4"/>
     </row>
@@ -3370,55 +3366,55 @@
         <v>DIG178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4">
         <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F79" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG178</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG179</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4">
         <v>10</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F80" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG179</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H80" s="5">
         <v>19</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J80" s="4"/>
     </row>
@@ -3434,20 +3430,20 @@
         <v>10</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG180</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H81" s="5">
         <v>19</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J81" s="4"/>
     </row>
@@ -3457,26 +3453,26 @@
         <v>DIG181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4">
         <v>10</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F82" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG181</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H82" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J82" s="4"/>
     </row>
@@ -3486,26 +3482,26 @@
         <v>DIG182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4">
         <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F83" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG182</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H83" s="5">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J83" s="4"/>
     </row>
@@ -3515,50 +3511,21 @@
         <v>DIG183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H84" s="5">
-        <v>19</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="H84" s="5"/>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG184</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="J85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C85">
+  <conditionalFormatting sqref="C2:C84">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17104D6-BC44-4FDE-8667-93D2A1B51B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32552C7-D6AB-4085-9544-6ED78E8BB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
   <si>
     <t>CODIGO</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Windows 10 Enterprise LTSC</t>
+  </si>
+  <si>
+    <t>ChatGPT PRO - Privado</t>
+  </si>
+  <si>
+    <t>Con tu E-mail. Sucripcion x 30 dias</t>
   </si>
 </sst>
 </file>
@@ -825,10 +831,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J84" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
-    <sortCondition ref="B1:B78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
+    <sortCondition ref="B1:B79"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
@@ -1137,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A33" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A2:A34" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG101</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1623,26 +1629,26 @@
         <v>DIG116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="H17" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1652,7 +1658,7 @@
         <v>DIG117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -1671,7 +1677,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1681,7 +1687,7 @@
         <v>DIG118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -1697,10 +1703,10 @@
         <v>94</v>
       </c>
       <c r="H19" s="5">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1710,26 +1716,26 @@
         <v>DIG119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H20" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1739,7 +1745,7 @@
         <v>DIG120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -1758,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1768,13 +1774,13 @@
         <v>DIG121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1787,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1797,7 +1803,7 @@
         <v>DIG122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -1816,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1826,7 +1832,7 @@
         <v>DIG123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -1845,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1855,26 +1861,26 @@
         <v>DIG124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG124</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1884,7 +1890,7 @@
         <v>DIG125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -1900,10 +1906,10 @@
         <v>12</v>
       </c>
       <c r="H26" s="5">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1913,7 +1919,7 @@
         <v>DIG126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1929,10 +1935,10 @@
         <v>12</v>
       </c>
       <c r="H27" s="5">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1942,13 +1948,13 @@
         <v>DIG127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1958,12 +1964,12 @@
         <v>12</v>
       </c>
       <c r="H28" s="5">
-        <v>46</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
@@ -1984,10 +1990,10 @@
         <v>DIG128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H29" s="5">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>86</v>
@@ -2000,28 +2006,28 @@
         <v>DIG129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H30" s="5">
-        <v>19</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
@@ -2029,26 +2035,26 @@
         <v>DIG130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG130</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H31" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2058,26 +2064,26 @@
         <v>DIG131</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F32" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -2090,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>55</v>
@@ -2100,10 +2106,10 @@
         <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H33" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>89</v>
@@ -2112,61 +2118,61 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A64" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="0"/>
         <v>DIG133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F34" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A35:A65" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H35" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
@@ -2174,7 +2180,7 @@
         <v>DIG135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -2190,10 +2196,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="5">
-        <v>46</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -2202,8 +2208,8 @@
         <f t="shared" si="1"/>
         <v>DIG136</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>17</v>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -2219,10 +2225,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="5">
-        <v>55</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -2231,26 +2237,29 @@
         <f t="shared" si="1"/>
         <v>DIG137</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>124</v>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H38" s="5">
-        <v>453</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
@@ -2271,10 +2280,10 @@
         <v>DIG138</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H39" s="5">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -2283,14 +2292,14 @@
         <f t="shared" si="1"/>
         <v>DIG139</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>133</v>
+      <c r="B40" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2300,38 +2309,38 @@
         <v>12</v>
       </c>
       <c r="H40" s="5">
-        <v>91</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DIG140</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>122</v>
+      <c r="B41" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F41" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H41" s="5">
-        <v>286</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
@@ -2352,10 +2361,10 @@
         <v>DIG141</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H42" s="5">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -2365,7 +2374,7 @@
         <v>DIG142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2378,10 +2387,10 @@
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H43" s="5">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -2404,10 +2413,10 @@
         <v>DIG143</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H44" s="5">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -2417,13 +2426,13 @@
         <v>DIG144</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2432,9 +2441,8 @@
       <c r="G45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4" t="s">
-        <v>96</v>
+      <c r="H45" s="5">
+        <v>175</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2444,23 +2452,24 @@
         <v>DIG145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG145</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="5">
-        <v>485</v>
+        <v>12</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2483,10 +2492,10 @@
         <v>DIG146</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H47" s="5">
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2496,7 +2505,7 @@
         <v>DIG147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2512,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="5">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2521,11 +2530,11 @@
         <f t="shared" si="1"/>
         <v>DIG148</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>117</v>
@@ -2535,13 +2544,10 @@
         <v>DIG148</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H49" s="5">
-        <v>318</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2550,11 +2556,11 @@
         <f t="shared" si="1"/>
         <v>DIG149</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>126</v>
+      <c r="B50" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>117</v>
@@ -2567,7 +2573,10 @@
         <v>120</v>
       </c>
       <c r="H50" s="5">
-        <v>382</v>
+        <v>318</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2590,10 +2599,10 @@
         <v>DIG150</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H51" s="5">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -2602,14 +2611,14 @@
         <f t="shared" si="1"/>
         <v>DIG151</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>19</v>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C52" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2619,10 +2628,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="5">
-        <v>46</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2632,7 +2638,7 @@
         <v>DIG152</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2648,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>121</v>
@@ -2660,24 +2666,27 @@
         <f t="shared" si="1"/>
         <v>DIG153</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>118</v>
+      <c r="B54" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H54" s="5">
-        <v>222</v>
+        <v>73</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -2700,10 +2709,10 @@
         <v>DIG154</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H55" s="5">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="J55" s="4"/>
     </row>
@@ -2713,7 +2722,7 @@
         <v>DIG155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -2726,10 +2735,10 @@
         <v>DIG155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H56" s="5">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="J56" s="4"/>
     </row>
@@ -2752,10 +2761,10 @@
         <v>DIG156</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H57" s="5">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2765,13 +2774,13 @@
         <v>DIG157</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F58" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2781,10 +2790,7 @@
         <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>55</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2794,7 +2800,7 @@
         <v>DIG158</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -2810,10 +2816,10 @@
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J59" s="4"/>
     </row>
@@ -2823,13 +2829,13 @@
         <v>DIG159</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2839,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="J60" s="4"/>
     </row>
@@ -2852,7 +2858,7 @@
         <v>DIG160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4">
         <v>10</v>
@@ -2868,10 +2874,10 @@
         <v>12</v>
       </c>
       <c r="H61" s="5">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J61" s="4"/>
     </row>
@@ -2881,7 +2887,7 @@
         <v>DIG161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C62" s="4">
         <v>10</v>
@@ -2897,10 +2903,10 @@
         <v>12</v>
       </c>
       <c r="H62" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="J62" s="4"/>
     </row>
@@ -2910,7 +2916,7 @@
         <v>DIG162</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4">
         <v>10</v>
@@ -2926,10 +2932,10 @@
         <v>12</v>
       </c>
       <c r="H63" s="5">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J63" s="4"/>
     </row>
@@ -2939,36 +2945,36 @@
         <v>DIG163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4">
         <v>10</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG163</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H64" s="5">
         <v>28</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" ref="A65:A79" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="1"/>
         <v>DIG164</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="4">
         <v>10</v>
@@ -2984,39 +2990,39 @@
         <v>93</v>
       </c>
       <c r="H65" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A66:A80" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H66" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J66" s="4"/>
     </row>
@@ -3026,26 +3032,26 @@
         <v>DIG166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C67" s="4">
         <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H67" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J67" s="4"/>
     </row>
@@ -3055,26 +3061,26 @@
         <v>DIG167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H68" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J68" s="4"/>
     </row>
@@ -3097,10 +3103,10 @@
         <v>DIG168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H69" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>103</v>
@@ -3113,26 +3119,26 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J70" s="4"/>
     </row>
@@ -3142,26 +3148,26 @@
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H71" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J71" s="4"/>
     </row>
@@ -3171,26 +3177,26 @@
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG171</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3200,26 +3206,26 @@
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H73" s="5">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="J73" s="4"/>
     </row>
@@ -3229,7 +3235,7 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -3245,10 +3251,10 @@
         <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J74" s="4"/>
     </row>
@@ -3258,26 +3264,26 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H75" s="5">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="J75" s="4"/>
     </row>
@@ -3287,18 +3293,26 @@
         <v>DIG175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG175</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="G76" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="5">
+        <v>10</v>
+      </c>
       <c r="I76" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J76" s="4"/>
     </row>
@@ -3308,26 +3322,18 @@
         <v>DIG176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG176</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" s="5">
-        <v>19</v>
-      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J77" s="4"/>
     </row>
@@ -3337,26 +3343,26 @@
         <v>DIG177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H78" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J78" s="4"/>
     </row>
@@ -3366,13 +3372,13 @@
         <v>DIG178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="C79" s="4">
         <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3382,39 +3388,39 @@
         <v>62</v>
       </c>
       <c r="H79" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" si="2"/>
         <v>DIG179</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="4">
         <v>10</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG179</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H80" s="5">
         <v>19</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J80" s="4"/>
     </row>
@@ -3424,7 +3430,7 @@
         <v>DIG180</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4">
         <v>10</v>
@@ -3443,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J81" s="4"/>
     </row>
@@ -3453,13 +3459,13 @@
         <v>DIG181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4">
         <v>10</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3469,10 +3475,10 @@
         <v>93</v>
       </c>
       <c r="H82" s="5">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J82" s="4"/>
     </row>
@@ -3482,13 +3488,13 @@
         <v>DIG182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C83" s="4">
         <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F83" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3498,10 +3504,10 @@
         <v>93</v>
       </c>
       <c r="H83" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J83" s="4"/>
     </row>
@@ -3511,21 +3517,50 @@
         <v>DIG183</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="4">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG183</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" s="5">
+        <v>19</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <v>DIG184</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C85" s="4">
         <v>0</v>
       </c>
-      <c r="F84" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG183</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="J84" s="4"/>
+      <c r="F85" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="J85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C84">
+  <conditionalFormatting sqref="C2:C85">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32552C7-D6AB-4085-9544-6ED78E8BB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13910BF2-4F33-4651-8D22-8F164A6BF252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
   <si>
     <t>CODIGO</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Con tu E-mail. Sucripcion x 30 dias</t>
+  </si>
+  <si>
+    <t>Sucripcion Permanente. Soporte hasta 12 de enero de 2027.</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,7 +3504,7 @@
         <v>DIG182</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="H83" s="5">
         <v>37</v>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13910BF2-4F33-4651-8D22-8F164A6BF252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489FE7C-D236-4DF7-9DB0-2C698E8D3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="163">
   <si>
     <t>CODIGO</t>
   </si>
@@ -512,10 +512,16 @@
     <t>ChatGPT PRO - Privado</t>
   </si>
   <si>
-    <t>Con tu E-mail. Sucripcion x 30 dias</t>
-  </si>
-  <si>
     <t>Sucripcion Permanente. Soporte hasta 12 de enero de 2027.</t>
+  </si>
+  <si>
+    <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Plus-1024x651.jpg</t>
+  </si>
+  <si>
+    <t>Con tu correo electronico. Sucripcion x 30 dias</t>
+  </si>
+  <si>
+    <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Pro-1024x609.jpg</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1628,7 @@
         <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1645,13 +1651,13 @@
         <v>DIG116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" s="5">
         <v>28</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -3504,7 +3510,7 @@
         <v>DIG182</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H83" s="5">
         <v>37</v>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489FE7C-D236-4DF7-9DB0-2C698E8D3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B837D40-8628-46CA-B53F-533771F04851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
   <si>
     <t>CODIGO</t>
   </si>
@@ -840,10 +840,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
-    <sortCondition ref="B1:B79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:J84" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
+    <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
@@ -1152,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A80" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+        <f t="shared" ref="A66:A79" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG165</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -3112,10 +3112,10 @@
         <v>DIG168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H69" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>103</v>
@@ -3128,26 +3128,26 @@
         <v>DIG169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C70" s="4">
         <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H70" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J70" s="4"/>
     </row>
@@ -3157,26 +3157,26 @@
         <v>DIG170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H71" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J71" s="4"/>
     </row>
@@ -3186,26 +3186,26 @@
         <v>DIG171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG171</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H72" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3215,26 +3215,26 @@
         <v>DIG172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H73" s="5">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="J73" s="4"/>
     </row>
@@ -3244,7 +3244,7 @@
         <v>DIG173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -3260,10 +3260,10 @@
         <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J74" s="4"/>
     </row>
@@ -3273,26 +3273,26 @@
         <v>DIG174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H75" s="5">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="J75" s="4"/>
     </row>
@@ -3302,26 +3302,18 @@
         <v>DIG175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C76" s="4">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG175</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="5">
-        <v>10</v>
-      </c>
+      <c r="H76" s="5"/>
       <c r="I76" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J76" s="4"/>
     </row>
@@ -3331,18 +3323,26 @@
         <v>DIG176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C77" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG176</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="G77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="5">
+        <v>19</v>
+      </c>
       <c r="I77" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J77" s="4"/>
     </row>
@@ -3352,26 +3352,26 @@
         <v>DIG177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H78" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J78" s="4"/>
     </row>
@@ -3381,13 +3381,13 @@
         <v>DIG178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4">
         <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3397,39 +3397,39 @@
         <v>62</v>
       </c>
       <c r="H79" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
         <v>DIG179</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4">
         <v>10</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F80" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG179</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H80" s="5">
         <v>19</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J80" s="4"/>
     </row>
@@ -3439,7 +3439,7 @@
         <v>DIG180</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4">
         <v>10</v>
@@ -3458,7 +3458,7 @@
         <v>19</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J81" s="4"/>
     </row>
@@ -3468,26 +3468,26 @@
         <v>DIG181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4">
         <v>10</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F82" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG181</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H82" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="J82" s="4"/>
     </row>
@@ -3497,26 +3497,26 @@
         <v>DIG182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4">
         <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG182</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="H83" s="5">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J83" s="4"/>
     </row>
@@ -3526,50 +3526,21 @@
         <v>DIG183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H84" s="5">
-        <v>19</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="H84" s="5"/>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG184</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="J85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C85">
+  <conditionalFormatting sqref="C2:C84">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B837D40-8628-46CA-B53F-533771F04851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15638F6E-7E39-4208-AFB0-2CE85296A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="252">
   <si>
     <t>CODIGO</t>
   </si>
@@ -512,9 +512,6 @@
     <t>ChatGPT PRO - Privado</t>
   </si>
   <si>
-    <t>Sucripcion Permanente. Soporte hasta 12 de enero de 2027.</t>
-  </si>
-  <si>
     <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Plus-1024x651.jpg</t>
   </si>
   <si>
@@ -522,6 +519,276 @@
   </si>
   <si>
     <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Pro-1024x609.jpg</t>
+  </si>
+  <si>
+    <t>Sucripcion Permanente. Fin de soporte 14 de octubre de 2025.</t>
+  </si>
+  <si>
+    <t>Fin de soporte 9 de octubre de 2029.</t>
+  </si>
+  <si>
+    <t>Sucripcion Permanente. Fin de soporte 12 de enero de 2027.</t>
+  </si>
+  <si>
+    <t>https://tucodigodigital.com/wp-content/uploads/2025/06/Allavsoft-Video-and-Music-Downloader-e1750033773979.webp</t>
+  </si>
+  <si>
+    <t>Allavsoft Video Downloader</t>
+  </si>
+  <si>
+    <t>DIG101</t>
+  </si>
+  <si>
+    <t>DIG102</t>
+  </si>
+  <si>
+    <t>DIG103</t>
+  </si>
+  <si>
+    <t>DIG104</t>
+  </si>
+  <si>
+    <t>DIG106</t>
+  </si>
+  <si>
+    <t>DIG107</t>
+  </si>
+  <si>
+    <t>DIG108</t>
+  </si>
+  <si>
+    <t>DIG109</t>
+  </si>
+  <si>
+    <t>DIG110</t>
+  </si>
+  <si>
+    <t>DIG111</t>
+  </si>
+  <si>
+    <t>DIG112</t>
+  </si>
+  <si>
+    <t>DIG113</t>
+  </si>
+  <si>
+    <t>DIG115</t>
+  </si>
+  <si>
+    <t>DIG116</t>
+  </si>
+  <si>
+    <t>DIG117</t>
+  </si>
+  <si>
+    <t>DIG120</t>
+  </si>
+  <si>
+    <t>DIG121</t>
+  </si>
+  <si>
+    <t>DIG122</t>
+  </si>
+  <si>
+    <t>DIG123</t>
+  </si>
+  <si>
+    <t>DIG124</t>
+  </si>
+  <si>
+    <t>DIG125</t>
+  </si>
+  <si>
+    <t>DIG126</t>
+  </si>
+  <si>
+    <t>DIG127</t>
+  </si>
+  <si>
+    <t>DIG128</t>
+  </si>
+  <si>
+    <t>DIG129</t>
+  </si>
+  <si>
+    <t>DIG130</t>
+  </si>
+  <si>
+    <t>DIG131</t>
+  </si>
+  <si>
+    <t>DIG132</t>
+  </si>
+  <si>
+    <t>DIG133</t>
+  </si>
+  <si>
+    <t>DIG134</t>
+  </si>
+  <si>
+    <t>DIG135</t>
+  </si>
+  <si>
+    <t>DIG136</t>
+  </si>
+  <si>
+    <t>DIG137</t>
+  </si>
+  <si>
+    <t>DIG138</t>
+  </si>
+  <si>
+    <t>DIG139</t>
+  </si>
+  <si>
+    <t>DIG140</t>
+  </si>
+  <si>
+    <t>DIG141</t>
+  </si>
+  <si>
+    <t>DIG142</t>
+  </si>
+  <si>
+    <t>DIG143</t>
+  </si>
+  <si>
+    <t>DIG144</t>
+  </si>
+  <si>
+    <t>DIG145</t>
+  </si>
+  <si>
+    <t>DIG146</t>
+  </si>
+  <si>
+    <t>DIG147</t>
+  </si>
+  <si>
+    <t>DIG148</t>
+  </si>
+  <si>
+    <t>DIG149</t>
+  </si>
+  <si>
+    <t>DIG150</t>
+  </si>
+  <si>
+    <t>DIG151</t>
+  </si>
+  <si>
+    <t>DIG152</t>
+  </si>
+  <si>
+    <t>DIG153</t>
+  </si>
+  <si>
+    <t>DIG154</t>
+  </si>
+  <si>
+    <t>DIG155</t>
+  </si>
+  <si>
+    <t>DIG156</t>
+  </si>
+  <si>
+    <t>DIG157</t>
+  </si>
+  <si>
+    <t>DIG158</t>
+  </si>
+  <si>
+    <t>DIG159</t>
+  </si>
+  <si>
+    <t>DIG160</t>
+  </si>
+  <si>
+    <t>DIG161</t>
+  </si>
+  <si>
+    <t>DIG162</t>
+  </si>
+  <si>
+    <t>DIG163</t>
+  </si>
+  <si>
+    <t>DIG164</t>
+  </si>
+  <si>
+    <t>DIG165</t>
+  </si>
+  <si>
+    <t>DIG166</t>
+  </si>
+  <si>
+    <t>DIG167</t>
+  </si>
+  <si>
+    <t>DIG168</t>
+  </si>
+  <si>
+    <t>DIG169</t>
+  </si>
+  <si>
+    <t>DIG170</t>
+  </si>
+  <si>
+    <t>DIG171</t>
+  </si>
+  <si>
+    <t>DIG172</t>
+  </si>
+  <si>
+    <t>DIG173</t>
+  </si>
+  <si>
+    <t>DIG174</t>
+  </si>
+  <si>
+    <t>DIG175</t>
+  </si>
+  <si>
+    <t>DIG176</t>
+  </si>
+  <si>
+    <t>DIG177</t>
+  </si>
+  <si>
+    <t>DIG178</t>
+  </si>
+  <si>
+    <t>DIG179</t>
+  </si>
+  <si>
+    <t>DIG180</t>
+  </si>
+  <si>
+    <t>DIG181</t>
+  </si>
+  <si>
+    <t>DIG182</t>
+  </si>
+  <si>
+    <t>DIG183</t>
+  </si>
+  <si>
+    <t>DIG184</t>
+  </si>
+  <si>
+    <t>DIG010</t>
+  </si>
+  <si>
+    <t>DIG011</t>
+  </si>
+  <si>
+    <t>DIG012</t>
+  </si>
+  <si>
+    <t>DIG013</t>
+  </si>
+  <si>
+    <t>ESENCIALES</t>
   </si>
 </sst>
 </file>
@@ -840,15 +1107,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J84" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
-    <sortCondition ref="B1:B78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J85">
+    <sortCondition ref="H1:H85"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10">
-      <calculatedColumnFormula>"DIG"&amp;TEXT(ROW()-1+100,"000")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
@@ -1152,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,38 +1469,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A34" si="0">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+      <c r="A2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG101</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG101</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H2" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG102</v>
+      <c r="A3" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>41</v>
@@ -1262,9 +1525,8 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG103</v>
+      <c r="A4" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -1291,9 +1553,8 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG104</v>
+      <c r="A5" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>46</v>
@@ -1320,45 +1581,45 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG105</v>
+      <c r="A6" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG105</v>
+        <v>DIG010</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG106</v>
+      <c r="A7" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1367,25 +1628,26 @@
       <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG107</v>
+      <c r="A8" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1394,141 +1656,138 @@
       <c r="G8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>10</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG108</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG109</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG110</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG110</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5">
-        <v>55</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG112</v>
+      <c r="A13" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1538,26 +1797,25 @@
         <v>62</v>
       </c>
       <c r="H13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG113</v>
+      <c r="A14" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1570,52 +1828,50 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG114</v>
+      <c r="A15" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG114</v>
+        <v>DIG011</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG115</v>
+      <c r="A16" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1625,200 +1881,193 @@
         <v>62</v>
       </c>
       <c r="H16" s="5">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG116</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG116</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H17" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG117</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG012</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG013</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="5">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG120</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG121</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="5">
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG117</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="5">
-        <v>19</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG118</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG118</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="5">
-        <v>19</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG119</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG119</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="5">
-        <v>28</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG120</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG120</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG121</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG121</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG122</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1828,26 +2077,25 @@
         <v>62</v>
       </c>
       <c r="H23" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG123</v>
+      <c r="A24" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1857,20 +2105,19 @@
         <v>62</v>
       </c>
       <c r="H24" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG124</v>
+      <c r="A25" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -1883,229 +2130,218 @@
         <v>DIG124</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG125</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="5">
+        <v>19</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG126</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="5">
+        <v>19</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG127</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="5">
+        <v>19</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG128</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="5">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG125</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG125</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="H29" s="5">
+        <v>19</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG129</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="5">
-        <v>254</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG126</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG126</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5">
-        <v>368</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG127</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG127</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="5">
-        <v>361</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG128</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG128</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5">
-        <v>46</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG129</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG129</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="H30" s="5">
-        <v>73</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG130</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG130</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H31" s="5">
         <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG131</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H32" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>DIG132</v>
+      <c r="A33" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>55</v>
@@ -2115,87 +2351,84 @@
         <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="H33" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG133</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="5">
+        <v>28</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG134</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="5">
+        <v>28</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F34" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG133</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="5">
-        <v>100</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
-        <f t="shared" ref="A35:A65" si="1">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG134</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG134</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="5">
-        <v>10</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG135</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="4">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2205,49 +2438,47 @@
         <v>12</v>
       </c>
       <c r="H36" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG136</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG136</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="H37" s="5">
-        <v>46</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG137</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>17</v>
+      <c r="A38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
@@ -2263,52 +2494,53 @@
         <v>12</v>
       </c>
       <c r="H38" s="5">
+        <v>37</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG138</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5">
+        <v>37</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG138</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG138</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="5">
-        <v>453</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG139</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2318,130 +2550,137 @@
         <v>12</v>
       </c>
       <c r="H40" s="5">
-        <v>226</v>
+        <v>37</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG140</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="5">
+        <v>37</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG141</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5">
+        <v>37</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG142</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="5">
+        <v>37</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG140</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F44" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG143</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="5">
-        <v>91</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG141</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG141</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" s="5">
-        <v>286</v>
-      </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG142</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG142</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="5">
-        <v>143</v>
-      </c>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG143</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG143</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="H44" s="5">
-        <v>350</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG144</v>
+      <c r="A45" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2451,20 +2690,22 @@
         <v>12</v>
       </c>
       <c r="H45" s="5">
-        <v>175</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG145</v>
+      <c r="A46" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -2476,51 +2717,54 @@
       <c r="G46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="4"/>
+      <c r="H46" s="5">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG146</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG146</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H47" s="5">
-        <v>485</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG147</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>127</v>
+      <c r="A48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2530,23 +2774,25 @@
         <v>12</v>
       </c>
       <c r="H48" s="5">
-        <v>242</v>
+        <v>46</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG148</v>
+      <c r="A49" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2556,98 +2802,103 @@
         <v>12</v>
       </c>
       <c r="H49" s="5">
-        <v>159</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG149</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="4">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG149</v>
-      </c>
       <c r="G50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="5">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG150</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="5">
+        <v>55</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG151</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="5">
-        <v>318</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG150</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG150</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="5">
-        <v>382</v>
-      </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG151</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG151</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" s="5">
-        <v>191</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG152</v>
+      <c r="A53" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2663,7 +2914,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>121</v>
@@ -2671,73 +2922,73 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG153</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="4">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="5">
+        <v>80</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG153</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="F55" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG154</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="5">
-        <v>73</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG154</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG154</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="H55" s="5">
-        <v>222</v>
-      </c>
-      <c r="J55" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG155</v>
+      <c r="A56" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2747,43 +2998,47 @@
         <v>12</v>
       </c>
       <c r="H56" s="5">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG156</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG156</v>
-      </c>
       <c r="G57" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H57" s="5">
-        <v>259</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG157</v>
+      <c r="A58" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2799,23 +3054,22 @@
         <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG158</v>
+      <c r="A59" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F59" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2825,26 +3079,25 @@
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG159</v>
+      <c r="A60" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2854,26 +3107,22 @@
         <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>100</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG160</v>
+      <c r="A61" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F61" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2883,26 +3132,22 @@
         <v>12</v>
       </c>
       <c r="H61" s="5">
-        <v>295</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG161</v>
+      <c r="A62" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F62" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2912,26 +3157,22 @@
         <v>12</v>
       </c>
       <c r="H62" s="5">
-        <v>37</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG162</v>
+      <c r="A63" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2941,26 +3182,25 @@
         <v>12</v>
       </c>
       <c r="H63" s="5">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>DIG163</v>
+      <c r="A64" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2970,142 +3210,122 @@
         <v>12</v>
       </c>
       <c r="H64" s="5">
-        <v>28</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="A65" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG164</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="4">
-        <v>10</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG164</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H65" s="5">
-        <v>28</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A79" si="2">"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
+      <c r="A66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG165</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="4">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG165</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="H66" s="5">
-        <v>37</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="A67" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG166</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="4">
-        <v>10</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG166</v>
-      </c>
       <c r="G67" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H67" s="5">
-        <v>10</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="A68" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG167</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="4">
-        <v>10</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG167</v>
-      </c>
       <c r="G68" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>15</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG168</v>
+      <c r="A69" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F69" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3115,415 +3335,382 @@
         <v>12</v>
       </c>
       <c r="H69" s="5">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="A70" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG169</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="4">
-        <v>10</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG169</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H70" s="5">
-        <v>10</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="A71" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG170</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="4">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="G71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" s="5">
+        <v>286</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG170</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="F72" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG171</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="5">
-        <v>15</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG171</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="4">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG171</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H72" s="5">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="A73" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="4">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG172</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG172</v>
-      </c>
       <c r="G73" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H73" s="5">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG173</v>
+      <c r="A74" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG173</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="5">
+        <v>350</v>
+      </c>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="4">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG174</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="5">
+        <v>361</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="4">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG175</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="5">
+        <v>368</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG176</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" s="5">
+        <v>382</v>
+      </c>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG177</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="5">
+        <v>453</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG178</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="5">
+        <v>485</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG173</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="F80" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG179</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG180</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG181</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG182</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="5">
-        <v>125</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG174</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="4">
-        <v>10</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F75" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG174</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="5">
-        <v>10</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG175</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG175</v>
-      </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG176</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG176</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" s="5">
-        <v>19</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG177</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="4">
-        <v>10</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG177</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="5">
-        <v>10</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIG178</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG178</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="5">
-        <v>19</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG179</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="4">
-        <v>10</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG179</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="5">
-        <v>19</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG180</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="4">
-        <v>10</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F81" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG180</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" s="5">
-        <v>19</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG181</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="4">
-        <v>10</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG181</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H82" s="5">
-        <v>37</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG182</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="4">
-        <v>10</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG182</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="5">
-        <v>19</v>
-      </c>
+      <c r="H83" s="5"/>
       <c r="I83" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
-        <f>"DIG"&amp;TEXT(ROW()-1+100,"000")</f>
-        <v>DIG183</v>
+      <c r="A84" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>154</v>
@@ -3538,9 +3725,29 @@
       <c r="H84" s="5"/>
       <c r="J84" s="4"/>
     </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J85" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C84">
+  <conditionalFormatting sqref="C2:C85">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15638F6E-7E39-4208-AFB0-2CE85296A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC1240-03DC-44AA-A7F2-D14348F83537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="237">
   <si>
     <t>CODIGO</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Kaspersky Antivirus</t>
   </si>
   <si>
-    <t>KAVOF</t>
-  </si>
-  <si>
     <t>Kaspersky Standard x3</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>Kaspersky Premium x10</t>
   </si>
   <si>
-    <t>ESETOF</t>
-  </si>
-  <si>
     <t>ESET Home Security Essential x10</t>
   </si>
   <si>
@@ -632,12 +626,6 @@
     <t>DIG136</t>
   </si>
   <si>
-    <t>DIG137</t>
-  </si>
-  <si>
-    <t>DIG138</t>
-  </si>
-  <si>
     <t>DIG139</t>
   </si>
   <si>
@@ -650,114 +638,21 @@
     <t>DIG142</t>
   </si>
   <si>
-    <t>DIG143</t>
-  </si>
-  <si>
-    <t>DIG144</t>
-  </si>
-  <si>
-    <t>DIG145</t>
-  </si>
-  <si>
-    <t>DIG146</t>
-  </si>
-  <si>
-    <t>DIG147</t>
-  </si>
-  <si>
-    <t>DIG148</t>
-  </si>
-  <si>
-    <t>DIG149</t>
-  </si>
-  <si>
-    <t>DIG150</t>
-  </si>
-  <si>
-    <t>DIG151</t>
-  </si>
-  <si>
-    <t>DIG152</t>
-  </si>
-  <si>
     <t>DIG153</t>
   </si>
   <si>
-    <t>DIG154</t>
-  </si>
-  <si>
     <t>DIG155</t>
   </si>
   <si>
-    <t>DIG156</t>
-  </si>
-  <si>
-    <t>DIG157</t>
-  </si>
-  <si>
     <t>DIG158</t>
   </si>
   <si>
-    <t>DIG159</t>
-  </si>
-  <si>
-    <t>DIG160</t>
-  </si>
-  <si>
-    <t>DIG161</t>
-  </si>
-  <si>
     <t>DIG162</t>
   </si>
   <si>
-    <t>DIG163</t>
-  </si>
-  <si>
-    <t>DIG164</t>
-  </si>
-  <si>
-    <t>DIG165</t>
-  </si>
-  <si>
-    <t>DIG166</t>
-  </si>
-  <si>
-    <t>DIG167</t>
-  </si>
-  <si>
-    <t>DIG168</t>
-  </si>
-  <si>
-    <t>DIG169</t>
-  </si>
-  <si>
-    <t>DIG170</t>
-  </si>
-  <si>
     <t>DIG171</t>
   </si>
   <si>
-    <t>DIG172</t>
-  </si>
-  <si>
-    <t>DIG173</t>
-  </si>
-  <si>
-    <t>DIG174</t>
-  </si>
-  <si>
-    <t>DIG175</t>
-  </si>
-  <si>
-    <t>DIG176</t>
-  </si>
-  <si>
-    <t>DIG177</t>
-  </si>
-  <si>
-    <t>DIG178</t>
-  </si>
-  <si>
     <t>DIG179</t>
   </si>
   <si>
@@ -767,9 +662,6 @@
     <t>DIG181</t>
   </si>
   <si>
-    <t>DIG182</t>
-  </si>
-  <si>
     <t>DIG183</t>
   </si>
   <si>
@@ -789,6 +681,69 @@
   </si>
   <si>
     <t>ESENCIALES</t>
+  </si>
+  <si>
+    <t>Bitdefender Antivirus Plus x3</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus x2</t>
+  </si>
+  <si>
+    <t>https://digitalkeysoftware.com/wp-content/uploads/2022/11/eset-antivirus-1-user-2-year-main-image-600x744.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.neweggimages.com/productimage/nb1280/32-114-557-V03.jpg</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus GAMER EDITION</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>oficial</t>
+  </si>
+  <si>
+    <t>DIG200</t>
+  </si>
+  <si>
+    <t>DIG020</t>
+  </si>
+  <si>
+    <t>https://img.ashampoo.com/ashampoo.com_images/img/1/products/partner0038/bitdefender_antivirus_plus_x3.png</t>
+  </si>
+  <si>
+    <t>McAfee Internet Security</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Y4-isk9CL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>McAfee Total Security</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61NqEtj66PL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Bitdefender Total Security x5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61hLLPYZVgL._UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://img.grouponcdn.com/deal/3UmeraWJmt9EX1KQcNbRNQ/3a-1700x1020/v1/t600x362.webp</t>
+  </si>
+  <si>
+    <t>https://www-konga-com-res.cloudinary.com/f_auto,fl_lossy,dpr_3.0,q_auto/media/catalog/product/F/J/56261_1741190139.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51WS+IgtDKL._UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61nPPrf0aaL._UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cisinformatica.cat/wp-content/uploads/2022/11/eset-nod32-antivirus.png</t>
   </si>
 </sst>
 </file>
@@ -873,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -890,11 +845,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -904,6 +860,39 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1039,6 +1028,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1056,13 +1052,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1107,24 +1096,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:J85" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J85">
-    <sortCondition ref="H1:H85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K95" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="A1:K95" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10"/>
+        <filter val="160"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ESETOF"/>
+        <filter val="KAVOF"/>
+        <filter val="SEGURIDAD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:J90">
+    <sortCondition ref="B1:B90"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="5">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="8">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1417,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1441,7 @@
     <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1472,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
@@ -1495,10 +1503,11 @@
         <v>75</v>
       </c>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>41</v>
@@ -1523,10 +1532,11 @@
         <v>65</v>
       </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -1551,10 +1561,11 @@
         <v>67</v>
       </c>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>46</v>
@@ -1579,10 +1590,11 @@
         <v>68</v>
       </c>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -1591,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1607,10 +1619,11 @@
         <v>76</v>
       </c>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>51</v>
@@ -1635,10 +1648,11 @@
         <v>81</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>50</v>
@@ -1663,10 +1677,11 @@
         <v>82</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>30</v>
@@ -1691,10 +1706,11 @@
         <v>83</v>
       </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -1719,10 +1735,11 @@
         <v>84</v>
       </c>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>42</v>
@@ -1747,10 +1764,11 @@
         <v>85</v>
       </c>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -1775,10 +1793,11 @@
         <v>89</v>
       </c>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
@@ -1803,10 +1822,11 @@
         <v>90</v>
       </c>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -1831,10 +1851,11 @@
         <v>101</v>
       </c>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>105</v>
@@ -1843,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1859,10 +1880,11 @@
         <v>104</v>
       </c>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>47</v>
@@ -1887,10 +1909,11 @@
         <v>108</v>
       </c>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -1915,10 +1938,11 @@
         <v>109</v>
       </c>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>48</v>
@@ -1943,10 +1967,11 @@
         <v>110</v>
       </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1955,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1971,10 +1996,11 @@
         <v>88</v>
       </c>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
@@ -1983,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -1999,10 +2025,11 @@
         <v>102</v>
       </c>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>107</v>
@@ -2027,10 +2054,11 @@
         <v>106</v>
       </c>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -2055,13 +2083,14 @@
         <v>64</v>
       </c>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -2080,13 +2109,14 @@
         <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -2111,13 +2141,14 @@
         <v>61</v>
       </c>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -2136,16 +2167,17 @@
         <v>19</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -2164,13 +2196,14 @@
         <v>19</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
@@ -2195,10 +2228,11 @@
         <v>80</v>
       </c>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>36</v>
@@ -2223,10 +2257,11 @@
         <v>77</v>
       </c>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -2251,10 +2286,11 @@
         <v>87</v>
       </c>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>44</v>
@@ -2279,13 +2315,14 @@
         <v>100</v>
       </c>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -2304,13 +2341,14 @@
         <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>32</v>
@@ -2332,13 +2370,14 @@
         <v>111</v>
       </c>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -2351,22 +2390,23 @@
         <v>DIG132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H33" s="5">
         <v>19</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
@@ -2379,19 +2419,20 @@
         <v>DIG133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H34" s="5">
         <v>28</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>78</v>
@@ -2416,10 +2457,11 @@
         <v>79</v>
       </c>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>45</v>
@@ -2444,10 +2486,11 @@
         <v>115</v>
       </c>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>53</v>
@@ -2463,7 +2506,7 @@
         <v>DIG136</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H37" s="5">
         <v>28</v>
@@ -2472,13 +2515,14 @@
         <v>112</v>
       </c>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
@@ -2488,25 +2532,26 @@
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG137</v>
+        <v>DIG200</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="5">
-        <v>37</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>224</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
@@ -2516,22 +2561,23 @@
       </c>
       <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG138</v>
+        <v>DIG020</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="5">
-        <v>37</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>29</v>
@@ -2553,13 +2599,14 @@
         <v>37</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2575,7 +2622,7 @@
         <v>DIG140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H41" s="5">
         <v>37</v>
@@ -2584,13 +2631,14 @@
         <v>113</v>
       </c>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4">
         <v>10</v>
@@ -2612,13 +2660,14 @@
         <v>103</v>
       </c>
       <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
@@ -2631,22 +2680,23 @@
         <v>DIG142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H43" s="5">
         <v>37</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4">
         <v>10</v>
@@ -2656,81 +2706,84 @@
       </c>
       <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG143</v>
+        <v>DIG200</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="5">
-        <v>46</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="C45" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG144</v>
+      <c r="F45" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="5">
-        <v>46</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>16</v>
+        <v>224</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C46" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG145</v>
+        <v>DIG020</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="5">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>13</v>
+        <v>224</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C47" s="4">
         <v>10</v>
@@ -2740,25 +2793,26 @@
       </c>
       <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG146</v>
+        <v>DIG020</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="5">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>19</v>
+        <v>223</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
@@ -2768,7 +2822,7 @@
       </c>
       <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG147</v>
+        <v>DIG200</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>12</v>
@@ -2776,45 +2830,47 @@
       <c r="H48" s="5">
         <v>46</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>210</v>
+      <c r="I48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="C49" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG148</v>
+        <v>DIG200</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="5">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>17</v>
+        <v>223</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C50" s="4">
         <v>10</v>
@@ -2824,81 +2880,84 @@
       </c>
       <c r="F50" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG149</v>
+        <v>DIG200</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="5">
-        <v>55</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="C51" s="4">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG150</v>
+        <v>DIG200</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="5">
+        <v>73</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="4">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="5">
-        <v>55</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="4">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG151</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="H52" s="5">
-        <v>73</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C53" s="4">
         <v>10</v>
@@ -2908,53 +2967,55 @@
       </c>
       <c r="F53" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG152</v>
+        <v>DIG200</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>73</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4">
         <v>10</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG153</v>
+        <v>DIG200</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H54" s="5">
-        <v>80</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>133</v>
+        <v>223</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C55" s="4">
         <v>10</v>
@@ -2964,7 +3025,7 @@
       </c>
       <c r="F55" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG154</v>
+        <v>DIG200</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>12</v>
@@ -2976,778 +3037,1137 @@
         <v>91</v>
       </c>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>224</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C56" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG155</v>
+        <v>DIG020</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="5">
-        <v>100</v>
-      </c>
+      <c r="H56" s="5"/>
       <c r="I56" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4">
         <v>10</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG156</v>
+        <v>DIG153</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H57" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F58" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG157</v>
+        <v>DIG200</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>111</v>
+        <v>46</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
+        <v>DIG155</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG159</v>
+        <v>DIG200</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>143</v>
+        <v>73</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F61" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG160</v>
+        <v>DIG200</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="5">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F62" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG161</v>
+        <v>DIG158</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="5">
-        <v>159</v>
+        <v>125</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
+        <v>DIG200</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="5">
-        <v>165</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG163</v>
+        <v>DIG200</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="5">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F65" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG164</v>
+        <v>DIG200</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="5">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F66" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG165</v>
+        <v>DIG162</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H66" s="5">
-        <v>222</v>
+        <v>165</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG166</v>
+        <v>DIG200</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="5">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG167</v>
+        <v>DIG200</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="F69" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG168</v>
+        <v>DIG200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H69" s="5">
-        <v>254</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG169</v>
+        <v>DIG200</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>122</v>
+        <v>224</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG170</v>
+        <v>DIG020</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H71" s="5">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4">
         <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG171</v>
+        <v>DIG200</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>125</v>
+        <v>223</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F73" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG172</v>
+        <v>DIG200</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H73" s="5">
-        <v>318</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F74" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG173</v>
+        <v>DIG200</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H74" s="5">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4">
         <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG174</v>
+        <v>DIG171</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="5">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>130</v>
+        <v>224</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C76" s="4">
         <v>10</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG175</v>
+        <v>DIG020</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H76" s="5">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F77" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG176</v>
+        <v>DIG200</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H77" s="5">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>124</v>
+        <v>224</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C78" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG177</v>
+        <v>DIG020</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H78" s="5">
-        <v>453</v>
+        <v>361</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C79" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F79" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG178</v>
+        <v>DIG200</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H79" s="5">
-        <v>485</v>
+        <v>368</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F80" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG179</v>
+        <v>DIG020</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="4" t="s">
-        <v>69</v>
+        <v>119</v>
+      </c>
+      <c r="H80" s="5">
+        <v>382</v>
       </c>
       <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F81" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG180</v>
+        <v>DIG200</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="4" t="s">
-        <v>70</v>
+        <v>119</v>
+      </c>
+      <c r="H81" s="5">
+        <v>453</v>
       </c>
       <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F82" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG181</v>
+        <v>DIG020</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="4" t="s">
-        <v>71</v>
+        <v>119</v>
+      </c>
+      <c r="H82" s="5">
+        <v>485</v>
       </c>
       <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F83" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG182</v>
+        <v>DIG179</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
       </c>
+      <c r="E84" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F84" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG183</v>
+        <v>DIG180</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H84" s="5"/>
+      <c r="I84" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
       </c>
+      <c r="E85" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F85" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
+        <v>DIG181</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="4">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="5">
+        <v>55</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG183</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J85" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="4">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="4" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="5">
+        <v>100</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="4">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="5">
+        <v>46</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" s="5">
+        <v>73</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="4">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H92" s="5">
+        <v>100</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="4">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="5">
+        <v>55</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="4">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" s="5">
+        <v>91</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="4">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="8" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" s="5">
+        <v>136</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C85">
+  <conditionalFormatting sqref="C2:C95">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC1240-03DC-44AA-A7F2-D14348F83537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265AE5D-E68E-4E3E-B7EC-DD8A732A6D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="239">
   <si>
     <t>CODIGO</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>https://www.cisinformatica.cat/wp-content/uploads/2022/11/eset-nod32-antivirus.png</t>
+  </si>
+  <si>
+    <t>ANTIVIRUS</t>
+  </si>
+  <si>
+    <t>OFIMATICA</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -846,6 +852,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,13 +1115,6 @@
         <filter val="10"/>
         <filter val="160"/>
         <filter val="2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ESETOF"/>
-        <filter val="KAVOF"/>
-        <filter val="SEGURIDAD"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1425,16 +1430,16 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
@@ -1448,13 +1453,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1476,7 +1481,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>165</v>
       </c>
@@ -1486,7 +1491,7 @@
       <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="4" t="str">
@@ -1505,7 +1510,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>166</v>
       </c>
@@ -1515,7 +1520,7 @@
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -1534,7 +1539,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="4" t="str">
@@ -1563,7 +1568,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>168</v>
       </c>
@@ -1573,7 +1578,7 @@
       <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="4" t="str">
@@ -1592,7 +1597,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>211</v>
       </c>
@@ -1602,7 +1607,7 @@
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F6" s="4" t="str">
@@ -1621,7 +1626,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>169</v>
       </c>
@@ -1631,7 +1636,7 @@
       <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="4" t="str">
@@ -1650,7 +1655,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>170</v>
       </c>
@@ -1660,7 +1665,7 @@
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="4" t="str">
@@ -1679,7 +1684,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
@@ -1689,7 +1694,7 @@
       <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="4" t="str">
@@ -1708,7 +1713,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>172</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="4" t="str">
@@ -1737,7 +1742,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>173</v>
       </c>
@@ -1747,7 +1752,7 @@
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="4" t="str">
@@ -1795,7 +1800,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>175</v>
       </c>
@@ -1805,7 +1810,7 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="4" t="str">
@@ -1824,7 +1829,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>176</v>
       </c>
@@ -1834,7 +1839,7 @@
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="4" t="str">
@@ -1853,7 +1858,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>212</v>
       </c>
@@ -1863,7 +1868,7 @@
       <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F15" s="4" t="str">
@@ -1882,7 +1887,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>177</v>
       </c>
@@ -1892,7 +1897,7 @@
       <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="4" t="str">
@@ -1911,7 +1916,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>178</v>
       </c>
@@ -1921,7 +1926,7 @@
       <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="4" t="str">
@@ -1940,7 +1945,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>179</v>
       </c>
@@ -1950,7 +1955,7 @@
       <c r="C18" s="4">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="4" t="str">
@@ -1969,7 +1974,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>213</v>
       </c>
@@ -1979,7 +1984,7 @@
       <c r="C19" s="4">
         <v>10</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>215</v>
       </c>
       <c r="F19" s="4" t="str">
@@ -1998,7 +2003,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>214</v>
       </c>
@@ -2008,8 +2013,8 @@
       <c r="C20" s="4">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>215</v>
+      <c r="E20" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2027,7 +2032,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>180</v>
       </c>
@@ -2037,7 +2042,7 @@
       <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="4" t="str">
@@ -2056,7 +2061,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>181</v>
       </c>
@@ -2066,8 +2071,8 @@
       <c r="C22" s="4">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>55</v>
+      <c r="E22" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2085,7 +2090,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>182</v>
       </c>
@@ -2095,7 +2100,7 @@
       <c r="C23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="4" t="str">
@@ -2114,7 +2119,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>183</v>
       </c>
@@ -2124,7 +2129,7 @@
       <c r="C24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="4" t="str">
@@ -2143,7 +2148,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>184</v>
       </c>
@@ -2153,7 +2158,7 @@
       <c r="C25" s="4">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="4" t="str">
@@ -2172,7 +2177,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>185</v>
       </c>
@@ -2182,7 +2187,7 @@
       <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="4" t="str">
@@ -2201,7 +2206,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>186</v>
       </c>
@@ -2211,7 +2216,7 @@
       <c r="C27" s="4">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="4" t="str">
@@ -2230,7 +2235,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>187</v>
       </c>
@@ -2240,7 +2245,7 @@
       <c r="C28" s="4">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="4" t="str">
@@ -2259,7 +2264,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>188</v>
       </c>
@@ -2269,7 +2274,7 @@
       <c r="C29" s="4">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="4" t="str">
@@ -2288,7 +2293,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>189</v>
       </c>
@@ -2298,8 +2303,8 @@
       <c r="C30" s="4">
         <v>10</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>55</v>
+      <c r="E30" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F30" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2317,7 +2322,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>190</v>
       </c>
@@ -2327,7 +2332,7 @@
       <c r="C31" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="4" t="str">
@@ -2372,7 +2377,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>192</v>
       </c>
@@ -2382,7 +2387,7 @@
       <c r="C33" s="4">
         <v>10</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F33" s="4" t="str">
@@ -2401,7 +2406,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>193</v>
       </c>
@@ -2411,7 +2416,7 @@
       <c r="C34" s="4">
         <v>10</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="4" t="str">
@@ -2430,7 +2435,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
@@ -2440,7 +2445,7 @@
       <c r="C35" s="4">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="4" t="str">
@@ -2459,7 +2464,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>195</v>
       </c>
@@ -2469,8 +2474,8 @@
       <c r="C36" s="4">
         <v>10</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>55</v>
+      <c r="E36" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2488,7 +2493,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -2498,7 +2503,7 @@
       <c r="C37" s="4">
         <v>10</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="4" t="str">
@@ -2524,11 +2529,11 @@
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="4">
-        <v>10</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>20</v>
+      <c r="C38" s="10">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F38" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2553,11 +2558,11 @@
       <c r="B39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="4">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>20</v>
+      <c r="C39" s="10">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F39" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2575,7 +2580,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>197</v>
       </c>
@@ -2585,8 +2590,8 @@
       <c r="C40" s="4">
         <v>10</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>55</v>
+      <c r="E40" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2604,7 +2609,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>198</v>
       </c>
@@ -2614,7 +2619,7 @@
       <c r="C41" s="4">
         <v>10</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="4" t="str">
@@ -2633,7 +2638,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>199</v>
       </c>
@@ -2643,7 +2648,7 @@
       <c r="C42" s="4">
         <v>10</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="4" t="str">
@@ -2662,7 +2667,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>200</v>
       </c>
@@ -2672,7 +2677,7 @@
       <c r="C43" s="4">
         <v>10</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="4" t="str">
@@ -2698,11 +2703,11 @@
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="4">
-        <v>10</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>20</v>
+      <c r="C44" s="10">
+        <v>10</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F44" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2756,11 +2761,11 @@
       <c r="B46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="10">
         <v>2</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>20</v>
+      <c r="E46" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2785,11 +2790,11 @@
       <c r="B47" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="4">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>20</v>
+      <c r="C47" s="10">
+        <v>10</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2814,11 +2819,11 @@
       <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="4">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>20</v>
+      <c r="C48" s="10">
+        <v>10</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2843,11 +2848,11 @@
       <c r="B49" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="4">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>20</v>
+      <c r="C49" s="10">
+        <v>10</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2872,11 +2877,11 @@
       <c r="B50" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="4">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>20</v>
+      <c r="C50" s="10">
+        <v>10</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F50" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2901,11 +2906,11 @@
       <c r="B51" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="10">
         <v>160</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>20</v>
+      <c r="E51" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2930,11 +2935,11 @@
       <c r="B52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="4">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>20</v>
+      <c r="C52" s="10">
+        <v>10</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2959,11 +2964,11 @@
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="4">
-        <v>10</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>20</v>
+      <c r="C53" s="10">
+        <v>10</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2988,11 +2993,11 @@
       <c r="B54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="4">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>20</v>
+      <c r="C54" s="10">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3017,11 +3022,11 @@
       <c r="B55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="4">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>20</v>
+      <c r="C55" s="10">
+        <v>10</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3066,7 +3071,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -3076,7 +3081,7 @@
       <c r="C57" s="4">
         <v>10</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="4" t="str">
@@ -3102,11 +3107,11 @@
       <c r="B58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>20</v>
+      <c r="C58" s="10">
+        <v>10</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F58" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3124,7 +3129,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>202</v>
       </c>
@@ -3134,7 +3139,7 @@
       <c r="C59" s="4">
         <v>10</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F59" s="4" t="str">
@@ -3160,11 +3165,11 @@
       <c r="B60" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="4">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>20</v>
+      <c r="C60" s="10">
+        <v>10</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3499,11 +3504,11 @@
       <c r="B72" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="4">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>20</v>
+      <c r="C72" s="10">
+        <v>10</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3579,7 +3584,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>205</v>
       </c>
@@ -3589,8 +3594,8 @@
       <c r="C75" s="4">
         <v>10</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>55</v>
+      <c r="E75" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="F75" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3615,11 +3620,11 @@
       <c r="B76" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="4">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>20</v>
+      <c r="C76" s="10">
+        <v>10</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F76" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3674,11 +3679,11 @@
       <c r="B78" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="4">
-        <v>10</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>20</v>
+      <c r="C78" s="10">
+        <v>10</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F78" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3705,11 +3710,11 @@
       <c r="B79" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>20</v>
+      <c r="C79" s="10">
+        <v>10</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F79" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3901,11 +3906,11 @@
       <c r="B86" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="4">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>20</v>
+      <c r="C86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F86" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3933,6 +3938,7 @@
       <c r="C87" s="4">
         <v>0</v>
       </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
@@ -3951,6 +3957,7 @@
       <c r="C88" s="4">
         <v>0</v>
       </c>
+      <c r="E88" s="4"/>
       <c r="F88" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG184</v>
@@ -3969,11 +3976,11 @@
       <c r="B89" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="4">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>20</v>
+      <c r="C89" s="10">
+        <v>10</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F89" s="4" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3998,11 +4005,11 @@
       <c r="B90" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C90" s="4">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>20</v>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F90" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4027,11 +4034,11 @@
       <c r="B91" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C91" s="4">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>20</v>
+      <c r="C91" s="10">
+        <v>10</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F91" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4056,11 +4063,11 @@
       <c r="B92" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="4">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>20</v>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F92" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4085,11 +4092,11 @@
       <c r="B93" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C93" s="4">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>20</v>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F93" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4114,11 +4121,11 @@
       <c r="B94" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C94" s="4">
-        <v>10</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>20</v>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F94" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4143,11 +4150,11 @@
       <c r="B95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="4">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>20</v>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F95" s="8" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265AE5D-E68E-4E3E-B7EC-DD8A732A6D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458FE51-E0D7-4B25-B235-4C195E81E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="235">
   <si>
     <t>CODIGO</t>
   </si>
@@ -530,159 +530,24 @@
     <t>Allavsoft Video Downloader</t>
   </si>
   <si>
-    <t>DIG101</t>
-  </si>
-  <si>
-    <t>DIG102</t>
-  </si>
-  <si>
-    <t>DIG103</t>
-  </si>
-  <si>
-    <t>DIG104</t>
-  </si>
-  <si>
-    <t>DIG106</t>
-  </si>
-  <si>
-    <t>DIG107</t>
-  </si>
-  <si>
-    <t>DIG108</t>
-  </si>
-  <si>
-    <t>DIG109</t>
-  </si>
-  <si>
-    <t>DIG110</t>
-  </si>
-  <si>
     <t>DIG111</t>
   </si>
   <si>
-    <t>DIG112</t>
-  </si>
-  <si>
-    <t>DIG113</t>
-  </si>
-  <si>
-    <t>DIG115</t>
-  </si>
-  <si>
-    <t>DIG116</t>
-  </si>
-  <si>
-    <t>DIG117</t>
-  </si>
-  <si>
-    <t>DIG120</t>
-  </si>
-  <si>
-    <t>DIG121</t>
-  </si>
-  <si>
-    <t>DIG122</t>
-  </si>
-  <si>
-    <t>DIG123</t>
-  </si>
-  <si>
-    <t>DIG124</t>
-  </si>
-  <si>
-    <t>DIG125</t>
-  </si>
-  <si>
-    <t>DIG126</t>
-  </si>
-  <si>
-    <t>DIG127</t>
-  </si>
-  <si>
-    <t>DIG128</t>
-  </si>
-  <si>
-    <t>DIG129</t>
-  </si>
-  <si>
-    <t>DIG130</t>
-  </si>
-  <si>
     <t>DIG131</t>
   </si>
   <si>
-    <t>DIG132</t>
-  </si>
-  <si>
-    <t>DIG133</t>
-  </si>
-  <si>
-    <t>DIG134</t>
-  </si>
-  <si>
-    <t>DIG135</t>
-  </si>
-  <si>
-    <t>DIG136</t>
-  </si>
-  <si>
-    <t>DIG139</t>
-  </si>
-  <si>
-    <t>DIG140</t>
-  </si>
-  <si>
-    <t>DIG141</t>
-  </si>
-  <si>
-    <t>DIG142</t>
-  </si>
-  <si>
-    <t>DIG153</t>
-  </si>
-  <si>
-    <t>DIG155</t>
-  </si>
-  <si>
     <t>DIG158</t>
   </si>
   <si>
     <t>DIG162</t>
   </si>
   <si>
-    <t>DIG171</t>
-  </si>
-  <si>
-    <t>DIG179</t>
-  </si>
-  <si>
-    <t>DIG180</t>
-  </si>
-  <si>
-    <t>DIG181</t>
-  </si>
-  <si>
     <t>DIG183</t>
   </si>
   <si>
     <t>DIG184</t>
   </si>
   <si>
-    <t>DIG010</t>
-  </si>
-  <si>
-    <t>DIG011</t>
-  </si>
-  <si>
-    <t>DIG012</t>
-  </si>
-  <si>
-    <t>DIG013</t>
-  </si>
-  <si>
-    <t>ESENCIALES</t>
-  </si>
-  <si>
     <t>Bitdefender Antivirus Plus x3</t>
   </si>
   <si>
@@ -750,6 +615,129 @@
   </si>
   <si>
     <t>OFIMATICA</t>
+  </si>
+  <si>
+    <t>DIG100</t>
+  </si>
+  <si>
+    <t>DIG300</t>
+  </si>
+  <si>
+    <t>DIG500</t>
+  </si>
+  <si>
+    <t>DIG600</t>
+  </si>
+  <si>
+    <t>DIG800</t>
+  </si>
+  <si>
+    <t>DIG900</t>
+  </si>
+  <si>
+    <t>DIG1000</t>
+  </si>
+  <si>
+    <t>Sucripcion x 30 dias.Cuentas Nuevas</t>
+  </si>
+  <si>
+    <t>DIG10</t>
+  </si>
+  <si>
+    <t>DIG40</t>
+  </si>
+  <si>
+    <t>DIG60</t>
+  </si>
+  <si>
+    <t>DIG70</t>
+  </si>
+  <si>
+    <t>DIG80</t>
+  </si>
+  <si>
+    <t>DIG90</t>
+  </si>
+  <si>
+    <t>AVG Internet Security x10</t>
+  </si>
+  <si>
+    <t>DIG18</t>
+  </si>
+  <si>
+    <t>DIG20</t>
+  </si>
+  <si>
+    <t>DIG17</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus</t>
+  </si>
+  <si>
+    <t>ESET Home Security Essential</t>
+  </si>
+  <si>
+    <t>Expira: 25/01/2027</t>
+  </si>
+  <si>
+    <t>Expira: 22/07/2027</t>
+  </si>
+  <si>
+    <t>Expira: 16/08/2027</t>
+  </si>
+  <si>
+    <t>Expira: 26/05/2028</t>
+  </si>
+  <si>
+    <t>Expira: 04/09/2029</t>
+  </si>
+  <si>
+    <t>Expira: 25/02/2026</t>
+  </si>
+  <si>
+    <t>Expira: 06/03/2026</t>
+  </si>
+  <si>
+    <t>Expira: 08/03/2026</t>
+  </si>
+  <si>
+    <t>Expira: 21/03/2026</t>
+  </si>
+  <si>
+    <t>Expira: 12/04/2026</t>
+  </si>
+  <si>
+    <t>Expira: 30/05/2026</t>
+  </si>
+  <si>
+    <t>Expira: 31/05/2026</t>
+  </si>
+  <si>
+    <t>Expira: 22/06/2026</t>
+  </si>
+  <si>
+    <t>Expira: 24/07/2026</t>
+  </si>
+  <si>
+    <t>Expira: 29/07/2026</t>
+  </si>
+  <si>
+    <t>https://mrlicencias.com/cdn/shop/products/avast_premium_security.jpg</t>
+  </si>
+  <si>
+    <t>https://img.grouponcdn.com/deal/3AUDRoDqTJuD4smtiWta5P/2B-1000x600/v1/t2001x1212.webp</t>
+  </si>
+  <si>
+    <t>https://acrecenta.com/images/logos/eset/eset-home-security-essential.jpg</t>
+  </si>
+  <si>
+    <t>https://www.profesionalreview.com/wp-content/uploads/2017/08/kaspersky.jpg</t>
+  </si>
+  <si>
+    <t>https://store.canon-erbil.com/wp-content/uploads/2022/12/kasper-sky-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://licenciasoftware.cl/wp-content/uploads/2020/01/mcafeeinternet.jpg</t>
   </si>
 </sst>
 </file>
@@ -834,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -851,18 +839,40 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -972,6 +982,21 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -998,6 +1023,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1024,19 +1050,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1094,6 +1108,76 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1108,33 +1192,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K95" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="A1:K95" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K113" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="A1:K113" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="4">
       <filters>
-        <filter val="10"/>
-        <filter val="160"/>
-        <filter val="2"/>
+        <filter val="ANTIVIRUS"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:J90">
-    <sortCondition ref="B1:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K113">
+    <sortCondition ref="B1:B113"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1427,42 +1509,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1478,83 +1560,83 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG101</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG102</v>
+      <c r="F3" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG20</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>167</v>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG103</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>62</v>
@@ -1563,56 +1645,56 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG104</v>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG80</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="H5" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>62</v>
@@ -1621,27 +1703,27 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>169</v>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG106</v>
+      <c r="F7" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG1000</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>62</v>
@@ -1650,27 +1732,27 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10">
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG107</v>
+        <v>58</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG17</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>62</v>
@@ -1679,27 +1761,27 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG108</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG18</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>62</v>
@@ -1708,27 +1790,27 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG109</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG18</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>62</v>
@@ -1737,1095 +1819,1104 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>173</v>
+      <c r="A11" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG110</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>174</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="H12" s="5">
-        <v>10</v>
+        <v>26.964383561643835</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG112</v>
+      <c r="A13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG113</v>
+      <c r="A14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>212</v>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG011</v>
+        <v>20</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG115</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>62</v>
+      <c r="A16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="H16" s="5">
-        <v>10</v>
+        <v>63.643835616438359</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>178</v>
+      <c r="A17" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG116</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>179</v>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG117</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG012</v>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H19" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>214</v>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG013</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG600</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H20" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>180</v>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG120</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG600</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG121</v>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG60</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="H22" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>182</v>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG122</v>
+        <v>143</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H23" s="5">
         <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>183</v>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG123</v>
+        <v>141</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5">
         <v>19</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>184</v>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG124</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" s="5">
         <v>19</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG125</v>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG20</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="5">
         <v>19</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>186</v>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG126</v>
+      <c r="F27" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>187</v>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG127</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG1000</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H28" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>188</v>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG128</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG1000</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H29" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>189</v>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG129</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H30" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>190</v>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10</v>
-      </c>
-      <c r="E31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="10">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG130</v>
+      <c r="F31" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H31" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>191</v>
+      <c r="A32" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="10">
+        <v>10</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
+      <c r="F32" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H32" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="5">
         <v>55</v>
       </c>
-      <c r="F33" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG132</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="5">
-        <v>19</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J33" s="4"/>
+      <c r="I33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG133</v>
+      <c r="A34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5">
-        <v>28</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG134</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>94</v>
+        <v>213</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="H35" s="5">
-        <v>28</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>195</v>
+      <c r="A36" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4">
-        <v>10</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG135</v>
+        <v>127</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="5">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>196</v>
+      <c r="A37" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG136</v>
+        <v>128</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="H37" s="5">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="10">
-        <v>10</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="A38" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="5">
-        <v>46</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="10">
-        <v>10</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>12</v>
+      <c r="A39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="9">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="H39" s="5">
-        <v>46</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>18.246575342465754</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG139</v>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="10">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H40" s="5">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="10" t="s">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="10">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG140</v>
+      <c r="F41" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG40</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="H41" s="5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="4">
-        <v>10</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG141</v>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="10">
+        <v>10</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG80</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="5">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>200</v>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="4">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG142</v>
+        <v>55</v>
+      </c>
+      <c r="F43" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG111</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="H43" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>223</v>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C44" s="10">
         <v>10</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="E44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG300</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H44" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>223</v>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="C45" s="9">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H45" s="5">
-        <v>100</v>
+        <v>19.767123287671232</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="9">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="5">
+        <v>21.997260273972604</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="9">
+        <v>10</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="5">
-        <v>55</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="10">
-        <v>10</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H47" s="5">
-        <v>190</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="2"/>
+        <v>26.863013698630137</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>223</v>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C48" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="F48" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
@@ -2833,144 +2924,140 @@
         <v>12</v>
       </c>
       <c r="H48" s="5">
-        <v>46</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="C49" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="F49" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="5">
+        <v>453</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="9">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H50" s="5">
+        <v>29.194520547945206</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5">
-        <v>73</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="10">
-        <v>10</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="4" t="str">
+      <c r="H51" s="5">
+        <v>143</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="5">
-        <v>46</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" s="10">
-        <v>160</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="5">
-        <v>73</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="10">
-        <v>10</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" s="5">
-        <v>37</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>223</v>
+        <v>286</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C53" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
@@ -2978,200 +3065,195 @@
         <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>46</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C54" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H54" s="5">
-        <v>55</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C55" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>20</v>
+      </c>
+      <c r="F55" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="5">
-        <v>91</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J55" s="2"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>224</v>
+      <c r="A56" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="4">
+        <v>126</v>
+      </c>
+      <c r="C56" s="10">
         <v>0</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="4" t="s">
-        <v>96</v>
+      <c r="H56" s="5">
+        <v>242</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="4">
-        <v>10</v>
+      <c r="K56" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG153</v>
+        <v>20</v>
+      </c>
+      <c r="F57" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H57" s="5">
-        <v>80</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>157</v>
+        <v>485</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>223</v>
+      <c r="A58" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="10">
-        <v>10</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="C58" s="9">
+        <v>10</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="H58" s="5">
-        <v>46</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>202</v>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="4">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG155</v>
+        <v>20</v>
+      </c>
+      <c r="F59" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>100</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>223</v>
+      <c r="K59" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C60" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
@@ -3179,113 +3261,113 @@
         <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>73</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="A61" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="10">
         <v>0</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="F61" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H61" s="5">
-        <v>111</v>
+        <v>382</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>203</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="H62" s="5">
-        <v>125</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>223</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>16</v>
+      </c>
+      <c r="C63" s="9">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="5">
-        <v>143</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>223</v>
+      <c r="A64" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="4">
+        <v>117</v>
+      </c>
+      <c r="C64" s="10">
         <v>0</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="4" t="str">
+      <c r="F64" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
@@ -3293,888 +3375,1416 @@
         <v>12</v>
       </c>
       <c r="H64" s="5">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="5">
         <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="5">
-        <v>159</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>204</v>
+      <c r="A66" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="4">
+        <v>118</v>
+      </c>
+      <c r="C66" s="10">
         <v>0</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
+      <c r="E66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="5">
-        <v>165</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>223</v>
+      <c r="A67" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="4">
+        <v>118</v>
+      </c>
+      <c r="C67" s="10">
         <v>0</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="4" t="str">
+      <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H67" s="5">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>223</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>175</v>
+      </c>
+      <c r="C68" s="9">
+        <v>10</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>191</v>
-      </c>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>223</v>
+        <v>46</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>172</v>
+      </c>
+      <c r="C69" s="9">
+        <v>10</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H69" s="5">
-        <v>222</v>
-      </c>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>223</v>
+      <c r="A70" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="4">
+        <v>152</v>
+      </c>
+      <c r="C70" s="10">
         <v>0</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="5">
-        <v>226</v>
-      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG183</v>
+      </c>
+      <c r="H70" s="5"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="9">
+        <v>10</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="5">
-        <v>242</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>223</v>
+      <c r="A72" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="10">
-        <v>10</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>116</v>
+      </c>
+      <c r="C72" s="9">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>223</v>
+        <v>97</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C73" s="9">
+        <v>10</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="H73" s="5">
-        <v>259</v>
+        <v>40.328767123287676</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="K73" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>223</v>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C74" s="9">
+        <v>10</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="H74" s="5">
-        <v>286</v>
+        <v>100.55890410958904</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>205</v>
+      <c r="A75" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="4">
-        <v>10</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG171</v>
+        <v>13</v>
+      </c>
+      <c r="C75" s="9">
+        <v>10</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="5">
-        <v>295</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="10">
-        <v>10</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F76" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>119</v>
+      <c r="A76" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="9">
+        <v>10</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="H76" s="5">
-        <v>318</v>
+        <v>69.235616438356161</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="J76" s="4"/>
-      <c r="K76" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="A77" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="10">
+        <v>10</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H77" s="5">
-        <v>350</v>
+        <v>73</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="J77" s="4"/>
-      <c r="K77" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>224</v>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C78" s="10">
         <v>10</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F78" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+      <c r="E78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="5">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J78" s="4"/>
-      <c r="K78" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C79" s="10">
         <v>10</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="E79" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="5">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J79" s="4"/>
-      <c r="K79" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>224</v>
+      <c r="A80" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>154</v>
+      </c>
+      <c r="C80" s="10">
+        <v>10</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H80" s="5">
-        <v>382</v>
+        <v>295</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="J80" s="4"/>
-      <c r="K80" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K80" s="4"/>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>223</v>
+      <c r="A81" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>44</v>
+      </c>
+      <c r="C81" s="10">
+        <v>10</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG500</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H81" s="5">
-        <v>453</v>
+        <v>19</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K81" s="4"/>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+      <c r="A82" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="10">
+        <v>10</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG500</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H82" s="5">
-        <v>485</v>
+        <v>28</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="K82" s="4"/>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>206</v>
+      <c r="A83" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG179</v>
+        <v>53</v>
+      </c>
+      <c r="C83" s="10">
+        <v>10</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG900</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="H83" s="5">
+        <v>28</v>
+      </c>
       <c r="I83" s="4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG180</v>
+      <c r="B84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="10">
+        <v>10</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG90</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="H84" s="5">
+        <v>37</v>
+      </c>
       <c r="I84" s="4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG181</v>
+      <c r="A85" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="10">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="5">
+        <v>10</v>
+      </c>
       <c r="I85" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>14</v>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C86" s="10">
         <v>10</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F86" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="E86" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F86" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG70</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H86" s="5">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG183</v>
-      </c>
-      <c r="H87" s="5"/>
+      <c r="A87" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10">
+        <v>10</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG60</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="5">
+        <v>37</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
-      </c>
-      <c r="H88" s="5"/>
+      <c r="A88" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="10">
+        <v>10</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG40</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="5">
+        <v>10</v>
+      </c>
       <c r="I88" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>138</v>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C89" s="10">
         <v>10</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F89" s="4" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+      <c r="E89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H89" s="5">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>226</v>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C90" s="10">
         <v>10</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F90" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="E90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG80</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="5">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>226</v>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C91" s="10">
         <v>10</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F91" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+      <c r="E91" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H91" s="5">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>223</v>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="C92" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F92" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>58</v>
+      </c>
+      <c r="F92" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG162</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H92" s="5">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>228</v>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C93" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F93" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>58</v>
+      </c>
+      <c r="F93" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG158</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="5">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>224</v>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C94" s="10">
         <v>10</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F94" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+      <c r="E94" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG80</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H94" s="5">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>228</v>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C95" s="10">
-        <v>10</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F95" s="8" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H95" s="5">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="4" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG131</v>
+      </c>
+      <c r="H96" s="5">
+        <v>19</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG90</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97" s="5">
+        <v>37</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="10">
+        <v>10</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H98" s="5">
+        <v>10</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="9">
+        <v>10</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="5">
+        <v>55</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="9">
+        <v>10</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="5">
+        <v>91</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="9">
+        <v>10</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H101" s="5">
+        <v>318</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="9">
+        <v>10</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="5">
+        <v>46</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="9">
+        <v>10</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="5">
+        <v>73</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="9">
+        <v>10</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="5">
+        <v>55</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="9">
+        <v>10</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="5">
+        <v>100</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="9">
+        <v>10</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" s="5">
+        <v>100</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="9">
+        <v>10</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H107" s="5">
+        <v>73</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="9">
+        <v>10</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F108" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="5">
+        <v>46</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="9">
+        <v>10</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F109" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H109" s="5">
+        <v>18.449315068493149</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="9">
+        <v>10</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F110" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H110" s="5">
+        <v>145</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="9">
+        <v>10</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F111" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111" s="5">
+        <v>136</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="9">
+        <v>10</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F112" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="5">
+        <v>91</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="9">
+        <v>10</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG10</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="5">
+        <v>55</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C95">
+  <conditionalFormatting sqref="C2:C113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458FE51-E0D7-4B25-B235-4C195E81E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2836C96-F227-4462-8964-986BC00FF3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="234">
   <si>
     <t>CODIGO</t>
   </si>
@@ -548,6 +548,9 @@
     <t>DIG184</t>
   </si>
   <si>
+    <t>DIG010</t>
+  </si>
+  <si>
     <t>Bitdefender Antivirus Plus x3</t>
   </si>
   <si>
@@ -641,36 +644,9 @@
     <t>Sucripcion x 30 dias.Cuentas Nuevas</t>
   </si>
   <si>
-    <t>DIG10</t>
-  </si>
-  <si>
-    <t>DIG40</t>
-  </si>
-  <si>
-    <t>DIG60</t>
-  </si>
-  <si>
-    <t>DIG70</t>
-  </si>
-  <si>
-    <t>DIG80</t>
-  </si>
-  <si>
-    <t>DIG90</t>
-  </si>
-  <si>
     <t>AVG Internet Security x10</t>
   </si>
   <si>
-    <t>DIG18</t>
-  </si>
-  <si>
-    <t>DIG20</t>
-  </si>
-  <si>
-    <t>DIG17</t>
-  </si>
-  <si>
     <t>Eset NOD32 Antivirus</t>
   </si>
   <si>
@@ -738,6 +714,27 @@
   </si>
   <si>
     <t>https://licenciasoftware.cl/wp-content/uploads/2020/01/mcafeeinternet.jpg</t>
+  </si>
+  <si>
+    <t>DIG017</t>
+  </si>
+  <si>
+    <t>DIG018</t>
+  </si>
+  <si>
+    <t>DIG040</t>
+  </si>
+  <si>
+    <t>DIG060</t>
+  </si>
+  <si>
+    <t>DIG070</t>
+  </si>
+  <si>
+    <t>DIG080</t>
+  </si>
+  <si>
+    <t>DIG090</t>
   </si>
 </sst>
 </file>
@@ -862,37 +859,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1108,76 +1075,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1192,31 +1089,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K113" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K113" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
   <autoFilter ref="A1:K113" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
-    <filterColumn colId="4">
+    <filterColumn colId="2">
       <filters>
-        <filter val="ANTIVIRUS"/>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K113">
-    <sortCondition ref="B1:B113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K113">
+    <sortCondition ref="A1:A113"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1511,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,128 +1459,123 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG020</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="5">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C3" s="10">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG20</v>
+        <v>DIG020</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="5">
+        <v>485</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C5" s="10">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG80</v>
+        <v>DIG020</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="H5" s="5">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -1694,7 +1588,7 @@
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG010</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>62</v>
@@ -1708,370 +1602,374 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>172</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
         <v>46</v>
       </c>
-      <c r="C7" s="10">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="H9" s="5">
-        <v>10</v>
+        <v>63.643835616438359</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG18</v>
+        <v>DIG010</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="9">
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>225</v>
+        <v>193</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="5">
-        <v>26.964383561643835</v>
+        <v>361</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="C13" s="9">
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG010</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H13" s="5">
-        <v>172</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C14" s="9">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG010</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="5">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
+      <c r="B15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F15" s="13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG010</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H15" s="5">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>214</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H16" s="5">
-        <v>63.643835616438359</v>
+        <v>91</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>171</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="C17" s="9">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>193</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="5">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>171</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG40</v>
+        <v>DIG010</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>62</v>
@@ -2080,518 +1978,520 @@
         <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>171</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG010</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="H20" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9">
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5">
-        <v>80</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="10">
+        <v>195</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG60</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>158</v>
+        <v>193</v>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="H22" s="5">
-        <v>28</v>
+        <v>26.964383561643835</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="10">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG100</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H23" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="10">
-        <v>10</v>
+        <v>205</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>93</v>
+        <v>193</v>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="H24" s="5">
-        <v>19</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5">
+        <v>254</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="10">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="5">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="10">
+        <v>195</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="9">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG20</v>
+        <v>DIG100</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H26" s="5">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="10">
+        <v>204</v>
+      </c>
+      <c r="C27" s="9">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>94</v>
+        <v>193</v>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="H27" s="5">
-        <v>28</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="10">
+        <v>204</v>
+      </c>
+      <c r="C28" s="9">
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="H28" s="5">
-        <v>10</v>
+        <v>19.767123287671232</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="10">
+        <v>204</v>
+      </c>
+      <c r="C29" s="9">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="H29" s="5">
-        <v>10</v>
+        <v>21.997260273972604</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="10">
+        <v>204</v>
+      </c>
+      <c r="C30" s="9">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="H30" s="5">
-        <v>10</v>
+        <v>26.863013698630137</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="10">
+        <v>204</v>
+      </c>
+      <c r="C31" s="9">
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="H31" s="5">
-        <v>10</v>
+        <v>29.194520547945206</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="10">
+        <v>204</v>
+      </c>
+      <c r="C32" s="9">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F32" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="H32" s="5">
-        <v>10</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>15</v>
+        <v>195</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="C33" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="5">
+        <v>71.769863013698625</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5">
-        <v>55</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C34" s="9">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG100</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="5">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C35" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="13" t="str">
+        <v>193</v>
+      </c>
+      <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>219</v>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="5">
-        <v>17.334246575342465</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C36" s="9">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H36" s="5">
-        <v>254</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C37" s="9">
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2601,1370 +2501,1361 @@
         <v>12</v>
       </c>
       <c r="H37" s="5">
-        <v>368</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>195</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C38" s="9">
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG100</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="5">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F39" s="13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H39" s="5">
-        <v>18.246575342465754</v>
+        <v>40.328767123287676</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="10">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="9">
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG60</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="H40" s="5">
-        <v>19</v>
+        <v>100.55890410958904</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="10">
+        <v>195</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="9">
         <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG40</v>
+        <v>DIG100</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="5">
-        <v>15</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="10">
+        <v>195</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9">
         <v>10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG80</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>193</v>
+      </c>
+      <c r="F42" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="H42" s="5">
-        <v>100</v>
+        <v>69.235616438356161</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5">
         <v>55</v>
       </c>
-      <c r="F43" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="5">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J43" s="4"/>
+      <c r="I43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="10">
+        <v>131</v>
+      </c>
+      <c r="C44" s="9">
         <v>10</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG300</v>
+        <v>DIG100</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H44" s="5">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="2"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="C45" s="9">
         <v>10</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="13" t="str">
+        <v>193</v>
+      </c>
+      <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>222</v>
+      <c r="G45" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H45" s="5">
-        <v>19.767123287671232</v>
+        <v>46</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="13" t="str">
+        <v>193</v>
+      </c>
+      <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>223</v>
+      <c r="G46" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H46" s="5">
-        <v>21.997260273972604</v>
+        <v>73</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="C47" s="9">
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="13" t="str">
+        <v>193</v>
+      </c>
+      <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>224</v>
+      <c r="G47" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H47" s="5">
-        <v>26.863013698630137</v>
+        <v>55</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>182</v>
+      </c>
+      <c r="C48" s="9">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H48" s="5">
-        <v>226</v>
+        <v>100</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>182</v>
+      </c>
+      <c r="C49" s="9">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H49" s="5">
-        <v>453</v>
+        <v>73</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C50" s="9">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F50" s="13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>226</v>
+      <c r="G50" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H50" s="5">
-        <v>29.194520547945206</v>
+        <v>46</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="C51" s="9">
+        <v>10</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="H51" s="5">
-        <v>143</v>
+        <v>18.449315068493149</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>119</v>
+        <v>182</v>
+      </c>
+      <c r="C52" s="9">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="H52" s="5">
-        <v>286</v>
+        <v>145</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG1000</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H53" s="5">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H54" s="5">
-        <v>350</v>
+        <v>10</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>18</v>
+        <v>201</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
       <c r="I55" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C56" s="10">
         <v>0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG111</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H56" s="5">
-        <v>242</v>
+        <v>10</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>126</v>
+        <v>166</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C57" s="10">
         <v>0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>119</v>
+        <v>DIG131</v>
       </c>
       <c r="H57" s="5">
-        <v>485</v>
+        <v>19</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="9">
-        <v>10</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>228</v>
+        <v>146</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG158</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>32.945205479452056</v>
+        <v>125</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C59" s="10">
         <v>0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F59" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG162</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="5">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="K59" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>227</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C60" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG017</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H60" s="5">
-        <v>191</v>
+        <v>10</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C61" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG018</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H61" s="5">
-        <v>382</v>
+        <v>10</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="J61" s="4"/>
-      <c r="K61" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="9">
-        <v>10</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="10">
+        <v>10</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG018</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H62" s="5">
-        <v>71.769863013698625</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="9">
-        <v>10</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>192</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10"/>
       <c r="F63" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="5">
-        <v>46</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>DIG183</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C64" s="10">
         <v>0</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="10">
+        <v>10</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="5">
+        <v>19</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="10">
+        <v>10</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="5">
+        <v>19</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="10">
+        <v>10</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="5">
+        <v>10</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="9" t="str">
+      <c r="F68" s="13" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="5">
-        <v>111</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" s="5">
-        <v>222</v>
-      </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="5">
-        <v>143</v>
-      </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="5">
-        <v>259</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="9">
-        <v>10</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>46</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="9">
+        <v>37</v>
+      </c>
+      <c r="C69" s="10">
         <v>10</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H69" s="5">
-        <v>73</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J69" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG183</v>
-      </c>
-      <c r="H70" s="5"/>
+        <v>DIG200</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="5">
+        <v>19</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="9">
+        <v>78</v>
+      </c>
+      <c r="C71" s="10">
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H71" s="5">
-        <v>73</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J71" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="9">
-        <v>10</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>192</v>
+        <v>123</v>
+      </c>
+      <c r="C72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F72" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>37</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="9">
-        <v>10</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>227</v>
+        <v>123</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H73" s="5">
-        <v>40.328767123287676</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>232</v>
+        <v>453</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="9">
-        <v>10</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="C74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>100.55890410958904</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="9">
-        <v>10</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>192</v>
+        <v>121</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F75" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="5">
+        <v>286</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="5">
-        <v>46</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J75" s="2"/>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="9">
-        <v>10</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>215</v>
-      </c>
       <c r="H76" s="5">
-        <v>69.235616438356161</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C77" s="10">
-        <v>10</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F77" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG200</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H77" s="5">
-        <v>73</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
+      <c r="K77" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C78" s="10">
-        <v>10</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F78" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG200</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="5">
-        <v>37</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C79" s="10">
-        <v>10</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F79" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG200</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="5">
-        <v>19</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C80" s="10">
-        <v>10</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F80" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG200</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="5">
-        <v>295</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C81" s="10">
-        <v>10</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F81" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG200</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H81" s="5">
-        <v>19</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C82" s="10">
-        <v>10</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F82" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG200</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="5">
-        <v>28</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C83" s="10">
-        <v>10</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F83" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>DIG200</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="H83" s="5">
-        <v>28</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>54</v>
+        <v>196</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C84" s="10">
         <v>10</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG90</v>
+        <v>DIG300</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H84" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C85" s="10">
         <v>10</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG040</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>62</v>
@@ -3973,811 +3864,819 @@
         <v>10</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C86" s="10">
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG70</v>
+        <v>DIG040</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H86" s="5">
         <v>15</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C87" s="10">
         <v>10</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG60</v>
+        <v>DIG040</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H87" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>105</v>
+        <v>197</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C88" s="10">
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG40</v>
+        <v>DIG500</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H88" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C89" s="10">
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG500</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H89" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C90" s="10">
         <v>10</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG80</v>
+        <v>DIG060</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="H90" s="5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C91" s="10">
         <v>10</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F91" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG060</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H91" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>149</v>
+        <v>230</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C92" s="10">
-        <v>0</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
+        <v>DIG060</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="5">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C93" s="10">
-        <v>0</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
+        <v>DIG600</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H93" s="5">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C94" s="10">
         <v>10</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG80</v>
+        <v>DIG600</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H94" s="5">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="10">
-        <v>0</v>
-      </c>
-      <c r="E95" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
-      </c>
-      <c r="H95" s="5"/>
+        <v>DIG070</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H95" s="5">
+        <v>19</v>
+      </c>
       <c r="I95" s="4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>32</v>
+        <v>231</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C96" s="10">
-        <v>0</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
+        <v>DIG070</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H96" s="5">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="C97" s="10">
         <v>10</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG90</v>
+        <v>DIG070</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="H97" s="5">
         <v>37</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C98" s="10">
         <v>10</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG070</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="H98" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="10">
+        <v>10</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="9">
-        <v>10</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG070</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="5">
-        <v>55</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J99" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="9">
-        <v>10</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="F100" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG070</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H100" s="5">
-        <v>91</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J100" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="9">
+        <v>164</v>
+      </c>
+      <c r="C101" s="10">
         <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG080</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H101" s="5">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="9">
+        <v>232</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="10">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG080</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="5">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C103" s="9">
+        <v>232</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="10">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG080</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="5">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="9">
+        <v>232</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="10">
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG080</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H104" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C105" s="9">
+        <v>199</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="10">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>DIG800</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H105" s="5">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="9">
+        <v>141</v>
+      </c>
+      <c r="C106" s="10">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F106" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>55</v>
+      </c>
+      <c r="F106" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H106" s="5">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="9">
+        <v>30</v>
+      </c>
+      <c r="C107" s="10">
         <v>10</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F107" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>55</v>
+      </c>
+      <c r="F107" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H107" s="5">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="9">
+        <v>40</v>
+      </c>
+      <c r="C108" s="10">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F108" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>55</v>
+      </c>
+      <c r="F108" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H108" s="5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="9">
+        <v>42</v>
+      </c>
+      <c r="C109" s="10">
         <v>10</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F109" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>221</v>
+        <v>55</v>
+      </c>
+      <c r="F109" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H109" s="5">
-        <v>18.449315068493149</v>
+        <v>10</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" s="9">
+        <v>151</v>
+      </c>
+      <c r="C110" s="10">
         <v>10</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F110" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>218</v>
+        <v>55</v>
+      </c>
+      <c r="F110" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H110" s="5">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="9">
+        <v>54</v>
+      </c>
+      <c r="C111" s="10">
         <v>10</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F111" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>59</v>
+      </c>
+      <c r="F111" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG090</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="H111" s="5">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="9">
+        <v>155</v>
+      </c>
+      <c r="C112" s="10">
         <v>10</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F112" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>59</v>
+      </c>
+      <c r="F112" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG090</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H112" s="5">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C113" s="9">
+        <v>200</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="10">
         <v>10</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F113" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG10</v>
+        <v>59</v>
+      </c>
+      <c r="F113" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG900</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="H113" s="5">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2836C96-F227-4462-8964-986BC00FF3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C21F82-58C9-4839-8C9C-0C667B189A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="241">
   <si>
     <t>CODIGO</t>
   </si>
@@ -735,6 +735,27 @@
   </si>
   <si>
     <t>DIG090</t>
+  </si>
+  <si>
+    <t>Sucripcion x 180 dias</t>
+  </si>
+  <si>
+    <t>Expira: 12/12/2025</t>
+  </si>
+  <si>
+    <t>Expira: 07/01/2026</t>
+  </si>
+  <si>
+    <t>Expira: 13/02/2026</t>
+  </si>
+  <si>
+    <t>Expira: 06/12/2025</t>
+  </si>
+  <si>
+    <t>https://clavedirecta.com/cdn/shop/files/34_grande.webp</t>
+  </si>
+  <si>
+    <t>https://images.kinguin.net/g/carousel-main-mobile/media/images/products/_kasperskyplus1.jpg</t>
   </si>
 </sst>
 </file>
@@ -851,15 +872,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1089,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K113" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="A1:K113" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K118" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A1:K118" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1098,24 +1169,29 @@
         <filter val="2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ANTIVIRUS"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K113">
-    <sortCondition ref="A1:A113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:K118">
+    <sortCondition ref="B1:B118"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="11">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1408,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,277 +1649,273 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG070</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="9">
+        <v>140</v>
+      </c>
+      <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG020</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5">
-        <v>172</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
+        <v>179</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10">
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG200</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
+        <v>164</v>
+      </c>
+      <c r="C9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>206</v>
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG080</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="H9" s="5">
-        <v>63.643835616438359</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="9">
+        <v>201</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5">
-        <v>190</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>193</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG017</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>193</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG018</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H13" s="5">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>193</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG018</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="9">
         <v>10</v>
@@ -1851,28 +1923,28 @@
       <c r="E15" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+      <c r="F15" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5">
-        <v>136</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
@@ -1880,18 +1952,18 @@
       <c r="E16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>119</v>
+      <c r="F16" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="H16" s="5">
-        <v>91</v>
+        <v>26.964383561643835</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1901,7 +1973,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C17" s="9">
         <v>10</v>
@@ -1909,7 +1981,7 @@
       <c r="E17" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="13" t="str">
+      <c r="F17" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
@@ -1917,12 +1989,12 @@
         <v>12</v>
       </c>
       <c r="H17" s="5">
-        <v>55</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1930,28 +2002,28 @@
         <v>171</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1959,94 +2031,94 @@
         <v>171</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>62</v>
+      <c r="G19" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="H19" s="5">
-        <v>10</v>
+        <v>63.643835616438359</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10">
+        <v>195</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9">
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG100</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="H20" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="5">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C22" s="9">
         <v>10</v>
@@ -2054,459 +2126,455 @@
       <c r="E22" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>217</v>
+      <c r="F22" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="5">
-        <v>26.964383561643835</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="9">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>211</v>
+        <v>59</v>
+      </c>
+      <c r="F24" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG040</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H24" s="5">
-        <v>17.334246575342465</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="9">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10">
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG600</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG600</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H26" s="5">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="9">
+        <v>230</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="10">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>212</v>
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG060</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="H27" s="5">
-        <v>18.246575342465754</v>
+        <v>28</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="9">
+        <v>143</v>
+      </c>
+      <c r="C28" s="10">
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>214</v>
+        <v>55</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H28" s="5">
-        <v>19.767123287671232</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="9">
+        <v>141</v>
+      </c>
+      <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>215</v>
+        <v>55</v>
+      </c>
+      <c r="F29" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="5">
-        <v>21.997260273972604</v>
+        <v>19</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="9">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>216</v>
+        <v>56</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H30" s="5">
-        <v>26.863013698630137</v>
+        <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="9">
+        <v>180</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="10">
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>218</v>
+        <v>56</v>
+      </c>
+      <c r="F31" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H31" s="5">
-        <v>29.194520547945206</v>
+        <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="9">
+        <v>78</v>
+      </c>
+      <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>220</v>
+        <v>56</v>
+      </c>
+      <c r="F32" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H32" s="5">
-        <v>32.945205479452056</v>
+        <v>28</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="9">
+        <v>51</v>
+      </c>
+      <c r="C33" s="10">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="13" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>208</v>
+        <v>57</v>
+      </c>
+      <c r="F33" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG1000</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H33" s="5">
-        <v>71.769863013698625</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="9">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG1000</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H34" s="5">
-        <v>46</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="9">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10">
         <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG800</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H35" s="5">
-        <v>46</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="9">
+        <v>40</v>
+      </c>
+      <c r="C36" s="10">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG800</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H36" s="5">
-        <v>73</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="9">
+        <v>42</v>
+      </c>
+      <c r="C37" s="10">
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG800</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H37" s="5">
-        <v>73</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2514,10 +2582,10 @@
         <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C38" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>193</v>
@@ -2526,16 +2594,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>12</v>
+      <c r="G38" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="H38" s="5">
-        <v>37</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2543,7 +2611,7 @@
         <v>195</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
@@ -2551,28 +2619,30 @@
       <c r="E39" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="13" t="str">
+      <c r="F39" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>219</v>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H39" s="5">
-        <v>40.328767123287676</v>
+        <v>254</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C40" s="9">
         <v>10</v>
@@ -2580,28 +2650,30 @@
       <c r="E40" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="13" t="str">
+      <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>209</v>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H40" s="5">
-        <v>100.55890410958904</v>
+        <v>368</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>13</v>
+        <v>171</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C41" s="9">
         <v>10</v>
@@ -2611,26 +2683,28 @@
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="5">
-        <v>46</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C42" s="9">
         <v>10</v>
@@ -2638,18 +2712,18 @@
       <c r="E42" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="13" t="str">
+      <c r="F42" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>207</v>
+      <c r="G42" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="H42" s="5">
-        <v>69.235616438356161</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2659,7 +2733,7 @@
         <v>195</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="C43" s="9">
         <v>10</v>
@@ -2671,16 +2745,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>12</v>
+      <c r="G43" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="H43" s="5">
-        <v>55</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="2"/>
+        <v>19.767123287671232</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2688,7 +2762,7 @@
         <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C44" s="9">
         <v>10</v>
@@ -2700,16 +2774,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>12</v>
+      <c r="G44" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="H44" s="5">
-        <v>91</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>21.997260273972604</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2717,7 +2791,7 @@
         <v>195</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="C45" s="9">
         <v>10</v>
@@ -2729,14 +2803,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>12</v>
+      <c r="G45" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="H45" s="5">
-        <v>46</v>
+        <v>26.863013698630137</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2746,7 +2820,7 @@
         <v>195</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
@@ -2758,14 +2832,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>12</v>
+      <c r="G46" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="H46" s="5">
-        <v>73</v>
+        <v>29.194520547945206</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -2775,7 +2849,7 @@
         <v>195</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="C47" s="9">
         <v>10</v>
@@ -2787,14 +2861,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>12</v>
+      <c r="G47" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="H47" s="5">
-        <v>55</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2804,7 +2878,7 @@
         <v>195</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C48" s="9">
         <v>10</v>
@@ -2812,18 +2886,18 @@
       <c r="E48" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="13" t="str">
+      <c r="F48" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>119</v>
+      <c r="G48" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="H48" s="5">
-        <v>100</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2833,7 +2907,7 @@
         <v>195</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C49" s="9">
         <v>10</v>
@@ -2841,18 +2915,18 @@
       <c r="E49" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="13" t="str">
+      <c r="F49" s="14" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>119</v>
+      <c r="G49" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="H49" s="5">
-        <v>73</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2862,7 +2936,7 @@
         <v>195</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C50" s="9">
         <v>10</v>
@@ -2870,18 +2944,18 @@
       <c r="E50" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="13" t="str">
+      <c r="F50" s="14" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>12</v>
+      <c r="G50" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="H50" s="5">
-        <v>46</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2891,7 +2965,7 @@
         <v>195</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
@@ -2899,18 +2973,18 @@
       <c r="E51" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F51" s="13" t="str">
+      <c r="F51" s="14" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>213</v>
+      <c r="G51" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="H51" s="5">
-        <v>18.449315068493149</v>
+        <v>16.117808219178084</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2920,7 +2994,7 @@
         <v>195</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="C52" s="9">
         <v>10</v>
@@ -2928,105 +3002,105 @@
       <c r="E52" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="13" t="str">
+      <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>210</v>
+      <c r="G52" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H52" s="5">
-        <v>145</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>46</v>
+        <v>230</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C53" s="10">
         <v>10</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG060</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H53" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
+        <v>229</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C54" s="10">
         <v>10</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG040</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H54" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>232</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C55" s="10">
         <v>10</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG080</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H55" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3144,22 +3218,22 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>26</v>
+        <v>196</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C60" s="10">
         <v>10</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>58</v>
+      <c r="E60" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG017</v>
+        <v>DIG300</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>62</v>
@@ -3168,67 +3242,67 @@
         <v>10</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="10">
-        <v>10</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>58</v>
+        <v>195</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG100</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H61" s="5">
-        <v>10</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="10">
-        <v>10</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>58</v>
+        <v>195</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F62" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG100</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H62" s="5">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J62" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3274,87 +3348,87 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="10">
+        <v>195</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="9">
         <v>10</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F65" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG100</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H65" s="5">
-        <v>19</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" s="2"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="10">
+        <v>195</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="9">
         <v>10</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F66" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG100</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H66" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J66" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="10">
+        <v>116</v>
+      </c>
+      <c r="C67" s="9">
         <v>10</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>62</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="H67" s="5">
-        <v>10</v>
+        <v>40.328767123287676</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3372,7 +3446,7 @@
       <c r="E68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
@@ -3390,87 +3464,87 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="10">
+        <v>116</v>
+      </c>
+      <c r="C69" s="9">
         <v>10</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>62</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="H69" s="5">
-        <v>5</v>
+        <v>100.55890410958904</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="10">
+        <v>13</v>
+      </c>
+      <c r="C70" s="9">
         <v>10</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
-        <v>19</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="10">
+        <v>13</v>
+      </c>
+      <c r="C71" s="9">
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>94</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="H71" s="5">
-        <v>28</v>
+        <v>69.235616438356161</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -3813,382 +3887,391 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="10">
+        <v>17</v>
+      </c>
+      <c r="C84" s="9">
         <v>10</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG300</v>
+        <v>DIG100</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H84" s="5">
-        <v>10</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="2"/>
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="10">
+        <v>195</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="9">
         <v>10</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG100</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H85" s="5">
-        <v>10</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J85" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="2"/>
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="10">
+        <v>124</v>
+      </c>
+      <c r="C86" s="9">
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG010</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H86" s="5">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="10">
+        <v>195</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="9">
         <v>10</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H87" s="5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="10">
+        <v>130</v>
+      </c>
+      <c r="C88" s="9">
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG100</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="5">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="10">
+        <v>14</v>
+      </c>
+      <c r="C89" s="9">
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG100</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="5">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="10">
-        <v>10</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="9">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4"/>
       <c r="E90" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>158</v>
+        <v>193</v>
+      </c>
+      <c r="F90" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="H90" s="5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="10">
-        <v>10</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="9">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="F91" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="H91" s="5">
-        <v>19</v>
+        <v>13.561643835616438</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="10">
-        <v>10</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C92" s="9">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG010</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="5">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="10">
-        <v>10</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C93" s="9">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG100</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H93" s="5">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="10">
-        <v>10</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C94" s="9">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG100</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H94" s="5">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="10">
-        <v>10</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="9">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4"/>
       <c r="E95" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG100</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H95" s="5">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="10">
-        <v>10</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="9">
+        <v>10</v>
+      </c>
+      <c r="D96" s="4"/>
       <c r="E96" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>119</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="H96" s="5">
-        <v>73</v>
+        <v>18.449315068493149</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>231</v>
       </c>
@@ -4206,10 +4289,10 @@
         <v>DIG070</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H97" s="5">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>132</v>
@@ -4217,7 +4300,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>231</v>
       </c>
@@ -4238,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="H98" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>132</v>
@@ -4246,12 +4329,12 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="C99" s="10">
         <v>10</v>
@@ -4264,23 +4347,23 @@
         <v>DIG070</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="H99" s="5">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C100" s="10">
         <v>10</v>
@@ -4293,236 +4376,236 @@
         <v>DIG070</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H100" s="5">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C101" s="10">
         <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG500</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="H101" s="5">
         <v>19</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C102" s="10">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG500</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="5">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>107</v>
+        <v>200</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C103" s="10">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG900</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="H103" s="5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C104" s="10">
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG090</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="H104" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C105" s="10">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG010</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H105" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>141</v>
+        <v>231</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C106" s="10">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG070</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H106" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>30</v>
+        <v>230</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C107" s="10">
         <v>10</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG060</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H107" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>40</v>
+        <v>229</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C108" s="10">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG040</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>62</v>
@@ -4531,17 +4614,17 @@
         <v>10</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C109" s="10">
         <v>10</v>
@@ -4554,23 +4637,23 @@
         <v>DIG800</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H109" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>151</v>
+        <v>232</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C110" s="10">
         <v>10</v>
@@ -4580,84 +4663,84 @@
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG080</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H110" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C111" s="10">
         <v>10</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG010</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H111" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="C112" s="10">
         <v>10</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG080</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="H112" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>53</v>
+        <v>233</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C113" s="10">
         <v>10</v>
@@ -4667,23 +4750,168 @@
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>DIG090</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H113" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H114" s="5">
+        <v>10</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="9">
+        <v>10</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F115" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" s="5">
+        <v>145</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="9">
+        <v>10</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F116" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" s="5">
+        <v>136</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" s="9">
+        <v>10</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F117" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H117" s="5">
+        <v>91</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="9">
+        <v>10</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="5">
+        <v>55</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C113">
+  <conditionalFormatting sqref="C2:C118">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C21F82-58C9-4839-8C9C-0C667B189A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09744D-DE21-485F-8B1A-200E1F2762C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="245">
   <si>
     <t>CODIGO</t>
   </si>
@@ -756,6 +756,18 @@
   </si>
   <si>
     <t>https://images.kinguin.net/g/carousel-main-mobile/media/images/products/_kasperskyplus1.jpg</t>
+  </si>
+  <si>
+    <t>CAPCUT PRO</t>
+  </si>
+  <si>
+    <t>https://www.marketingdirecto.com/wp-content/uploads/2023/05/CapCut-editor-de-video.jpg</t>
+  </si>
+  <si>
+    <t>CAPCUT STANDARD</t>
+  </si>
+  <si>
+    <t>DIG0400</t>
   </si>
 </sst>
 </file>
@@ -880,7 +892,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1160,8 +1182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K118" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="A1:K118" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K120" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="A1:K120" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1171,27 +1193,34 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="ANTIVIRUS"/>
+        <filter val="DISEÑO"/>
+        <filter val="ENTRETENIMIENTO"/>
+        <filter val="INGENIERIA"/>
+        <filter val="INTELIGENCIA ARTIFICIAL"/>
+        <filter val="OFIMATICA"/>
+        <filter val="PRODUCTIVIDAD"/>
+        <filter val="SISTEMA"/>
+        <filter val="STREAMING"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:K118">
-    <sortCondition ref="B1:B118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K114">
+    <sortCondition ref="E1:E118"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="12">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1484,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,41 +1678,41 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG020</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5">
         <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>140</v>
+        <v>179</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -1693,26 +1722,26 @@
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG200</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -1728,117 +1757,117 @@
         <v>62</v>
       </c>
       <c r="H8" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG200</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="H9" s="5">
         <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG020</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H10" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG200</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H11" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>196</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>58</v>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG017</v>
+        <v>DIG300</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>62</v>
@@ -1847,17 +1876,17 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -1867,7 +1896,7 @@
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG017</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>62</v>
@@ -1876,17 +1905,17 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>228</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -1905,12 +1934,12 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>195</v>
       </c>
@@ -1939,7 +1968,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>195</v>
       </c>
@@ -1968,7 +1997,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>171</v>
       </c>
@@ -1997,7 +2026,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>171</v>
       </c>
@@ -2026,7 +2055,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>171</v>
       </c>
@@ -2055,7 +2084,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>195</v>
       </c>
@@ -2084,7 +2113,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>171</v>
       </c>
@@ -2113,7 +2142,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>171</v>
       </c>
@@ -2142,99 +2171,99 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>228</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>56</v>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG018</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>197</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG500</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H24" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG500</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H25" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -2250,20 +2279,20 @@
         <v>62</v>
       </c>
       <c r="H26" s="5">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>156</v>
+        <v>198</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -2273,287 +2302,287 @@
       </c>
       <c r="F27" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG600</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="H27" s="5">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>230</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG060</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="H28" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>230</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG060</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H29" s="5">
         <v>19</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>230</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG060</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG070</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="5">
         <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>231</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="H32" s="5">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>231</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG070</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>231</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG070</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="H34" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>231</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG070</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>231</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG070</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H36" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>232</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -2563,21 +2592,21 @@
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG080</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="H37" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>195</v>
       </c>
@@ -2606,7 +2635,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>195</v>
       </c>
@@ -2637,7 +2666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>195</v>
       </c>
@@ -2668,7 +2697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>171</v>
       </c>
@@ -2699,7 +2728,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>195</v>
       </c>
@@ -2728,7 +2757,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>195</v>
       </c>
@@ -2757,7 +2786,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>195</v>
       </c>
@@ -2786,7 +2815,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>195</v>
       </c>
@@ -2815,7 +2844,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>195</v>
       </c>
@@ -2844,7 +2873,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>195</v>
       </c>
@@ -2873,7 +2902,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>195</v>
       </c>
@@ -2902,7 +2931,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>195</v>
       </c>
@@ -2931,7 +2960,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>195</v>
       </c>
@@ -2960,7 +2989,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>195</v>
       </c>
@@ -2989,7 +3018,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>195</v>
       </c>
@@ -3018,70 +3047,70 @@
       <c r="J52" s="2"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>22</v>
+        <v>199</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C53" s="10">
         <v>10</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG800</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H53" s="5">
         <v>19</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>199</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C54" s="10">
         <v>10</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG800</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H54" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>232</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C55" s="10">
         <v>10</v>
@@ -3094,13 +3123,13 @@
         <v>DIG080</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H55" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3218,22 +3247,22 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>43</v>
+        <v>232</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C60" s="10">
         <v>10</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG300</v>
+        <v>DIG080</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>62</v>
@@ -3242,12 +3271,12 @@
         <v>10</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>195</v>
       </c>
@@ -3276,7 +3305,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>195</v>
       </c>
@@ -3346,7 +3375,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>195</v>
       </c>
@@ -3375,7 +3404,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>195</v>
       </c>
@@ -3404,7 +3433,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>195</v>
       </c>
@@ -3462,7 +3491,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>195</v>
       </c>
@@ -3491,7 +3520,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>195</v>
       </c>
@@ -3520,7 +3549,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>195</v>
       </c>
@@ -3885,7 +3914,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>195</v>
       </c>
@@ -3914,7 +3943,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>195</v>
       </c>
@@ -3943,7 +3972,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>171</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>195</v>
       </c>
@@ -4003,7 +4032,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>195</v>
       </c>
@@ -4032,7 +4061,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>195</v>
       </c>
@@ -4061,7 +4090,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>195</v>
       </c>
@@ -4071,7 +4100,6 @@
       <c r="C90" s="9">
         <v>10</v>
       </c>
-      <c r="D90" s="4"/>
       <c r="E90" s="9" t="s">
         <v>193</v>
       </c>
@@ -4091,7 +4119,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>195</v>
       </c>
@@ -4101,7 +4129,6 @@
       <c r="C91" s="9">
         <v>10</v>
       </c>
-      <c r="D91" s="4"/>
       <c r="E91" s="9" t="s">
         <v>193</v>
       </c>
@@ -4121,7 +4148,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>171</v>
       </c>
@@ -4131,7 +4158,6 @@
       <c r="C92" s="9">
         <v>10</v>
       </c>
-      <c r="D92" s="4"/>
       <c r="E92" s="9" t="s">
         <v>193</v>
       </c>
@@ -4151,7 +4177,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>195</v>
       </c>
@@ -4161,7 +4187,6 @@
       <c r="C93" s="9">
         <v>10</v>
       </c>
-      <c r="D93" s="4"/>
       <c r="E93" s="9" t="s">
         <v>193</v>
       </c>
@@ -4181,7 +4206,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>195</v>
       </c>
@@ -4191,7 +4216,6 @@
       <c r="C94" s="9">
         <v>10</v>
       </c>
-      <c r="D94" s="4"/>
       <c r="E94" s="9" t="s">
         <v>193</v>
       </c>
@@ -4211,7 +4235,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>195</v>
       </c>
@@ -4221,7 +4245,6 @@
       <c r="C95" s="9">
         <v>10</v>
       </c>
-      <c r="D95" s="4"/>
       <c r="E95" s="9" t="s">
         <v>193</v>
       </c>
@@ -4241,7 +4264,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>195</v>
       </c>
@@ -4251,7 +4274,6 @@
       <c r="C96" s="9">
         <v>10</v>
       </c>
-      <c r="D96" s="4"/>
       <c r="E96" s="9" t="s">
         <v>193</v>
       </c>
@@ -4271,186 +4293,186 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C97" s="10">
         <v>10</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG080</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H97" s="5">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C98" s="10">
         <v>10</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG080</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="5">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>29</v>
+        <v>199</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C99" s="10">
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG800</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="H99" s="5">
         <v>19</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C100" s="10">
         <v>10</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F100" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG080</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="5">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>44</v>
+        <v>232</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C101" s="10">
         <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG080</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H101" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>45</v>
+        <v>229</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C102" s="10">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG040</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H102" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C103" s="10">
         <v>10</v>
@@ -4460,26 +4482,26 @@
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>DIG040</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="H103" s="5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C104" s="10">
         <v>10</v>
@@ -4489,123 +4511,123 @@
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG900</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H104" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C105" s="10">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG090</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="H105" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C106" s="10">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG040</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H106" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C107" s="10">
         <v>10</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG090</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="H107" s="5">
         <v>37</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C108" s="10">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG010</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>62</v>
@@ -4614,75 +4636,75 @@
         <v>10</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="C109" s="10">
         <v>10</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG1000</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H109" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C110" s="10">
         <v>10</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG1000</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H110" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>47</v>
+        <v>201</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C111" s="10">
         <v>10</v>
@@ -4692,7 +4714,7 @@
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>62</v>
@@ -4701,27 +4723,27 @@
         <v>10</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C112" s="10">
         <v>10</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG010</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>62</v>
@@ -4730,41 +4752,41 @@
         <v>10</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="C113" s="10">
         <v>10</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG010</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="H113" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>171</v>
       </c>
@@ -4793,7 +4815,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>195</v>
       </c>
@@ -4822,7 +4844,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>171</v>
       </c>
@@ -4851,7 +4873,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>171</v>
       </c>
@@ -4880,7 +4902,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>171</v>
       </c>
@@ -4909,10 +4931,68 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="9">
+        <v>10</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG0400</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" s="5">
+        <v>10</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="9">
+        <v>10</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG040</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" s="5">
+        <v>19</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C118">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C120">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09744D-DE21-485F-8B1A-200E1F2762C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B330C0-02A2-4C19-872A-39FE6CE33D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="248">
   <si>
     <t>CODIGO</t>
   </si>
@@ -509,9 +509,6 @@
     <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Plus-1024x651.jpg</t>
   </si>
   <si>
-    <t>Con tu correo electronico. Sucripcion x 30 dias</t>
-  </si>
-  <si>
     <t>https://www.how2shout.com/wp-content/uploads/2025/08/What-Is-ChatGPT-Pro-1024x609.jpg</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>DIG1000</t>
   </si>
   <si>
-    <t>Sucripcion x 30 dias.Cuentas Nuevas</t>
-  </si>
-  <si>
     <t>AVG Internet Security x10</t>
   </si>
   <si>
@@ -653,30 +647,18 @@
     <t>ESET Home Security Essential</t>
   </si>
   <si>
-    <t>Expira: 25/01/2027</t>
-  </si>
-  <si>
-    <t>Expira: 22/07/2027</t>
-  </si>
-  <si>
     <t>Expira: 16/08/2027</t>
   </si>
   <si>
     <t>Expira: 26/05/2028</t>
   </si>
   <si>
-    <t>Expira: 04/09/2029</t>
-  </si>
-  <si>
     <t>Expira: 25/02/2026</t>
   </si>
   <si>
     <t>Expira: 06/03/2026</t>
   </si>
   <si>
-    <t>Expira: 08/03/2026</t>
-  </si>
-  <si>
     <t>Expira: 21/03/2026</t>
   </si>
   <si>
@@ -686,9 +668,6 @@
     <t>Expira: 30/05/2026</t>
   </si>
   <si>
-    <t>Expira: 31/05/2026</t>
-  </si>
-  <si>
     <t>Expira: 22/06/2026</t>
   </si>
   <si>
@@ -737,9 +716,6 @@
     <t>DIG090</t>
   </si>
   <si>
-    <t>Sucripcion x 180 dias</t>
-  </si>
-  <si>
     <t>Expira: 12/12/2025</t>
   </si>
   <si>
@@ -749,9 +725,6 @@
     <t>Expira: 13/02/2026</t>
   </si>
   <si>
-    <t>Expira: 06/12/2025</t>
-  </si>
-  <si>
     <t>https://clavedirecta.com/cdn/shop/files/34_grande.webp</t>
   </si>
   <si>
@@ -768,6 +741,42 @@
   </si>
   <si>
     <t>DIG0400</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 365 dias</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 31/05/2026</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 25/01/2027</t>
+  </si>
+  <si>
+    <t>🤖 Con tu correo electronico. Sucripcion x 30 dias</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 730 dias</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 180 dias</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 22/07/2027</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 06/12/2025</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 08/03/2026</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias.Cuentas Nuevas</t>
+  </si>
+  <si>
+    <t>🤖 Expira: 04/09/2029</t>
   </si>
 </sst>
 </file>
@@ -852,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -885,74 +894,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1114,13 +1060,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1138,6 +1077,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1182,7 +1128,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K120" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K120" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:K120" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
@@ -1191,36 +1137,24 @@
         <filter val="2"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="DISEÑO"/>
-        <filter val="ENTRETENIMIENTO"/>
-        <filter val="INGENIERIA"/>
-        <filter val="INTELIGENCIA ARTIFICIAL"/>
-        <filter val="OFIMATICA"/>
-        <filter val="PRODUCTIVIDAD"/>
-        <filter val="SISTEMA"/>
-        <filter val="STREAMING"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K114">
     <sortCondition ref="E1:E118"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1515,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,12 +1498,12 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -1596,7 +1530,7 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>126</v>
@@ -1619,12 +1553,12 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>126</v>
@@ -1647,12 +1581,12 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>125</v>
@@ -1675,12 +1609,12 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>140</v>
@@ -1696,7 +1630,7 @@
         <v>DIG020</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H6" s="5">
         <v>19</v>
@@ -1709,7 +1643,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>41</v>
@@ -1725,7 +1659,7 @@
         <v>DIG200</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -1738,7 +1672,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>37</v>
@@ -1754,7 +1688,7 @@
         <v>DIG200</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H8" s="5">
         <v>5</v>
@@ -1767,7 +1701,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>35</v>
@@ -1796,7 +1730,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>36</v>
@@ -1825,7 +1759,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>78</v>
@@ -1854,7 +1788,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
@@ -1870,7 +1804,7 @@
         <v>DIG300</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
@@ -1883,7 +1817,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1912,7 +1846,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>27</v>
@@ -1939,9 +1873,9 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -1950,14 +1884,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H15" s="5">
         <v>46</v>
@@ -1968,9 +1902,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -1979,43 +1913,43 @@
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="H16" s="5">
         <v>26.964383561643835</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="9">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H17" s="5">
         <v>172</v>
@@ -2026,9 +1960,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -2037,14 +1971,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H18" s="5">
         <v>46</v>
@@ -2055,9 +1989,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>11</v>
@@ -2066,27 +2000,27 @@
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="H19" s="5">
         <v>63.643835616438359</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>52</v>
@@ -2095,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2113,9 +2047,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -2124,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2142,38 +2076,38 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="9">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H22" s="5">
         <v>190</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>28</v>
@@ -2202,7 +2136,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -2231,7 +2165,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>45</v>
@@ -2260,7 +2194,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -2276,7 +2210,7 @@
         <v>DIG600</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H26" s="5">
         <v>19</v>
@@ -2289,7 +2223,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2305,7 +2239,7 @@
         <v>DIG600</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H27" s="5">
         <v>80</v>
@@ -2318,7 +2252,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>156</v>
@@ -2334,20 +2268,20 @@
         <v>DIG060</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="H28" s="5">
         <v>28</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>22</v>
@@ -2363,7 +2297,7 @@
         <v>DIG060</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H29" s="5">
         <v>19</v>
@@ -2376,7 +2310,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>145</v>
@@ -2392,7 +2326,7 @@
         <v>DIG060</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H30" s="5">
         <v>37</v>
@@ -2405,7 +2339,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>34</v>
@@ -2414,7 +2348,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2434,7 +2368,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>29</v>
@@ -2443,14 +2377,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H32" s="5">
         <v>73</v>
@@ -2463,7 +2397,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>29</v>
@@ -2472,14 +2406,14 @@
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H33" s="5">
         <v>37</v>
@@ -2492,7 +2426,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>29</v>
@@ -2501,14 +2435,14 @@
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H34" s="5">
         <v>19</v>
@@ -2521,7 +2455,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>154</v>
@@ -2530,14 +2464,14 @@
         <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H35" s="5">
         <v>295</v>
@@ -2550,7 +2484,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>39</v>
@@ -2559,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2579,10 +2513,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -2595,49 +2529,49 @@
         <v>DIG080</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" s="5">
         <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H38" s="5">
         <v>17.334246575342465</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
@@ -2646,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F39" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2663,12 +2597,12 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>128</v>
@@ -2677,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2694,12 +2628,12 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>136</v>
@@ -2708,14 +2642,14 @@
         <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H41" s="5">
         <v>361</v>
@@ -2725,302 +2659,302 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="9">
         <v>10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H42" s="5">
         <v>18.246575342465754</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" s="9">
         <v>10</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F43" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H43" s="5">
         <v>19.767123287671232</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="9">
         <v>10</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H44" s="5">
         <v>21.997260273972604</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C45" s="9">
         <v>10</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H45" s="5">
         <v>26.863013698630137</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H46" s="5">
         <v>29.194520547945206</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C47" s="9">
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H47" s="5">
         <v>32.945205479452056</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="9">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C48" s="9">
-        <v>10</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="H48" s="5">
         <v>71.769863013698625</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C49" s="9">
         <v>10</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="14" t="str">
+        <v>192</v>
+      </c>
+      <c r="F49" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H49" s="5">
         <v>9.7315068493150676</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C50" s="9">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="14" t="str">
+        <v>192</v>
+      </c>
+      <c r="F50" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H50" s="5">
         <v>12.367123287671232</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="14" t="str">
+        <v>192</v>
+      </c>
+      <c r="F51" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H51" s="5">
         <v>16.117808219178084</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>16</v>
@@ -3029,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3049,7 +2983,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>143</v>
@@ -3078,7 +3012,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>141</v>
@@ -3107,7 +3041,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>30</v>
@@ -3123,7 +3057,7 @@
         <v>DIG080</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H55" s="5">
         <v>10</v>
@@ -3136,7 +3070,7 @@
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>23</v>
@@ -3165,7 +3099,7 @@
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>32</v>
@@ -3191,7 +3125,7 @@
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>146</v>
@@ -3220,7 +3154,7 @@
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>149</v>
@@ -3249,7 +3183,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>40</v>
@@ -3265,7 +3199,7 @@
         <v>DIG080</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H60" s="5">
         <v>10</v>
@@ -3276,18 +3210,18 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="9">
         <v>10</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3300,23 +3234,23 @@
         <v>46</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="9">
         <v>10</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F62" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3329,14 +3263,14 @@
         <v>73</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>152</v>
@@ -3355,7 +3289,7 @@
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>99</v>
@@ -3375,18 +3309,18 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="9">
         <v>10</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3399,14 +3333,14 @@
         <v>73</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>116</v>
@@ -3415,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F66" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3433,9 +3367,9 @@
       <c r="J66" s="2"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>116</v>
@@ -3444,30 +3378,30 @@
         <v>10</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H67" s="5">
         <v>40.328767123287676</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="10">
         <v>0</v>
@@ -3486,14 +3420,14 @@
         <v>100</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>116</v>
@@ -3502,27 +3436,27 @@
         <v>10</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H69" s="5">
         <v>100.55890410958904</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>13</v>
@@ -3531,14 +3465,14 @@
         <v>10</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H70" s="5">
         <v>46</v>
@@ -3549,9 +3483,9 @@
       <c r="J70" s="2"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>13</v>
@@ -3560,27 +3494,27 @@
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="H71" s="5">
         <v>69.235616438356161</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>123</v>
@@ -3603,12 +3537,12 @@
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>123</v>
@@ -3631,12 +3565,12 @@
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>121</v>
@@ -3659,12 +3593,12 @@
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>121</v>
@@ -3687,12 +3621,12 @@
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>122</v>
@@ -3715,12 +3649,12 @@
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>122</v>
@@ -3743,12 +3677,12 @@
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>124</v>
@@ -3771,12 +3705,12 @@
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>125</v>
@@ -3799,12 +3733,12 @@
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>117</v>
@@ -3827,12 +3761,12 @@
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>117</v>
@@ -3855,12 +3789,12 @@
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>118</v>
@@ -3883,12 +3817,12 @@
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>118</v>
@@ -3911,12 +3845,12 @@
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>17</v>
@@ -3925,14 +3859,14 @@
         <v>10</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H84" s="5">
         <v>55</v>
@@ -3943,9 +3877,9 @@
       <c r="J84" s="2"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>131</v>
@@ -3954,14 +3888,14 @@
         <v>10</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H85" s="5">
         <v>91</v>
@@ -3972,9 +3906,9 @@
       <c r="J85" s="2"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>124</v>
@@ -3983,14 +3917,14 @@
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H86" s="5">
         <v>318</v>
@@ -4000,12 +3934,12 @@
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>19</v>
@@ -4014,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4032,9 +3966,9 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>130</v>
@@ -4043,14 +3977,14 @@
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H88" s="5">
         <v>73</v>
@@ -4061,9 +3995,9 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>14</v>
@@ -4072,14 +4006,14 @@
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H89" s="5">
         <v>55</v>
@@ -4090,9 +4024,9 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>14</v>
@@ -4101,27 +4035,27 @@
         <v>10</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F90" s="14" t="str">
+        <v>192</v>
+      </c>
+      <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H90" s="5">
         <v>11</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>17</v>
@@ -4130,27 +4064,27 @@
         <v>10</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" s="14" t="str">
+        <v>192</v>
+      </c>
+      <c r="F91" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H91" s="5">
         <v>13.561643835616438</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>138</v>
@@ -4159,14 +4093,14 @@
         <v>10</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H92" s="5">
         <v>100</v>
@@ -4177,125 +4111,125 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C93" s="9">
         <v>10</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H93" s="5">
         <v>100</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" s="9">
         <v>10</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H94" s="5">
         <v>73</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" s="9">
         <v>10</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H95" s="5">
         <v>46</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" s="9">
         <v>10</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="H96" s="5">
         <v>18.449315068493149</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>42</v>
@@ -4311,7 +4245,7 @@
         <v>DIG080</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H97" s="5">
         <v>10</v>
@@ -4324,7 +4258,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>23</v>
@@ -4340,7 +4274,7 @@
         <v>DIG080</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H98" s="5">
         <v>100</v>
@@ -4353,7 +4287,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>151</v>
@@ -4382,7 +4316,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>107</v>
@@ -4411,7 +4345,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>31</v>
@@ -4427,7 +4361,7 @@
         <v>DIG080</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H101" s="5">
         <v>10</v>
@@ -4440,7 +4374,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>38</v>
@@ -4456,7 +4390,7 @@
         <v>DIG040</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H102" s="5">
         <v>10</v>
@@ -4469,7 +4403,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>33</v>
@@ -4498,7 +4432,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>53</v>
@@ -4514,7 +4448,7 @@
         <v>DIG900</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H104" s="5">
         <v>28</v>
@@ -4527,7 +4461,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>54</v>
@@ -4543,7 +4477,7 @@
         <v>DIG090</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H105" s="5">
         <v>37</v>
@@ -4556,7 +4490,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>105</v>
@@ -4572,7 +4506,7 @@
         <v>DIG040</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H106" s="5">
         <v>10</v>
@@ -4585,7 +4519,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>155</v>
@@ -4601,7 +4535,7 @@
         <v>DIG090</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H107" s="5">
         <v>37</v>
@@ -4614,7 +4548,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>66</v>
@@ -4630,7 +4564,7 @@
         <v>DIG010</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H108" s="5">
         <v>10</v>
@@ -4643,7 +4577,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>46</v>
@@ -4659,7 +4593,7 @@
         <v>DIG1000</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H109" s="5">
         <v>10</v>
@@ -4672,7 +4606,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>51</v>
@@ -4688,7 +4622,7 @@
         <v>DIG1000</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H110" s="5">
         <v>10</v>
@@ -4701,7 +4635,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>50</v>
@@ -4717,7 +4651,7 @@
         <v>DIG1000</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H111" s="5">
         <v>10</v>
@@ -4730,7 +4664,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>49</v>
@@ -4746,7 +4680,7 @@
         <v>DIG010</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H112" s="5">
         <v>10</v>
@@ -4759,7 +4693,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>47</v>
@@ -4775,7 +4709,7 @@
         <v>DIG010</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H113" s="5">
         <v>10</v>
@@ -4788,7 +4722,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>48</v>
@@ -4804,7 +4738,7 @@
         <v>DIG010</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="H114" s="5">
         <v>10</v>
@@ -4815,128 +4749,128 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C115" s="9">
         <v>10</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="H115" s="5">
         <v>145</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C116" s="9">
         <v>10</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H116" s="5">
         <v>136</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C117" s="9">
         <v>10</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="H117" s="5">
         <v>91</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C118" s="9">
         <v>10</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H118" s="5">
         <v>55</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C119" s="9">
         <v>10</v>
@@ -4944,28 +4878,28 @@
       <c r="E119" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F119" s="14" t="str">
+      <c r="F119" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG0400</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H119" s="5">
         <v>10</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C120" s="9">
         <v>10</v>
@@ -4973,18 +4907,18 @@
       <c r="E120" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F120" s="14" t="str">
+      <c r="F120" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG040</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="H120" s="5">
         <v>19</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -4992,7 +4926,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C120">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B330C0-02A2-4C19-872A-39FE6CE33D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA94B8D-C454-425A-9F4A-A143C9A2112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="249">
   <si>
     <t>CODIGO</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>🤖 Expira: 04/09/2029</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus x10</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K120" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K120" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K122" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:K122" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1137,9 +1140,14 @@
         <filter val="2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ANTIVIRUS"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K114">
-    <sortCondition ref="E1:E118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K116">
+    <sortCondition ref="E1:E120"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
@@ -1447,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>179</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>178</v>
       </c>
@@ -1670,7 +1678,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>178</v>
       </c>
@@ -1699,7 +1707,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
@@ -1728,7 +1736,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>179</v>
       </c>
@@ -1757,7 +1765,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -1786,7 +1794,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>195</v>
       </c>
@@ -1815,7 +1823,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>220</v>
       </c>
@@ -1844,7 +1852,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>221</v>
       </c>
@@ -2105,7 +2113,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>221</v>
       </c>
@@ -2134,7 +2142,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>196</v>
       </c>
@@ -2163,7 +2171,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>196</v>
       </c>
@@ -2192,7 +2200,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>197</v>
       </c>
@@ -2221,7 +2229,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>197</v>
       </c>
@@ -2250,7 +2258,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>223</v>
       </c>
@@ -2279,7 +2287,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>223</v>
       </c>
@@ -2308,7 +2316,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>223</v>
       </c>
@@ -2337,7 +2345,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
@@ -2366,7 +2374,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>224</v>
       </c>
@@ -2395,7 +2403,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>224</v>
       </c>
@@ -2424,7 +2432,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>224</v>
       </c>
@@ -2453,7 +2461,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>224</v>
       </c>
@@ -2482,7 +2490,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
@@ -2511,7 +2519,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>225</v>
       </c>
@@ -2957,7 +2965,7 @@
         <v>194</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C52" s="9">
         <v>10</v>
@@ -2973,78 +2981,78 @@
         <v>12</v>
       </c>
       <c r="H52" s="5">
-        <v>46</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="10">
+        <v>248</v>
+      </c>
+      <c r="C53" s="9">
         <v>10</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG100</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H53" s="5">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="9">
+        <v>10</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="5">
+        <v>46</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="10">
-        <v>10</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H54" s="5">
-        <v>19</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>30</v>
+      <c r="B55" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C55" s="10">
         <v>10</v>
@@ -3054,317 +3062,317 @@
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG800</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="H55" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
+        <v>DIG800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H56" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>225</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H57" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C58" s="10">
         <v>0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F58" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
+        <v>DIG111</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H58" s="5">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C59" s="10">
         <v>0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F59" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>12</v>
+        <v>DIG131</v>
       </c>
       <c r="H59" s="5">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C60" s="10">
-        <v>10</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG158</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="H60" s="5">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="9">
-        <v>10</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG162</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="5">
+        <v>165</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="10">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG080</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H62" s="5">
+        <v>10</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="9">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="5">
         <v>46</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="J63" s="2"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="9">
-        <v>10</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="C64" s="9">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F62" s="9" t="str">
+      <c r="F64" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H64" s="5">
         <v>73</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="J64" s="2"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C65" s="10">
         <v>0</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9" t="str">
+      <c r="E65" s="10"/>
+      <c r="F65" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
       </c>
-      <c r="H63" s="5"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="H65" s="5"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C66" s="10">
         <v>0</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="str">
+      <c r="E66" s="10"/>
+      <c r="F66" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG184</v>
       </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="4" t="s">
+      <c r="H66" s="5"/>
+      <c r="I66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="9">
-        <v>10</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="5">
-        <v>73</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="9">
-        <v>10</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="5">
-        <v>37</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,7 +3380,7 @@
         <v>194</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C67" s="9">
         <v>10</v>
@@ -3384,45 +3392,45 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>212</v>
+      <c r="G67" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H67" s="5">
-        <v>40.328767123287676</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J67" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" s="2"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="10">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="C68" s="9">
+        <v>10</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3443,10 +3451,10 @@
         <v>DIG100</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H69" s="5">
-        <v>100.55890410958904</v>
+        <v>40.328767123287676</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>217</v>
@@ -3454,33 +3462,33 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="9">
-        <v>10</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H70" s="5">
-        <v>46</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J70" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3488,7 +3496,7 @@
         <v>194</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C71" s="9">
         <v>10</v>
@@ -3501,79 +3509,81 @@
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="H71" s="5">
-        <v>69.235616438356161</v>
+        <v>100.55890410958904</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C72" s="9">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="F72" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H72" s="5">
-        <v>226</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="10">
-        <v>0</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C73" s="9">
+        <v>10</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="F73" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>119</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="H73" s="5">
-        <v>453</v>
+        <v>69.235616438356161</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="K73" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
@@ -3589,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
@@ -3601,7 +3611,7 @@
         <v>178</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
@@ -3617,7 +3627,7 @@
         <v>119</v>
       </c>
       <c r="H75" s="5">
-        <v>286</v>
+        <v>453</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
@@ -3629,7 +3639,7 @@
         <v>178</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
@@ -3645,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="5">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
@@ -3657,7 +3667,7 @@
         <v>178</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -3673,7 +3683,7 @@
         <v>119</v>
       </c>
       <c r="H77" s="5">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
@@ -3685,7 +3695,7 @@
         <v>178</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -3701,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="H78" s="5">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
@@ -3713,7 +3723,7 @@
         <v>178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -3726,10 +3736,10 @@
         <v>DIG200</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H79" s="5">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
@@ -3741,7 +3751,7 @@
         <v>178</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -3757,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="H80" s="5">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
@@ -3769,7 +3779,7 @@
         <v>178</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -3782,10 +3792,10 @@
         <v>DIG200</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H81" s="5">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
@@ -3797,7 +3807,7 @@
         <v>178</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
@@ -3813,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="H82" s="5">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
@@ -3825,7 +3835,7 @@
         <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="10">
         <v>0</v>
@@ -3841,77 +3851,75 @@
         <v>119</v>
       </c>
       <c r="H83" s="5">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="9">
-        <v>10</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>192</v>
+        <v>118</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H84" s="5">
-        <v>55</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="9">
-        <v>10</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>192</v>
+        <v>118</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="H85" s="5">
-        <v>91</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>124</v>
+        <v>194</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C86" s="9">
         <v>10</v>
@@ -3921,28 +3929,26 @@
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG100</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H86" s="5">
-        <v>318</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C87" s="9">
         <v>10</v>
@@ -3955,23 +3961,23 @@
         <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H87" s="5">
-        <v>46</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J87" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="2"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>130</v>
+        <v>170</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C88" s="9">
         <v>10</v>
@@ -3981,26 +3987,28 @@
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H88" s="5">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="9">
         <v>10</v>
@@ -4013,13 +4021,13 @@
         <v>DIG100</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H89" s="5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4029,7 +4037,7 @@
         <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
@@ -4041,14 +4049,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G90" s="13" t="s">
-        <v>244</v>
+      <c r="G90" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H90" s="5">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4058,7 +4066,7 @@
         <v>194</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C91" s="9">
         <v>10</v>
@@ -4070,24 +4078,24 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G91" s="13" t="s">
-        <v>244</v>
+      <c r="G91" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H91" s="5">
-        <v>13.561643835616438</v>
+        <v>55</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C92" s="9">
         <v>10</v>
@@ -4097,16 +4105,16 @@
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="H92" s="5">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4116,7 +4124,7 @@
         <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="C93" s="9">
         <v>10</v>
@@ -4128,24 +4136,24 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>241</v>
+      <c r="G93" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="H93" s="5">
-        <v>100</v>
+        <v>13.561643835616438</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C94" s="9">
         <v>10</v>
@@ -4155,16 +4163,16 @@
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H94" s="5">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4187,13 +4195,13 @@
         <v>DIG100</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H95" s="5">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -4215,82 +4223,82 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G96" s="13" t="s">
-        <v>245</v>
+      <c r="G96" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="H96" s="5">
-        <v>18.449315068493149</v>
+        <v>73</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="10">
+        <v>194</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="9">
         <v>10</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG100</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H97" s="5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="10">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="9">
         <v>10</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="H98" s="5">
-        <v>100</v>
+        <v>18.449315068493149</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>225</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C99" s="10">
         <v>10</v>
@@ -4300,26 +4308,26 @@
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG080</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="H99" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C100" s="10">
         <v>10</v>
@@ -4332,23 +4340,23 @@
         <v>DIG080</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H100" s="5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C101" s="10">
         <v>10</v>
@@ -4358,26 +4366,26 @@
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG800</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="H101" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C102" s="10">
         <v>10</v>
@@ -4387,84 +4395,84 @@
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG080</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="H102" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C103" s="10">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG080</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="H103" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>53</v>
+        <v>222</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C104" s="10">
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>DIG040</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="H104" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C105" s="10">
         <v>10</v>
@@ -4474,55 +4482,55 @@
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG040</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="H105" s="5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>199</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C106" s="10">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG900</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="H106" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="C107" s="10">
         <v>10</v>
@@ -4535,33 +4543,33 @@
         <v>DIG090</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H107" s="5">
         <v>37</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C108" s="10">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG040</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>236</v>
@@ -4570,46 +4578,46 @@
         <v>10</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>46</v>
+        <v>226</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C109" s="10">
         <v>10</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG090</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="H109" s="5">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>51</v>
+        <v>170</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C110" s="10">
         <v>10</v>
@@ -4619,7 +4627,7 @@
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG010</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>236</v>
@@ -4628,17 +4636,17 @@
         <v>10</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C111" s="10">
         <v>10</v>
@@ -4657,17 +4665,17 @@
         <v>10</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>49</v>
+        <v>200</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C112" s="10">
         <v>10</v>
@@ -4677,7 +4685,7 @@
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>236</v>
@@ -4686,17 +4694,17 @@
         <v>10</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>47</v>
+        <v>200</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C113" s="10">
         <v>10</v>
@@ -4706,7 +4714,7 @@
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>236</v>
@@ -4715,17 +4723,17 @@
         <v>10</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C114" s="10">
         <v>10</v>
@@ -4738,81 +4746,81 @@
         <v>DIG010</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H114" s="5">
         <v>10</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C115" s="9">
+        <v>170</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="10">
         <v>10</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>247</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H115" s="5">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" s="9">
+        <v>48</v>
+      </c>
+      <c r="C116" s="10">
         <v>10</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H116" s="5">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C117" s="9">
         <v>10</v>
@@ -4822,16 +4830,16 @@
       </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>241</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="H117" s="5">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -4854,78 +4862,136 @@
         <v>DIG010</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H118" s="5">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="C119" s="9">
         <v>10</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F119" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG0400</v>
+        <v>DIG010</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H119" s="5">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C120" s="9">
         <v>10</v>
       </c>
       <c r="E120" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H120" s="5">
         <v>55</v>
       </c>
-      <c r="F120" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H120" s="5">
-        <v>19</v>
-      </c>
       <c r="I120" s="4" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
     </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" s="9">
+        <v>10</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG0400</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H121" s="5">
+        <v>10</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="9">
+        <v>10</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG040</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H122" s="5">
+        <v>19</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C120">
+  <conditionalFormatting sqref="C2:C122">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA94B8D-C454-425A-9F4A-A143C9A2112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF70BCC-E80E-4F70-9F21-872BA42230FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="251">
   <si>
     <t>CODIGO</t>
   </si>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>Eset NOD32 Antivirus x10</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>ESET</t>
   </si>
 </sst>
 </file>
@@ -901,7 +907,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1131,13 +1150,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K122" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K122" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L122" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:L122" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
         <filter val="10"/>
-        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -1145,24 +1163,30 @@
         <filter val="ANTIVIRUS"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K116">
-    <sortCondition ref="E1:E120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:L67">
+    <sortCondition ref="H1:H122"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="6">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1455,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1498,7 @@
     <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1508,8 +1532,11 @@
       <c r="K1" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>179</v>
       </c>
@@ -1535,8 +1562,9 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>179</v>
       </c>
@@ -1563,8 +1591,9 @@
       <c r="K3" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>179</v>
       </c>
@@ -1591,8 +1620,9 @@
       <c r="K4" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>179</v>
       </c>
@@ -1619,8 +1649,9 @@
       <c r="K5" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>179</v>
       </c>
@@ -1648,8 +1679,9 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>178</v>
       </c>
@@ -1677,8 +1709,9 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>178</v>
       </c>
@@ -1706,8 +1739,9 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
@@ -1735,8 +1769,9 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>179</v>
       </c>
@@ -1764,8 +1799,9 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -1793,8 +1829,9 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>195</v>
       </c>
@@ -1822,8 +1859,9 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>220</v>
       </c>
@@ -1851,8 +1889,9 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>221</v>
       </c>
@@ -1880,8 +1919,9 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>194</v>
       </c>
@@ -1909,8 +1949,9 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>194</v>
       </c>
@@ -1938,8 +1979,9 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>170</v>
       </c>
@@ -1967,8 +2009,9 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>170</v>
       </c>
@@ -1996,8 +2039,9 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>170</v>
       </c>
@@ -2025,8 +2069,9 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>194</v>
       </c>
@@ -2054,8 +2099,9 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>170</v>
       </c>
@@ -2083,8 +2129,9 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>170</v>
       </c>
@@ -2112,8 +2159,9 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>221</v>
       </c>
@@ -2141,8 +2189,9 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>196</v>
       </c>
@@ -2170,8 +2219,9 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>196</v>
       </c>
@@ -2199,8 +2249,9 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>197</v>
       </c>
@@ -2228,8 +2279,9 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>197</v>
       </c>
@@ -2257,8 +2309,9 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>223</v>
       </c>
@@ -2286,8 +2339,9 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>223</v>
       </c>
@@ -2315,8 +2369,9 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>223</v>
       </c>
@@ -2344,8 +2399,9 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
@@ -2373,8 +2429,9 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>224</v>
       </c>
@@ -2402,8 +2459,9 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>224</v>
       </c>
@@ -2431,8 +2489,9 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>224</v>
       </c>
@@ -2460,8 +2519,9 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>224</v>
       </c>
@@ -2489,8 +2549,9 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
@@ -2518,8 +2579,9 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>225</v>
       </c>
@@ -2547,16 +2609,17 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>192</v>
@@ -2566,23 +2629,26 @@
         <v>DIG100</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H38" s="5">
-        <v>17.334246575342465</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
@@ -2594,26 +2660,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>12</v>
+      <c r="G39" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="H39" s="5">
-        <v>254</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="C40" s="9">
         <v>10</v>
@@ -2625,52 +2692,54 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>12</v>
+      <c r="G40" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="H40" s="5">
-        <v>368</v>
+        <v>16.117808219178084</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>194</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C41" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>192</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="H41" s="5">
-        <v>361</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>194</v>
       </c>
@@ -2698,8 +2767,11 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>194</v>
       </c>
@@ -2727,8 +2799,11 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>194</v>
       </c>
@@ -2756,8 +2831,11 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>194</v>
       </c>
@@ -2785,8 +2863,11 @@
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>194</v>
       </c>
@@ -2814,8 +2895,11 @@
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>194</v>
       </c>
@@ -2843,13 +2927,16 @@
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="C48" s="9">
         <v>10</v>
@@ -2861,24 +2948,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>204</v>
+      <c r="G48" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H48" s="5">
-        <v>71.769863013698625</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="2"/>
       <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C49" s="9">
         <v>10</v>
@@ -2890,19 +2980,22 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>227</v>
+      <c r="G49" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H49" s="5">
-        <v>9.7315068493150676</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" s="2"/>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>194</v>
       </c>
@@ -2920,23 +3013,26 @@
         <v>DIG100</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H50" s="5">
-        <v>12.367123287671232</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>191</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
@@ -2948,19 +3044,22 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>229</v>
+      <c r="G51" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H51" s="5">
-        <v>16.117808219178084</v>
-      </c>
-      <c r="I51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>194</v>
       </c>
@@ -2968,7 +3067,7 @@
         <v>248</v>
       </c>
       <c r="C52" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>192</v>
@@ -2988,13 +3087,16 @@
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="C53" s="9">
         <v>10</v>
@@ -3007,23 +3109,28 @@
         <v>DIG100</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H53" s="5">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>16</v>
+        <v>170</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C54" s="9">
         <v>10</v>
@@ -3033,21 +3140,26 @@
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="H54" s="5">
-        <v>46</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>198</v>
       </c>
@@ -3075,8 +3187,9 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>198</v>
       </c>
@@ -3104,8 +3217,9 @@
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>225</v>
       </c>
@@ -3133,8 +3247,9 @@
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>164</v>
       </c>
@@ -3162,8 +3277,9 @@
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>165</v>
       </c>
@@ -3188,8 +3304,9 @@
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>166</v>
       </c>
@@ -3217,8 +3334,9 @@
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>167</v>
       </c>
@@ -3246,8 +3364,9 @@
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>225</v>
       </c>
@@ -3275,13 +3394,14 @@
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C63" s="9">
         <v>10</v>
@@ -3297,15 +3417,20 @@
         <v>12</v>
       </c>
       <c r="H63" s="5">
-        <v>46</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>194</v>
       </c>
@@ -3313,7 +3438,7 @@
         <v>172</v>
       </c>
       <c r="C64" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>192</v>
@@ -3333,8 +3458,11 @@
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>168</v>
       </c>
@@ -3352,8 +3480,9 @@
       <c r="H65" s="5"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>169</v>
       </c>
@@ -3374,13 +3503,14 @@
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="C67" s="9">
         <v>10</v>
@@ -3393,18 +3523,21 @@
         <v>DIG100</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H67" s="5">
-        <v>73</v>
-      </c>
-      <c r="I67" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>194</v>
       </c>
@@ -3432,8 +3565,9 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>194</v>
       </c>
@@ -3461,8 +3595,9 @@
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>178</v>
       </c>
@@ -3490,8 +3625,9 @@
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>194</v>
       </c>
@@ -3519,8 +3655,9 @@
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>194</v>
       </c>
@@ -3548,8 +3685,9 @@
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>194</v>
       </c>
@@ -3577,8 +3715,9 @@
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>178</v>
       </c>
@@ -3605,8 +3744,9 @@
       <c r="K74" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>178</v>
       </c>
@@ -3633,8 +3773,9 @@
       <c r="K75" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>178</v>
       </c>
@@ -3661,8 +3802,9 @@
       <c r="K76" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>178</v>
       </c>
@@ -3689,8 +3831,9 @@
       <c r="K77" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>178</v>
       </c>
@@ -3717,8 +3860,9 @@
       <c r="K78" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>178</v>
       </c>
@@ -3745,8 +3889,9 @@
       <c r="K79" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>178</v>
       </c>
@@ -3773,8 +3918,9 @@
       <c r="K80" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>178</v>
       </c>
@@ -3801,8 +3947,9 @@
       <c r="K81" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>178</v>
       </c>
@@ -3829,8 +3976,9 @@
       <c r="K82" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>178</v>
       </c>
@@ -3857,8 +4005,9 @@
       <c r="K83" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>178</v>
       </c>
@@ -3885,8 +4034,9 @@
       <c r="K84" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>178</v>
       </c>
@@ -3913,8 +4063,9 @@
       <c r="K85" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>194</v>
       </c>
@@ -3942,8 +4093,9 @@
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>194</v>
       </c>
@@ -3971,8 +4123,9 @@
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>170</v>
       </c>
@@ -4002,8 +4155,9 @@
       <c r="K88" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>194</v>
       </c>
@@ -4031,8 +4185,9 @@
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>194</v>
       </c>
@@ -4060,8 +4215,9 @@
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>194</v>
       </c>
@@ -4089,8 +4245,9 @@
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>194</v>
       </c>
@@ -4118,8 +4275,9 @@
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>194</v>
       </c>
@@ -4147,8 +4305,9 @@
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>170</v>
       </c>
@@ -4176,8 +4335,9 @@
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>194</v>
       </c>
@@ -4205,8 +4365,9 @@
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>194</v>
       </c>
@@ -4234,8 +4395,9 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>194</v>
       </c>
@@ -4263,8 +4425,9 @@
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>194</v>
       </c>
@@ -4292,8 +4455,9 @@
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>225</v>
       </c>
@@ -4321,8 +4485,9 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>225</v>
       </c>
@@ -4350,8 +4515,9 @@
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>198</v>
       </c>
@@ -4379,8 +4545,9 @@
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>225</v>
       </c>
@@ -4408,8 +4575,9 @@
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>225</v>
       </c>
@@ -4437,8 +4605,9 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>222</v>
       </c>
@@ -4466,8 +4635,9 @@
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>222</v>
       </c>
@@ -4495,8 +4665,9 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>199</v>
       </c>
@@ -4524,8 +4695,9 @@
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>226</v>
       </c>
@@ -4553,8 +4725,9 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>222</v>
       </c>
@@ -4582,8 +4755,9 @@
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>226</v>
       </c>
@@ -4611,8 +4785,9 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>170</v>
       </c>
@@ -4640,8 +4815,9 @@
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>200</v>
       </c>
@@ -4669,8 +4845,9 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>200</v>
       </c>
@@ -4698,8 +4875,9 @@
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>200</v>
       </c>
@@ -4727,8 +4905,9 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>170</v>
       </c>
@@ -4756,8 +4935,9 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>170</v>
       </c>
@@ -4785,8 +4965,9 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>170</v>
       </c>
@@ -4814,8 +4995,9 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>194</v>
       </c>
@@ -4843,8 +5025,9 @@
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>170</v>
       </c>
@@ -4872,8 +5055,9 @@
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>170</v>
       </c>
@@ -4901,8 +5085,9 @@
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>170</v>
       </c>
@@ -4930,8 +5115,9 @@
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>235</v>
       </c>
@@ -4959,8 +5145,9 @@
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>222</v>
       </c>
@@ -4988,11 +5175,12 @@
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C122">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF70BCC-E80E-4F70-9F21-872BA42230FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF58A9-BA89-4305-ABA8-8F9925E0C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="258">
   <si>
     <t>CODIGO</t>
   </si>
@@ -786,6 +786,27 @@
   </si>
   <si>
     <t>ESET</t>
+  </si>
+  <si>
+    <t>Microsoft Visio Professional 2019</t>
+  </si>
+  <si>
+    <t>Microsoft Visio Professional 2021</t>
+  </si>
+  <si>
+    <t>Microsoft Visio Professional 2024</t>
+  </si>
+  <si>
+    <t>DIG700</t>
+  </si>
+  <si>
+    <t>https://www.genesis-technologies.com/cdn/shop/files/459063_2afd0836-9fbe-4be0-87ac-7f79141398dc.jpg</t>
+  </si>
+  <si>
+    <t>https://promart.vteximg.com.br/arquivos/ids/9148833-1000-1000/imageUrl_1.jpg</t>
+  </si>
+  <si>
+    <t>https://techpointperu.com/image/cache/catalog/2022/D87-07606-400x400.jpg</t>
   </si>
 </sst>
 </file>
@@ -870,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -903,11 +924,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1150,8 +1194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L122" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:L122" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L125" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:L125" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -1160,33 +1204,28 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="ANTIVIRUS"/>
+        <filter val="OFIMATICA"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:L67">
     <sortCondition ref="H1:H122"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1479,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,11 +2440,11 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="10">
@@ -2431,11 +2470,11 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="10">
@@ -2461,11 +2500,11 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="10">
@@ -2491,11 +2530,11 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="10">
@@ -2521,11 +2560,11 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C35" s="10">
@@ -2551,11 +2590,11 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="10">
@@ -2611,7 +2650,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>194</v>
       </c>
@@ -2643,7 +2682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>194</v>
       </c>
@@ -2675,7 +2714,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>194</v>
       </c>
@@ -2707,7 +2746,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>194</v>
       </c>
@@ -2739,7 +2778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>194</v>
       </c>
@@ -2771,7 +2810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>194</v>
       </c>
@@ -2803,7 +2842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>194</v>
       </c>
@@ -2835,7 +2874,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>194</v>
       </c>
@@ -2867,7 +2906,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>194</v>
       </c>
@@ -2899,7 +2938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>194</v>
       </c>
@@ -2931,7 +2970,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>194</v>
       </c>
@@ -2963,7 +3002,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>194</v>
       </c>
@@ -2995,7 +3034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>194</v>
       </c>
@@ -3027,7 +3066,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>194</v>
       </c>
@@ -3091,7 +3130,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>194</v>
       </c>
@@ -3125,7 +3164,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>170</v>
       </c>
@@ -3396,7 +3435,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>194</v>
       </c>
@@ -3505,7 +3544,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>194</v>
       </c>
@@ -5177,10 +5216,100 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="9">
+        <v>10</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG700</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H123" s="5">
+        <v>28</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="9">
+        <v>10</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG700</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" s="5">
+        <v>37</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="9">
+        <v>10</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125" s="14" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG700</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H125" s="5">
+        <v>55</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C122">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C125">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF58A9-BA89-4305-ABA8-8F9925E0C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F1CD4-790C-4A5E-9FB8-51ED294F708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,7 +806,7 @@
     <t>https://promart.vteximg.com.br/arquivos/ids/9148833-1000-1000/imageUrl_1.jpg</t>
   </si>
   <si>
-    <t>https://techpointperu.com/image/cache/catalog/2022/D87-07606-400x400.jpg</t>
+    <t>https://levelupbo.com/wp-content/uploads/2023/05/visio-pro-2021.png</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F1CD4-790C-4A5E-9FB8-51ED294F708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B89E66-F29F-49BC-AF28-3EB688DE43BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="265">
   <si>
     <t>CODIGO</t>
   </si>
@@ -740,9 +740,6 @@
     <t>CAPCUT STANDARD</t>
   </si>
   <si>
-    <t>DIG0400</t>
-  </si>
-  <si>
     <t>🤖 Sucripcion x 30 dias</t>
   </si>
   <si>
@@ -807,6 +804,30 @@
   </si>
   <si>
     <t>https://levelupbo.com/wp-content/uploads/2023/05/visio-pro-2021.png</t>
+  </si>
+  <si>
+    <t>https://vencerelcancer.org/wp-content/uploads/2020/06/MicrosoftRewards_banner_1400x700-scaled.jpg</t>
+  </si>
+  <si>
+    <t>DIG90</t>
+  </si>
+  <si>
+    <t>Microsoft rewards</t>
+  </si>
+  <si>
+    <t>Crunchyroll (por compras a mayores 10 soles)</t>
+  </si>
+  <si>
+    <t>Apple TV+ (por compras a mayores 28 soles)</t>
+  </si>
+  <si>
+    <t>SCRIBD Premium (por compras a mayores 46 soles)</t>
+  </si>
+  <si>
+    <t>https://anydigi.store/wp-content/uploads/2025/06/Chat-33.png</t>
+  </si>
+  <si>
+    <t>🎁 Gift Temp</t>
   </si>
 </sst>
 </file>
@@ -816,7 +837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,16 +878,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -884,6 +917,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,24 +972,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -964,16 +1000,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1194,38 +1220,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L125" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:L125" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L129" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:L129" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
         <filter val="10"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="OFIMATICA"/>
+        <filter val="PRODUCTIVIDAD"/>
+        <filter val="STREAMING"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:L67">
-    <sortCondition ref="H1:H122"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L128">
+    <sortCondition ref="H1:H129"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1518,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1599,7 @@
         <v>176</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1692,10 +1719,10 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -1705,16 +1732,16 @@
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG200</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H6" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1722,40 +1749,42 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="10">
+        <v>202</v>
+      </c>
+      <c r="C7" s="9">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>236</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="H7" s="5">
-        <v>10</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -1768,13 +1797,13 @@
         <v>DIG200</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1782,29 +1811,29 @@
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG300</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="H9" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1812,29 +1841,29 @@
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG017</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1842,29 +1871,29 @@
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>221</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>56</v>
+      <c r="E11" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG018</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1872,269 +1901,269 @@
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>221</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>60</v>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG300</v>
+        <v>DIG018</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>58</v>
+      <c r="E13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG017</v>
+        <v>DIG080</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>58</v>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG080</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9">
+        <v>225</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG080</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H15" s="5">
-        <v>46</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9">
+        <v>225</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>238</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H16" s="5">
-        <v>26.964383561643835</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="9">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG080</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H17" s="5">
-        <v>172</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG080</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18" s="5">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10">
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>239</v>
+      <c r="G19" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H19" s="5">
-        <v>63.643835616438359</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="9">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10">
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG1000</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H20" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2170,181 +2199,181 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="9">
+        <v>200</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="10">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="F22" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H22" s="5">
-        <v>190</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>58</v>
+      <c r="E23" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG1000</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>170</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG010</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H24" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>170</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG010</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H25" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>170</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG010</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H26" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10">
+        <v>198</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="9">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG800</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H27" s="5">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2352,29 +2381,29 @@
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="10">
+        <v>194</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>240</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="H28" s="5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2382,70 +2411,72 @@
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="10">
+        <v>194</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="9">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>236</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="H29" s="5">
-        <v>19</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="10">
+        <v>194</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="9">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="H30" s="5">
-        <v>37</v>
+        <v>13.561643835616438</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -2461,10 +2492,10 @@
         <v>93</v>
       </c>
       <c r="H31" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2472,149 +2503,153 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>225</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG080</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>222</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG040</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="10">
+        <v>202</v>
+      </c>
+      <c r="C34" s="9">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>242</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="H34" s="5">
-        <v>19</v>
+        <v>16.117808219178084</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="10">
+        <v>202</v>
+      </c>
+      <c r="C35" s="9">
         <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="H35" s="5">
-        <v>295</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="10">
+        <v>181</v>
+      </c>
+      <c r="C36" s="9">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>93</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="H36" s="5">
-        <v>15</v>
+        <v>18.449315068493149</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2622,29 +2657,29 @@
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG020</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H37" s="5">
         <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2652,99 +2687,93 @@
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10">
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>227</v>
+        <v>DIG200</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H38" s="5">
-        <v>9.7315068493150676</v>
+        <v>19</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="9">
+        <v>179</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10">
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F39" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>228</v>
+        <v>DIG020</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H39" s="5">
-        <v>12.367123287671232</v>
+        <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="9">
+        <v>44</v>
+      </c>
+      <c r="C40" s="10">
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>229</v>
+        <v>DIG500</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H40" s="5">
-        <v>16.117808219178084</v>
+        <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -2775,303 +2804,285 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="9">
+        <v>25</v>
+      </c>
+      <c r="C42" s="10">
         <v>10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="F42" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>207</v>
+        <v>DIG600</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H42" s="5">
-        <v>18.246575342465754</v>
+        <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="9">
+        <v>223</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="10">
         <v>10</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="F43" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>208</v>
+        <v>DIG060</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H43" s="5">
-        <v>19.767123287671232</v>
+        <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="9">
+        <v>34</v>
+      </c>
+      <c r="C44" s="10">
         <v>10</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>209</v>
+        <v>DIG070</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H44" s="5">
-        <v>21.997260273972604</v>
+        <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="9">
+        <v>29</v>
+      </c>
+      <c r="C45" s="10">
         <v>10</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>210</v>
+        <v>DIG070</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="H45" s="5">
-        <v>26.863013698630137</v>
+        <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="9">
+        <v>225</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="10">
         <v>10</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>211</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H46" s="5">
-        <v>29.194520547945206</v>
+        <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="9">
+        <v>143</v>
+      </c>
+      <c r="C47" s="10">
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>213</v>
+        <v>DIG800</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H47" s="5">
-        <v>32.945205479452056</v>
+        <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="9">
+        <v>141</v>
+      </c>
+      <c r="C48" s="10">
         <v>10</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F48" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG800</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H48" s="5">
-        <v>46</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="9">
+        <v>151</v>
+      </c>
+      <c r="C49" s="10">
         <v>10</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F49" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG800</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H49" s="5">
-        <v>46</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>202</v>
+        <v>225</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="C50" s="9">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F50" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>204</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H50" s="5">
-        <v>71.769863013698625</v>
+        <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
@@ -3083,19 +3094,19 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>12</v>
+      <c r="G51" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="H51" s="5">
-        <v>73</v>
-      </c>
-      <c r="I51" s="3" t="s">
+        <v>19.767123287671232</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3103,7 +3114,7 @@
         <v>194</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3127,7 +3138,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3135,7 +3146,7 @@
         <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C53" s="9">
         <v>10</v>
@@ -3147,29 +3158,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>12</v>
+      <c r="G53" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="H53" s="5">
-        <v>254</v>
+        <v>21.997260273972604</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>136</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C54" s="9">
         <v>10</v>
@@ -3179,50 +3188,48 @@
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="H54" s="5">
-        <v>361</v>
+        <v>26.863013698630137</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="10">
+        <v>10</v>
+      </c>
+      <c r="C55" s="9">
         <v>10</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>93</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="H55" s="5">
-        <v>19</v>
+        <v>26.964383561643835</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3230,29 +3237,29 @@
     </row>
     <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10">
         <v>10</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG200</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3260,29 +3267,29 @@
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>30</v>
+        <v>196</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C57" s="10">
         <v>10</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG500</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="H57" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3407,29 +3414,29 @@
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="C62" s="10">
         <v>10</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F62" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG060</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H62" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3437,37 +3444,33 @@
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="9">
+        <v>53</v>
+      </c>
+      <c r="C63" s="10">
         <v>10</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="F63" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG900</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="H63" s="5">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -3498,7 +3501,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3546,63 +3549,61 @@
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C67" s="9">
         <v>10</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG700</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H67" s="5">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="C68" s="9">
         <v>10</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG90</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
@@ -3611,7 +3612,7 @@
         <v>194</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="C69" s="9">
         <v>10</v>
@@ -3624,17 +3625,19 @@
         <v>DIG100</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H69" s="5">
-        <v>40.328767123287676</v>
+        <v>29.194520547945206</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -3671,7 +3674,7 @@
         <v>194</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="C71" s="9">
         <v>10</v>
@@ -3684,24 +3687,26 @@
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H71" s="5">
-        <v>100.55890410958904</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C72" s="9">
         <v>10</v>
@@ -3714,43 +3719,43 @@
         <v>DIG100</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H72" s="5">
-        <v>46</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J72" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="9">
+        <v>223</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="10">
         <v>10</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="F73" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>243</v>
+        <v>DIG060</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H73" s="5">
-        <v>69.235616438356161</v>
+        <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4106,31 +4111,31 @@
     </row>
     <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="9">
+        <v>29</v>
+      </c>
+      <c r="C86" s="10">
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG070</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H86" s="5">
-        <v>55</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
@@ -4139,7 +4144,7 @@
         <v>194</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C87" s="9">
         <v>10</v>
@@ -4152,13 +4157,13 @@
         <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H87" s="5">
-        <v>91</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
@@ -4166,61 +4171,59 @@
     </row>
     <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="9">
+        <v>54</v>
+      </c>
+      <c r="C88" s="10">
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG090</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="H88" s="5">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J88" s="4"/>
-      <c r="K88" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="9">
+        <v>226</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="10">
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG090</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="H89" s="5">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4228,29 +4231,29 @@
     </row>
     <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG700</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="H90" s="5">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4261,7 +4264,7 @@
         <v>194</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C91" s="9">
         <v>10</v>
@@ -4273,14 +4276,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>237</v>
+      <c r="G91" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="H91" s="5">
-        <v>55</v>
+        <v>40.328767123287676</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4291,7 +4294,7 @@
         <v>194</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C92" s="9">
         <v>10</v>
@@ -4303,25 +4306,25 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G92" s="13" t="s">
-        <v>244</v>
+      <c r="G92" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H92" s="5">
-        <v>11</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="2"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>17</v>
+        <v>170</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C93" s="9">
         <v>10</v>
@@ -4331,27 +4334,27 @@
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>244</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H93" s="5">
-        <v>13.561643835616438</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J93" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J93" s="2"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C94" s="9">
         <v>10</v>
@@ -4361,27 +4364,29 @@
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG100</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H94" s="5">
-        <v>100</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J94" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="2"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="L94" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C95" s="9">
         <v>10</v>
@@ -4394,24 +4399,26 @@
         <v>DIG100</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H95" s="5">
-        <v>100</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J95" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="L95" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="C96" s="9">
         <v>10</v>
@@ -4424,15 +4431,15 @@
         <v>DIG100</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H96" s="5">
-        <v>73</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J96" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" s="2"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
@@ -4441,7 +4448,7 @@
         <v>194</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="C97" s="9">
         <v>10</v>
@@ -4454,13 +4461,13 @@
         <v>DIG100</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H97" s="5">
         <v>46</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4483,14 +4490,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>245</v>
+      <c r="G98" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H98" s="5">
-        <v>18.449315068493149</v>
+        <v>46</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4498,59 +4505,59 @@
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" s="10">
+        <v>194</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="9">
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG100</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H99" s="5">
-        <v>10</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J99" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J99" s="2"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="10">
+        <v>194</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="9">
         <v>10</v>
       </c>
       <c r="E100" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H100" s="5">
         <v>55</v>
       </c>
-      <c r="F100" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H100" s="5">
-        <v>100</v>
-      </c>
       <c r="I100" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -4558,29 +4565,29 @@
     </row>
     <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="10">
+        <v>170</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="9">
         <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H101" s="5">
         <v>55</v>
       </c>
-      <c r="F101" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H101" s="5">
-        <v>19</v>
-      </c>
       <c r="I101" s="4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -4588,29 +4595,29 @@
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="10">
+        <v>253</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="9">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG700</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H102" s="5">
         <v>55</v>
       </c>
-      <c r="F102" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="5">
-        <v>15</v>
-      </c>
       <c r="I102" s="4" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -4618,29 +4625,29 @@
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="10">
+        <v>11</v>
+      </c>
+      <c r="C103" s="9">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>236</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="H103" s="5">
-        <v>10</v>
+        <v>63.643835616438359</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -4648,29 +4655,29 @@
     </row>
     <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="10">
+        <v>194</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="9">
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>236</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="H104" s="5">
-        <v>10</v>
+        <v>69.235616438356161</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -4678,59 +4685,61 @@
     </row>
     <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="10">
+        <v>194</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="9">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>12</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="H105" s="5">
-        <v>15</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="L105" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C106" s="10">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>DIG070</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="H106" s="5">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -4738,59 +4747,61 @@
     </row>
     <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="10">
+        <v>194</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="9">
         <v>10</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG100</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="H107" s="5">
-        <v>37</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J107" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J107" s="2"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="L107" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="10">
+        <v>194</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="9">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG100</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H108" s="5">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -4798,29 +4809,29 @@
     </row>
     <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="10">
+        <v>194</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="9">
         <v>10</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="H109" s="5">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -4828,59 +4839,59 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>66</v>
+        <v>197</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C110" s="10">
         <v>10</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG600</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H110" s="5">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="C111" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG010</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H111" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -4888,89 +4899,89 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="10">
+        <v>131</v>
+      </c>
+      <c r="C112" s="9">
         <v>10</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG100</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H112" s="5">
-        <v>10</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J112" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J112" s="2"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="10">
+        <v>170</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="9">
         <v>10</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG010</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H113" s="5">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>49</v>
+        <v>200</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C114" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F114" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H114" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -4981,13 +4992,13 @@
         <v>170</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115" s="10">
+        <v>138</v>
+      </c>
+      <c r="C115" s="9">
         <v>10</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4997,10 +5008,10 @@
         <v>236</v>
       </c>
       <c r="H115" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -5008,59 +5019,59 @@
     </row>
     <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116" s="10">
+        <v>194</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="9">
         <v>10</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG100</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H116" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C117" s="9">
+        <v>225</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="10">
         <v>10</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>247</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H117" s="5">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -5068,10 +5079,10 @@
     </row>
     <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C118" s="9">
         <v>10</v>
@@ -5081,16 +5092,16 @@
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>241</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="H118" s="5">
-        <v>136</v>
+        <v>100.55890410958904</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -5114,13 +5125,13 @@
         <v>DIG010</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H119" s="5">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -5128,10 +5139,10 @@
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C120" s="9">
         <v>10</v>
@@ -5141,16 +5152,16 @@
       </c>
       <c r="F120" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="H120" s="5">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -5158,158 +5169,294 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C121" s="9">
         <v>10</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F121" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG0400</v>
+        <v>DIG010</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H121" s="5">
-        <v>10</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J121" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J121" s="2"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C122" s="9">
         <v>10</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F122" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG010</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H122" s="5">
-        <v>19</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J122" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J122" s="2"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="9">
+        <v>10</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F123" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="5">
         <v>254</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" s="9">
-        <v>10</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F123" s="14" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H123" s="5">
-        <v>28</v>
-      </c>
       <c r="I123" s="4" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K123" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C124" s="9">
+        <v>154</v>
+      </c>
+      <c r="C124" s="10">
         <v>10</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F124" s="14" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
+      <c r="F124" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG070</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="H124" s="5">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>253</v>
+        <v>170</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C125" s="9">
         <v>10</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F125" s="14" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
+        <v>192</v>
+      </c>
+      <c r="F125" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="H125" s="5">
+        <v>318</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="9">
+        <v>10</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H126" s="5">
+        <v>361</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="9">
+        <v>10</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F127" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="5">
+        <v>368</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="9">
+        <v>10</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H128" s="5">
+        <v>370</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="9">
+        <v>2</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="F129" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H129" s="5">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C125">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C129">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B89E66-F29F-49BC-AF28-3EB688DE43BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53229A5F-ABC9-4FE7-AE37-523FCC09EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="271">
   <si>
     <t>CODIGO</t>
   </si>
@@ -179,9 +179,6 @@
     <t>PRIME VIDEO</t>
   </si>
   <si>
-    <t>Youtube Premium</t>
-  </si>
-  <si>
     <t>MUBI</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>🤖 Expira: 08/03/2026</t>
   </si>
   <si>
-    <t>🤖 Sucripcion x 30 dias.Cuentas Nuevas</t>
-  </si>
-  <si>
     <t>🤖 Expira: 04/09/2029</t>
   </si>
   <si>
@@ -828,6 +822,30 @@
   </si>
   <si>
     <t>🎁 Gift Temp</t>
+  </si>
+  <si>
+    <t>DIG80</t>
+  </si>
+  <si>
+    <t>Kaspersky VPN</t>
+  </si>
+  <si>
+    <t>https://www.01net.com/es/app/uploads/2024/03/Opiniones-de-Kaspersky-VPN.jpg</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias. Cuentas Nuevas</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias. Con tu correo</t>
+  </si>
+  <si>
+    <t>Youtube Premium + Music  (Familia x5)</t>
+  </si>
+  <si>
+    <t>Youtube Premium + Music  (Individual)</t>
+  </si>
+  <si>
+    <t>Youtube Premium + Music (x2)</t>
   </si>
 </sst>
 </file>
@@ -939,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -973,11 +991,34 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1220,8 +1261,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L129" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:L129" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L132" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:L132" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="3"/>
@@ -1230,7 +1271,6 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="PRODUCTIVIDAD"/>
         <filter val="STREAMING"/>
       </filters>
     </filterColumn>
@@ -1239,20 +1279,20 @@
     <sortCondition ref="H1:H129"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,15 +1636,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -1624,7 +1664,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1632,10 +1672,10 @@
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
@@ -1655,16 +1695,16 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -1677,23 +1717,23 @@
         <v>DIG020</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="5">
         <v>485</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
@@ -1706,20 +1746,20 @@
         <v>DIG020</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="5">
         <v>382</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
@@ -1728,20 +1768,20 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1749,39 +1789,39 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="9">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" s="5">
         <v>9.7315068493150676</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
@@ -1790,20 +1830,20 @@
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1811,7 +1851,7 @@
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
@@ -1820,20 +1860,20 @@
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG300</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" s="5">
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1841,7 +1881,7 @@
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
@@ -1850,20 +1890,20 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG017</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="5">
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1871,7 +1911,7 @@
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>27</v>
@@ -1880,20 +1920,20 @@
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG018</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1901,7 +1941,7 @@
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -1910,28 +1950,28 @@
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG018</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>30</v>
@@ -1940,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>40</v>
@@ -1970,28 +2010,28 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>42</v>
@@ -2000,28 +2040,28 @@
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H15" s="5">
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>31</v>
@@ -2030,28 +2070,28 @@
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>38</v>
@@ -2060,50 +2100,50 @@
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="5">
         <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18" s="5">
         <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2111,29 +2151,29 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2141,7 +2181,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -2150,20 +2190,20 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2171,7 +2211,7 @@
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -2180,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2193,7 +2233,7 @@
         <v>55</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
@@ -2201,29 +2241,29 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2231,29 +2271,29 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2261,29 +2301,29 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2291,7 +2331,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -2300,20 +2340,20 @@
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H25" s="5">
         <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2321,59 +2361,59 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H26" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="9">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H27" s="5">
         <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2381,7 +2421,7 @@
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -2390,20 +2430,20 @@
         <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="5">
         <v>11</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2411,39 +2451,39 @@
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="9">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="5">
         <v>12.367123287671232</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -2452,20 +2492,20 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H30" s="5">
         <v>13.561643835616438</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2473,7 +2513,7 @@
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>39</v>
@@ -2482,37 +2522,37 @@
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="5">
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2525,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2533,7 +2573,7 @@
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>33</v>
@@ -2542,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2555,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2563,93 +2603,93 @@
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="9">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" s="5">
         <v>16.117808219178084</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" s="9">
         <v>10</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H35" s="5">
         <v>18.246575342465754</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="9">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="5">
         <v>18.449315068493149</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2657,29 +2697,29 @@
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H37" s="5">
         <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2687,7 +2727,7 @@
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>35</v>
@@ -2696,20 +2736,20 @@
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="5">
         <v>19</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2717,7 +2757,7 @@
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>36</v>
@@ -2726,20 +2766,20 @@
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H39" s="5">
         <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2747,7 +2787,7 @@
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>44</v>
@@ -2756,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2769,7 +2809,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2777,39 +2817,39 @@
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H41" s="5">
         <v>17.334246575342465</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>25</v>
@@ -2825,13 +2865,13 @@
         <v>DIG600</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H42" s="5">
         <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2839,7 +2879,7 @@
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>22</v>
@@ -2855,13 +2895,13 @@
         <v>DIG060</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H43" s="5">
         <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2869,7 +2909,7 @@
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>34</v>
@@ -2878,20 +2918,20 @@
         <v>10</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" s="5">
         <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2899,7 +2939,7 @@
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>29</v>
@@ -2908,170 +2948,170 @@
         <v>10</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H45" s="5">
         <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="10">
         <v>10</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H46" s="5">
         <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" s="5">
         <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H48" s="5">
         <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="10">
         <v>10</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="5">
         <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C50" s="9">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H50" s="5">
         <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3079,48 +3119,48 @@
     </row>
     <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H51" s="5">
         <v>19.767123287671232</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3133,81 +3173,81 @@
         <v>190</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="9">
         <v>10</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H53" s="5">
         <v>21.997260273972604</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54" s="9">
         <v>10</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H54" s="5">
         <v>26.863013698630137</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>10</v>
@@ -3216,20 +3256,20 @@
         <v>10</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H55" s="5">
         <v>26.964383561643835</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3237,29 +3277,29 @@
     </row>
     <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="10">
         <v>10</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H56" s="5">
         <v>28</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3267,7 +3307,7 @@
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>45</v>
@@ -3276,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3289,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3297,7 +3337,7 @@
     </row>
     <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>23</v>
@@ -3306,20 +3346,20 @@
         <v>0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58" s="5">
         <v>10</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3327,7 +3367,7 @@
     </row>
     <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>32</v>
@@ -3336,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3346,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3354,16 +3394,16 @@
     </row>
     <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="10">
         <v>0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3376,7 +3416,7 @@
         <v>125</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3384,16 +3424,16 @@
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="10">
         <v>0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3406,7 +3446,7 @@
         <v>165</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -3414,10 +3454,10 @@
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="10">
         <v>10</v>
@@ -3430,13 +3470,13 @@
         <v>DIG060</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H62" s="5">
         <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3444,29 +3484,29 @@
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="10">
         <v>10</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG900</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="5">
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3474,42 +3514,42 @@
     </row>
     <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H64" s="5">
         <v>73</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="10">
         <v>0</v>
@@ -3526,10 +3566,10 @@
     </row>
     <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="10">
         <v>0</v>
@@ -3541,7 +3581,7 @@
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -3549,29 +3589,29 @@
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C67" s="9">
         <v>10</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="5">
         <v>28</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3579,16 +3619,16 @@
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C68" s="9">
         <v>10</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3601,7 +3641,7 @@
         <v>28</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3609,42 +3649,42 @@
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="9">
         <v>10</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H69" s="5">
         <v>29.194520547945206</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="10">
         <v>0</v>
@@ -3663,7 +3703,7 @@
         <v>100</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3671,48 +3711,48 @@
     </row>
     <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="9">
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71" s="5">
         <v>32.945205479452056</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="9">
         <v>10</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F72" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3725,7 +3765,7 @@
         <v>37</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3733,10 +3773,10 @@
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="10">
         <v>10</v>
@@ -3749,13 +3789,13 @@
         <v>DIG060</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73" s="5">
         <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3763,10 +3803,10 @@
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
@@ -3786,16 +3826,16 @@
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
@@ -3808,23 +3848,23 @@
         <v>DIG200</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" s="5">
         <v>453</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
@@ -3844,16 +3884,16 @@
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -3866,23 +3906,23 @@
         <v>DIG200</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H77" s="5">
         <v>286</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -3902,16 +3942,16 @@
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -3924,23 +3964,23 @@
         <v>DIG200</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H79" s="5">
         <v>350</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -3960,16 +4000,16 @@
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -3989,16 +4029,16 @@
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L81" s="4"/>
     </row>
     <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
@@ -4018,16 +4058,16 @@
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L82" s="4"/>
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="10">
         <v>0</v>
@@ -4040,23 +4080,23 @@
         <v>DIG200</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H83" s="5">
         <v>222</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
@@ -4076,16 +4116,16 @@
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
@@ -4098,20 +4138,20 @@
         <v>DIG200</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" s="5">
         <v>259</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>29</v>
@@ -4120,20 +4160,20 @@
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H86" s="5">
         <v>37</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4141,16 +4181,16 @@
     </row>
     <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="9">
         <v>10</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4163,7 +4203,7 @@
         <v>37</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
@@ -4171,29 +4211,29 @@
     </row>
     <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="10">
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG090</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H88" s="5">
         <v>37</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4201,29 +4241,29 @@
     </row>
     <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="10">
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG090</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H89" s="5">
         <v>37</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4231,29 +4271,29 @@
     </row>
     <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="5">
         <v>37</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4261,29 +4301,29 @@
     </row>
     <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" s="9">
         <v>10</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F91" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H91" s="5">
         <v>40.328767123287676</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4291,7 +4331,7 @@
     </row>
     <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>10</v>
@@ -4300,20 +4340,20 @@
         <v>10</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H92" s="5">
         <v>46</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="4"/>
@@ -4321,7 +4361,7 @@
     </row>
     <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>11</v>
@@ -4330,20 +4370,20 @@
         <v>10</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H93" s="5">
         <v>46</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="4"/>
@@ -4351,7 +4391,7 @@
     </row>
     <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>16</v>
@@ -4360,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4373,26 +4413,26 @@
         <v>46</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="9">
         <v>10</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4405,17 +4445,17 @@
         <v>46</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>13</v>
@@ -4424,20 +4464,20 @@
         <v>10</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H96" s="5">
         <v>46</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="4"/>
@@ -4445,7 +4485,7 @@
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>19</v>
@@ -4454,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4467,7 +4507,7 @@
         <v>46</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4475,29 +4515,29 @@
     </row>
     <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" s="9">
         <v>10</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H98" s="5">
         <v>46</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4505,7 +4545,7 @@
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>17</v>
@@ -4514,20 +4554,20 @@
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H99" s="5">
         <v>55</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="4"/>
@@ -4535,7 +4575,7 @@
     </row>
     <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
@@ -4544,20 +4584,20 @@
         <v>10</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F100" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H100" s="5">
         <v>55</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -4565,29 +4605,29 @@
     </row>
     <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="9">
         <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H101" s="5">
         <v>55</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -4595,29 +4635,29 @@
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C102" s="9">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" s="5">
         <v>55</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -4625,7 +4665,7 @@
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>11</v>
@@ -4634,20 +4674,20 @@
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H103" s="5">
         <v>63.643835616438359</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -4655,7 +4695,7 @@
     </row>
     <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>13</v>
@@ -4664,20 +4704,20 @@
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H104" s="5">
         <v>69.235616438356161</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -4685,39 +4725,39 @@
     </row>
     <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" s="9">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H105" s="5">
         <v>71.769863013698625</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>29</v>
@@ -4726,20 +4766,20 @@
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H106" s="5">
         <v>73</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -4747,16 +4787,16 @@
     </row>
     <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C107" s="9">
         <v>10</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4769,39 +4809,39 @@
         <v>73</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="9">
         <v>10</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H108" s="5">
         <v>73</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -4809,29 +4849,29 @@
     </row>
     <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C109" s="9">
         <v>10</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H109" s="5">
         <v>73</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -4839,7 +4879,7 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>24</v>
@@ -4855,43 +4895,43 @@
         <v>DIG600</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H110" s="5">
         <v>80</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" s="10">
         <v>2</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H111" s="5">
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -4899,29 +4939,29 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="9">
         <v>10</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H112" s="5">
         <v>91</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="4"/>
@@ -4929,59 +4969,59 @@
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="9">
         <v>10</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H113" s="5">
         <v>91</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C114" s="10">
         <v>2</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F114" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -4989,29 +5029,29 @@
     </row>
     <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C115" s="9">
         <v>10</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H115" s="5">
         <v>100</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -5019,37 +5059,37 @@
     </row>
     <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C116" s="9">
         <v>10</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H116" s="5">
         <v>100</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>23</v>
@@ -5058,20 +5098,20 @@
         <v>10</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H117" s="5">
         <v>100</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -5079,29 +5119,29 @@
     </row>
     <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="9">
         <v>10</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H118" s="5">
         <v>100.55890410958904</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -5109,29 +5149,29 @@
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="9">
         <v>10</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F119" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H119" s="5">
         <v>136</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -5139,29 +5179,29 @@
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" s="9">
         <v>10</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F120" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H120" s="5">
         <v>145</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -5169,29 +5209,29 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="9">
         <v>10</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F121" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H121" s="5">
         <v>172</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="4"/>
@@ -5199,29 +5239,29 @@
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122" s="9">
         <v>10</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H122" s="5">
         <v>190</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="4"/>
@@ -5229,16 +5269,16 @@
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" s="9">
         <v>10</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F123" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5251,41 +5291,41 @@
         <v>254</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="10">
         <v>10</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F124" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H124" s="5">
         <v>295</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -5293,82 +5333,82 @@
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="9">
         <v>10</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F125" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H125" s="5">
         <v>318</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="9">
         <v>10</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F126" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H126" s="5">
         <v>361</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127" s="9">
         <v>10</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F127" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5381,82 +5421,172 @@
         <v>368</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C128" s="9">
         <v>10</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F128" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H128" s="5">
         <v>370</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C129" s="9">
         <v>2</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F129" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H129" s="5">
         <v>0</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" s="9">
+        <v>4</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG80</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H130" s="5">
+        <v>10</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H131" s="5">
+        <v>30</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="9">
+        <v>10</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H132" s="5">
+        <v>60</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C129">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C132">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53229A5F-ABC9-4FE7-AE37-523FCC09EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804D355-56D2-42AF-AE4A-5FA23D044EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="273">
   <si>
     <t>CODIGO</t>
   </si>
@@ -833,12 +833,6 @@
     <t>https://www.01net.com/es/app/uploads/2024/03/Opiniones-de-Kaspersky-VPN.jpg</t>
   </si>
   <si>
-    <t>🤖 Sucripcion x 30 dias. Cuentas Nuevas</t>
-  </si>
-  <si>
-    <t>🤖 Sucripcion x 30 dias. Con tu correo</t>
-  </si>
-  <si>
     <t>Youtube Premium + Music  (Familia x5)</t>
   </si>
   <si>
@@ -846,6 +840,18 @@
   </si>
   <si>
     <t>Youtube Premium + Music (x2)</t>
+  </si>
+  <si>
+    <t>DIG0100</t>
+  </si>
+  <si>
+    <t>Youtube Premium + Music</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias.</t>
+  </si>
+  <si>
+    <t>🤖 Sucripcion x 30 dias. Solo cuentas Nuevas</t>
   </si>
 </sst>
 </file>
@@ -957,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -991,34 +997,11 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1261,8 +1244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L132" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:L132" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L133" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:L133" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="3"/>
@@ -1279,20 +1262,20 @@
     <sortCondition ref="H1:H129"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1585,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,10 +2360,10 @@
         <v>DIG010</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H26" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>109</v>
@@ -5506,7 +5489,7 @@
       <c r="E130" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="15" t="str">
+      <c r="F130" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG80</v>
       </c>
@@ -5525,10 +5508,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="7" t="s">
         <v>269</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C131" s="10">
         <v>10</v>
@@ -5536,12 +5519,12 @@
       <c r="E131" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F131" s="15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+      <c r="F131" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG0100</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H131" s="5">
         <v>30</v>
@@ -5558,7 +5541,7 @@
         <v>169</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C132" s="9">
         <v>10</v>
@@ -5566,12 +5549,12 @@
       <c r="E132" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F132" s="15" t="str">
+      <c r="F132" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H132" s="5">
         <v>60</v>
@@ -5583,10 +5566,42 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="9">
+        <v>10</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="5">
+        <v>28</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H133" s="5">
+        <v>28</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C132">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C133">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804D355-56D2-42AF-AE4A-5FA23D044EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB36F3B-827B-4725-A65B-7419A3755142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="275">
   <si>
     <t>CODIGO</t>
   </si>
@@ -852,6 +852,12 @@
   </si>
   <si>
     <t>🤖 Sucripcion x 30 dias. Solo cuentas Nuevas</t>
+  </si>
+  <si>
+    <t>Netflix - 1 Dispositivo</t>
+  </si>
+  <si>
+    <t>https://latam-green.com/wp-content/uploads/2022/02/Netflix-140222-a.jpg</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -997,11 +1003,24 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1244,8 +1263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L133" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:L133" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L134" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:L134" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="3"/>
@@ -1262,20 +1281,20 @@
     <sortCondition ref="H1:H129"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="8">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1568,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5598,10 +5617,40 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" s="9">
+        <v>10</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H134" s="5">
+        <v>12</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C133">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C134">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB36F3B-827B-4725-A65B-7419A3755142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899F492-965E-4888-B4EA-B90C3F37CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="279">
   <si>
     <t>CODIGO</t>
   </si>
@@ -854,10 +854,22 @@
     <t>🤖 Sucripcion x 30 dias. Solo cuentas Nuevas</t>
   </si>
   <si>
-    <t>Netflix - 1 Dispositivo</t>
-  </si>
-  <si>
     <t>https://latam-green.com/wp-content/uploads/2022/02/Netflix-140222-a.jpg</t>
+  </si>
+  <si>
+    <t>Netflix 4K - 1 Dispositivo</t>
+  </si>
+  <si>
+    <t>Netflix Básico</t>
+  </si>
+  <si>
+    <t>Netflix Premium</t>
+  </si>
+  <si>
+    <t>Netflix Estándar</t>
+  </si>
+  <si>
+    <t>https://media4.giphy.com/avatars/NetflixisaJoke/APDgNHsUtxbA.png</t>
   </si>
 </sst>
 </file>
@@ -1263,14 +1275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L134" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="A1:L134" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="3"/>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L137" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:L137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
       <filters>
         <filter val="STREAMING"/>
@@ -1587,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+      <selection activeCell="I135" sqref="I135:I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,7 +4915,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>169</v>
       </c>
@@ -4999,7 +5005,7 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>199</v>
       </c>
@@ -5587,9 +5593,9 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B133" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C133" s="9">
@@ -5621,8 +5627,8 @@
       <c r="A134" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>273</v>
+      <c r="B134" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C134" s="9">
         <v>10</v>
@@ -5641,15 +5647,108 @@
         <v>12</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="9">
+        <v>10</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F135" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135" s="5">
+        <f>28.9*1.1</f>
+        <v>31.790000000000003</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="9">
+        <v>10</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F136" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H136" s="5">
+        <f>40.9*1.1</f>
+        <v>44.99</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="9">
+        <v>10</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="15" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H137" s="5">
+        <f>52.9*1.1</f>
+        <v>58.190000000000005</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C134">
+  <conditionalFormatting sqref="C2:C137">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899F492-965E-4888-B4EA-B90C3F37CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0646F7-5303-4799-8292-636324EF626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1014,25 +1014,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1275,32 +1264,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L137" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L137" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="A1:L137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
       <filters>
-        <filter val="STREAMING"/>
+        <filter val="ANTIVIRUS"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L128">
-    <sortCondition ref="H1:H129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L131">
+    <sortCondition ref="B1:B137"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1595,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135:I137"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,27 +1641,29 @@
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>169</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1680,116 +1671,119 @@
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>199</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG1000</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>242</v>
+      <c r="I3" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="10">
+        <v>197</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG800</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="5">
-        <v>485</v>
+      <c r="I4" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="5">
-        <v>382</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="10">
-        <v>10</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>234</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="H6" s="5">
-        <v>5</v>
+        <v>26.964383561643835</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1797,52 +1791,50 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="9">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>226</v>
+        <v>DIG200</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H7" s="5">
-        <v>9.7315068493150676</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG300</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>234</v>
@@ -1851,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1859,29 +1851,29 @@
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>219</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>59</v>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG300</v>
+        <v>DIG017</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5">
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1889,10 +1881,10 @@
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -1902,7 +1894,7 @@
       </c>
       <c r="F10" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG017</v>
+        <v>DIG018</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>61</v>
@@ -1911,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1922,7 +1914,7 @@
         <v>220</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -1941,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1949,29 +1941,29 @@
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
+      <c r="E12" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
+        <v>DIG080</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1982,7 +1974,7 @@
         <v>224</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -2001,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2012,7 +2004,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -2031,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2042,7 +2034,7 @@
         <v>224</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -2061,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2072,7 +2064,7 @@
         <v>224</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -2091,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2102,7 +2094,7 @@
         <v>224</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -2121,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2129,20 +2121,20 @@
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>234</v>
@@ -2151,18 +2143,18 @@
         <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>65</v>
+        <v>199</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -2172,7 +2164,7 @@
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>234</v>
@@ -2181,18 +2173,18 @@
         <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -2211,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2219,40 +2211,40 @@
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
+        <v>199</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="10">
+        <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG1000</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="H21" s="5">
-        <v>55</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>169</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -2262,7 +2254,7 @@
       </c>
       <c r="F22" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG010</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>234</v>
@@ -2271,18 +2263,18 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>169</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -2292,7 +2284,7 @@
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG010</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>234</v>
@@ -2301,18 +2293,18 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -2325,34 +2317,34 @@
         <v>DIG010</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="10">
+        <v>233</v>
+      </c>
+      <c r="C25" s="9">
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG800</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>234</v>
@@ -2361,37 +2353,37 @@
         <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>270</v>
+        <v>163</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="10">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG111</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="H26" s="5">
         <v>10</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2399,20 +2391,20 @@
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>233</v>
+        <v>263</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C27" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG80</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>234</v>
@@ -2421,18 +2413,18 @@
         <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9">
         <v>10</v>
@@ -2444,57 +2436,55 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>242</v>
+      <c r="G28" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H28" s="5">
-        <v>11</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C29" s="9">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>227</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="H29" s="5">
-        <v>12.367123287671232</v>
+        <v>12</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>169</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="C30" s="9">
         <v>10</v>
@@ -2504,46 +2494,46 @@
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>242</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H30" s="5">
-        <v>13.561643835616438</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="10">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>92</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="H31" s="5">
-        <v>15</v>
+        <v>63.643835616438359</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2551,29 +2541,29 @@
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>106</v>
+        <v>223</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H32" s="5">
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2581,20 +2571,20 @@
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG040</v>
+        <v>DIG080</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>12</v>
@@ -2603,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2611,42 +2601,40 @@
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="9">
+        <v>221</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>228</v>
+        <v>DIG040</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H34" s="5">
-        <v>16.117808219178084</v>
+        <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="9">
         <v>10</v>
@@ -2656,29 +2644,27 @@
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>206</v>
+        <v>DIG010</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H35" s="5">
-        <v>18.246575342465754</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="C36" s="9">
         <v>10</v>
@@ -2690,76 +2676,76 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>243</v>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H36" s="5">
-        <v>18.449315068493149</v>
+        <v>37</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="10">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="5">
         <v>55</v>
       </c>
-      <c r="F37" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" s="5">
-        <v>19</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="4"/>
+      <c r="I37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="10">
+        <v>169</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="9">
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG010</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="H38" s="5">
-        <v>19</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
@@ -2768,7 +2754,7 @@
         <v>178</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -2781,13 +2767,13 @@
         <v>DIG020</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="H39" s="5">
         <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2795,29 +2781,29 @@
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG200</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H40" s="5">
         <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2825,61 +2811,59 @@
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="9">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="10">
+        <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>205</v>
+        <v>DIG020</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H41" s="5">
-        <v>17.334246575342465</v>
+        <v>19</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C42" s="10">
         <v>10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F42" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG500</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="H42" s="5">
         <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2887,10 +2871,10 @@
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
+        <v>196</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C43" s="10">
         <v>10</v>
@@ -2900,7 +2884,7 @@
       </c>
       <c r="F43" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG600</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>234</v>
@@ -2909,7 +2893,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2917,29 +2901,29 @@
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>222</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C44" s="10">
         <v>10</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG060</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="H44" s="5">
         <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2950,7 +2934,7 @@
         <v>223</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="10">
         <v>10</v>
@@ -2963,13 +2947,13 @@
         <v>DIG070</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="H45" s="5">
         <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2977,29 +2961,29 @@
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>162</v>
+        <v>223</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C46" s="10">
         <v>10</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG070</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="H46" s="5">
         <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3007,10 +2991,10 @@
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>224</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
@@ -3020,16 +3004,16 @@
       </c>
       <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG080</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="H47" s="5">
         <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3040,7 +3024,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
@@ -3059,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3070,7 +3054,7 @@
         <v>197</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C49" s="10">
         <v>10</v>
@@ -3089,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3097,12 +3081,12 @@
     </row>
     <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="9">
+        <v>197</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="10">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -3110,16 +3094,16 @@
       </c>
       <c r="F50" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG800</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="H50" s="5">
         <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3127,77 +3111,70 @@
     </row>
     <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="F51" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>207</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H51" s="5">
-        <v>19.767123287671232</v>
+        <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="9">
+        <v>32</v>
+      </c>
+      <c r="C52" s="10">
         <v>0</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>191</v>
+      <c r="E52" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>12</v>
+        <v>DIG131</v>
       </c>
       <c r="H52" s="5">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C53" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>191</v>
@@ -3207,13 +3184,13 @@
         <v>DIG100</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H53" s="5">
-        <v>21.997260273972604</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3221,12 +3198,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="C54" s="9">
         <v>10</v>
@@ -3238,27 +3215,29 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>209</v>
+      <c r="G54" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H54" s="5">
-        <v>26.863013698630137</v>
+        <v>254</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L54" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="C55" s="9">
         <v>10</v>
@@ -3270,74 +3249,82 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>236</v>
+      <c r="G55" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H55" s="5">
-        <v>26.964383561643835</v>
+        <v>368</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="10">
+        <v>169</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="9">
         <v>10</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG010</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="H56" s="5">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C57" s="10">
         <v>10</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG500</v>
+        <v>DIG200</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H57" s="5">
         <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3345,29 +3332,29 @@
     </row>
     <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F58" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG111</v>
+        <v>DIG500</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H58" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3375,26 +3362,29 @@
     </row>
     <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>32</v>
+        <v>222</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F59" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG131</v>
+        <v>DIG060</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="H59" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3402,29 +3392,29 @@
     </row>
     <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
+        <v>DIG900</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="H60" s="5">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3432,29 +3422,29 @@
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="10">
-        <v>0</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>57</v>
+        <v>248</v>
+      </c>
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
+        <v>DIG700</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H61" s="5">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -3462,29 +3452,29 @@
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="10">
+        <v>256</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="9">
         <v>10</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F62" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG90</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="H62" s="5">
         <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3492,40 +3482,42 @@
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="10">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="9">
+        <v>10</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG900</v>
+        <v>56</v>
+      </c>
+      <c r="F63" s="5">
+        <v>28</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="H63" s="5">
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3537,16 +3529,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>118</v>
+      <c r="G64" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="H64" s="5">
-        <v>73</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J64" s="2"/>
+        <v>18.246575342465754</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
         <v>247</v>
@@ -3554,170 +3546,190 @@
     </row>
     <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="F65" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG183</v>
-      </c>
-      <c r="H65" s="5"/>
+        <v>DIG0100</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" s="5">
+        <v>30</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="9">
+        <v>10</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="F66" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG184</v>
-      </c>
-      <c r="H66" s="5"/>
+        <v>DIG010</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" s="5">
+        <f>28.9*1.1</f>
+        <v>31.790000000000003</v>
+      </c>
       <c r="I66" s="4" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C67" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>92</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="H67" s="5">
-        <v>28</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="C68" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG90</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>12</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="H68" s="5">
-        <v>28</v>
+        <v>21.997260273972604</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="L68" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="9">
+        <v>222</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="10">
         <v>10</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>210</v>
+        <v>DIG060</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H69" s="5">
-        <v>29.194520547945206</v>
+        <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="C70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG070</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H70" s="5">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>193</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>201</v>
       </c>
       <c r="C71" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>191</v>
@@ -3735,10 +3747,10 @@
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H71" s="5">
-        <v>32.945205479452056</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>190</v>
@@ -3751,29 +3763,29 @@
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="9">
+        <v>225</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="10">
         <v>10</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="F72" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG090</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="H72" s="5">
         <v>37</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3781,29 +3793,29 @@
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C73" s="10">
         <v>10</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F73" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
+        <v>DIG090</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="H73" s="5">
         <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3811,391 +3823,426 @@
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="10">
+        <v>249</v>
+      </c>
+      <c r="C74" s="9">
+        <v>10</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG700</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="5">
+        <v>37</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="9">
         <v>0</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="5">
-        <v>226</v>
-      </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>20</v>
+      <c r="E75" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="F75" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>118</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="H75" s="5">
-        <v>453</v>
+        <v>16.117808219178084</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="J75" s="4"/>
-      <c r="K75" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="10">
+        <v>169</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="9">
+        <v>10</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H76" s="5">
+        <f>40.9*1.1</f>
+        <v>44.99</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="9">
         <v>0</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="5">
-        <v>143</v>
-      </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="10">
+      <c r="E77" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H77" s="5">
+        <v>71.769863013698625</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="9">
         <v>0</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H77" s="5">
-        <v>286</v>
-      </c>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="10">
+      <c r="E78" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" s="5">
+        <v>19.767123287671232</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="9">
         <v>0</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="5">
-        <v>175</v>
-      </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="10">
+      <c r="E79" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" s="5">
+        <v>29.194520547945206</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="9">
         <v>0</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H79" s="5">
-        <v>350</v>
-      </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="10">
+      <c r="E80" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H80" s="5">
+        <v>32.945205479452056</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="9">
         <v>0</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="5">
-        <v>159</v>
-      </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="10">
-        <v>0</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>20</v>
+      <c r="E81" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="F81" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>12</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="H81" s="5">
+        <v>26.863013698630137</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="9">
+        <v>10</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="10">
-        <v>0</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="F82" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="5">
-        <v>111</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="10">
+        <v>174</v>
+      </c>
+      <c r="C83" s="9">
+        <v>10</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="5">
+        <v>46</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="9">
         <v>0</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H83" s="5">
-        <v>222</v>
-      </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="10">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>20</v>
+      <c r="E84" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="5">
-        <v>143</v>
+        <v>190</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="J84" s="4"/>
-      <c r="K84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="10">
-        <v>0</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>20</v>
+        <v>245</v>
+      </c>
+      <c r="C85" s="9">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>118</v>
       </c>
       <c r="H85" s="5">
-        <v>259</v>
+        <v>370</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="J85" s="4"/>
-      <c r="K85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="10">
+        <v>171</v>
+      </c>
+      <c r="C86" s="9">
         <v>10</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG100</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H86" s="5">
-        <v>37</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J86" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" s="2"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C87" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>191</v>
@@ -4205,43 +4252,45 @@
         <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="H87" s="5">
-        <v>37</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="L87" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="10">
+        <v>251</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="9">
         <v>10</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG700</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="H88" s="5">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4249,29 +4298,30 @@
     </row>
     <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="10">
+        <v>276</v>
+      </c>
+      <c r="C89" s="9">
         <v>10</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG090</v>
+        <v>DIG010</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="H89" s="5">
-        <v>37</v>
+        <f>52.9*1.1</f>
+        <v>58.190000000000005</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4279,35 +4329,35 @@
     </row>
     <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>249</v>
+        <v>169</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
+        <v>DIG010</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="H90" s="5">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>193</v>
       </c>
@@ -4315,7 +4365,7 @@
         <v>115</v>
       </c>
       <c r="C91" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>191</v>
@@ -4337,15 +4387,15 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C92" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>191</v>
@@ -4354,25 +4404,25 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>235</v>
+      <c r="G92" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="H92" s="5">
-        <v>46</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J92" s="2"/>
+        <v>100.55890410958904</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C93" s="9">
         <v>10</v>
@@ -4382,30 +4432,30 @@
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG100</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H93" s="5">
-        <v>46</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C94" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>191</v>
@@ -4414,54 +4464,50 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>12</v>
+      <c r="G94" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="H94" s="5">
-        <v>46</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J94" s="2"/>
+        <v>69.235616438356161</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="9">
+        <v>29</v>
+      </c>
+      <c r="C95" s="10">
         <v>10</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG070</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="H95" s="5">
-        <v>46</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J95" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>193</v>
       </c>
@@ -4491,15 +4537,15 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C97" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>191</v>
@@ -4508,25 +4554,25 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>12</v>
+      <c r="G97" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="H97" s="5">
-        <v>46</v>
+        <v>13.561643835616438</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C98" s="9">
         <v>10</v>
@@ -4542,51 +4588,51 @@
         <v>235</v>
       </c>
       <c r="H98" s="5">
-        <v>46</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J98" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J98" s="2"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="9">
+        <v>24</v>
+      </c>
+      <c r="C99" s="10">
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG600</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H99" s="5">
-        <v>55</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J99" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="C100" s="9">
         <v>10</v>
@@ -4602,21 +4648,21 @@
         <v>235</v>
       </c>
       <c r="H100" s="5">
-        <v>55</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J100" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J100" s="2"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>169</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="C101" s="9">
         <v>10</v>
@@ -4629,54 +4675,56 @@
         <v>DIG010</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H101" s="5">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C102" s="9">
-        <v>10</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="C102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG700</v>
+        <v>DIG200</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H102" s="5">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C103" s="9">
         <v>10</v>
@@ -4686,27 +4734,27 @@
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>237</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H103" s="5">
-        <v>63.643835616438359</v>
+        <v>46</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C104" s="9">
         <v>10</v>
@@ -4718,14 +4766,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G104" s="13" t="s">
-        <v>241</v>
+      <c r="G104" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H104" s="5">
-        <v>69.235616438356161</v>
+        <v>73</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -4733,61 +4781,59 @@
     </row>
     <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="9">
+        <v>224</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="10">
         <v>10</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>203</v>
+        <v>DIG080</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H105" s="5">
-        <v>71.769863013698625</v>
+        <v>100</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" s="10">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C106" s="9">
+        <v>0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG100</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H106" s="5">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -4795,72 +4841,69 @@
     </row>
     <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="9">
-        <v>10</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>191</v>
+        <v>116</v>
+      </c>
+      <c r="C107" s="10">
+        <v>0</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="5">
-        <v>73</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="9">
-        <v>10</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>191</v>
+        <v>145</v>
+      </c>
+      <c r="C108" s="10">
+        <v>0</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG158</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H108" s="5">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="C109" s="9">
         <v>10</v>
@@ -4873,13 +4916,13 @@
         <v>DIG100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H109" s="5">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -4887,70 +4930,68 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C110" s="10">
-        <v>10</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG600</v>
+        <v>DIG200</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="H110" s="5">
-        <v>80</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="5">
+        <v>143</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C111" s="10">
-        <v>2</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H111" s="5">
-        <v>0</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>130</v>
+      <c r="B112" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C112" s="9">
         <v>10</v>
@@ -4960,106 +5001,105 @@
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>235</v>
       </c>
       <c r="H112" s="5">
+        <v>100</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J112" s="2"/>
+      <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C113" s="9">
-        <v>10</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG200</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="H113" s="5">
-        <v>91</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="C114" s="10">
-        <v>2</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F114" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG1000</v>
+        <v>DIG162</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="H114" s="5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>137</v>
+        <v>193</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C115" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>191</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>235</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="H115" s="5">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -5067,70 +5107,69 @@
     </row>
     <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="10">
+        <v>0</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="5">
+        <v>175</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="9">
-        <v>10</v>
-      </c>
-      <c r="E116" s="9" t="s">
+      <c r="C117" s="9">
+        <v>0</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F116" s="9" t="str">
+      <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H116" s="5">
-        <v>100</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="10">
-        <v>10</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F117" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>235</v>
+      <c r="G117" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="H117" s="5">
-        <v>100</v>
+        <v>18.449315068493149</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C118" s="9">
         <v>10</v>
@@ -5142,14 +5181,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>204</v>
+      <c r="G118" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H118" s="5">
-        <v>100.55890410958904</v>
+        <v>46</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -5157,130 +5196,126 @@
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="9">
-        <v>10</v>
-      </c>
-      <c r="E119" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="10">
+        <v>0</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="5">
         <v>191</v>
       </c>
-      <c r="F119" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H119" s="5">
-        <v>136</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
+      <c r="K119" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="9">
-        <v>10</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>191</v>
+        <v>116</v>
+      </c>
+      <c r="C120" s="10">
+        <v>0</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F120" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>244</v>
+        <v>DIG200</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="H120" s="5">
-        <v>145</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
+      <c r="K120" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="9">
-        <v>10</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="10">
+        <v>0</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F121" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG200</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H121" s="5">
-        <v>172</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J121" s="2"/>
-      <c r="K121" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="9">
-        <v>10</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>191</v>
+        <v>125</v>
+      </c>
+      <c r="C122" s="10">
+        <v>0</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F122" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG020</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H122" s="5">
-        <v>190</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J122" s="2"/>
-      <c r="K122" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C123" s="9">
         <v>10</v>
@@ -5293,77 +5328,69 @@
         <v>DIG100</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="H123" s="5">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="J123" s="4"/>
-      <c r="K123" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C124" s="10">
-        <v>10</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>192</v>
+        <v>0</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F124" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
+        <v>DIG200</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="H124" s="5">
-        <v>295</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
+      <c r="K124" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L124" s="4"/>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="9">
-        <v>10</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="10">
+        <v>0</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F125" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG200</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="H125" s="5">
-        <v>318</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
@@ -5373,44 +5400,40 @@
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" s="9">
+        <v>223</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="10">
         <v>10</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F126" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG070</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>235</v>
       </c>
       <c r="H126" s="5">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J126" s="4"/>
-      <c r="K126" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>127</v>
+      <c r="B127" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C127" s="9">
         <v>10</v>
@@ -5423,109 +5446,102 @@
         <v>DIG100</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="H127" s="5">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="J127" s="4"/>
-      <c r="K127" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="9">
-        <v>10</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>191</v>
+        <v>121</v>
+      </c>
+      <c r="C128" s="10">
+        <v>0</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F128" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>118</v>
       </c>
       <c r="H128" s="5">
-        <v>370</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K128" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>260</v>
+        <v>169</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C129" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="F129" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG800</v>
+        <v>DIG010</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H129" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>264</v>
+        <v>169</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="C130" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="F130" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG80</v>
+        <v>DIG010</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H130" s="5">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -5533,214 +5549,187 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" s="10">
+        <v>169</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="9">
         <v>10</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="F131" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG0100</v>
+        <v>DIG010</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="H131" s="5">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" s="9">
-        <v>10</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>56</v>
+        <v>124</v>
+      </c>
+      <c r="C132" s="10">
+        <v>0</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F132" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG020</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="H132" s="5">
-        <v>60</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>109</v>
+        <v>382</v>
       </c>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="K132" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C133" s="9">
-        <v>10</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F133" s="5">
-        <v>28</v>
+        <v>177</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="10">
+        <v>0</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="H133" s="5">
-        <v>28</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="K133" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C134" s="9">
-        <v>10</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F134" s="15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>125</v>
+      </c>
+      <c r="C134" s="10">
+        <v>0</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="H134" s="5">
+        <v>485</v>
+      </c>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG020</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I134" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" s="9">
-        <v>10</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F135" s="15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H135" s="5">
-        <f>28.9*1.1</f>
-        <v>31.790000000000003</v>
-      </c>
+      <c r="H135" s="5"/>
       <c r="I135" s="4" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136" s="9">
-        <v>10</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F136" s="15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H136" s="5">
-        <f>40.9*1.1</f>
-        <v>44.99</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>278</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG183</v>
+      </c>
+      <c r="H136" s="5"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" s="9">
-        <v>10</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F137" s="15" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H137" s="5">
-        <f>52.9*1.1</f>
-        <v>58.190000000000005</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" s="10">
+        <v>0</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG184</v>
+      </c>
+      <c r="H137" s="5"/>
       <c r="I137" s="4" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -5749,7 +5738,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:C137">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0646F7-5303-4799-8292-636324EF626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F25C6-AC92-427E-8924-FDD2FD855001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="280">
   <si>
     <t>CODIGO</t>
   </si>
@@ -44,9 +44,6 @@
     <t>STOCK</t>
   </si>
   <si>
-    <t>PRECIO $</t>
-  </si>
-  <si>
     <t>MARCA</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Kaspersky Internet Security</t>
   </si>
   <si>
-    <t>Kaspersky Total Security</t>
-  </si>
-  <si>
-    <t>Bitdefender Total Security</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eset NOD32 Antivirus </t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Kaspersky Premium</t>
   </si>
   <si>
-    <t>Kaspersky Standard</t>
-  </si>
-  <si>
     <t>SEGURIDAD</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>https://antiviruslicensekey.co.uk/wp-content/uploads/2022/03/avg-ultimate-protection.jpg</t>
   </si>
   <si>
-    <t>https://www.clavecd.es/wp-content/uploads/buy-bitdefender-total-security-cd-key-pc-download-img1.jpg</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSj5hUeEgjDre6B5CUOQInUKhWkckg_NxAj7Q&amp;s</t>
   </si>
   <si>
@@ -323,9 +308,6 @@
     <t>https://static.labeb.com/test/images/catalogs/193244/4d03tna5ler-w1920.jpg</t>
   </si>
   <si>
-    <t>https://www.dealsplant.com/cdn/shop/products/kaspersky-anti-virus-softwares-kaspersky-anti-virus-latest-version-1-user-3-years-code-emailed-in-2-hours-no-cd-28321332428875.jpg</t>
-  </si>
-  <si>
     <t>https://www.trelogy.pe/wp-content/uploads/2023/09/visio-pro-2021.png</t>
   </si>
   <si>
@@ -413,21 +395,9 @@
     <t>Kaspersky Premium x10</t>
   </si>
   <si>
-    <t>ESET Home Security Essential x10</t>
-  </si>
-  <si>
-    <t>ESET Home Security Premium x10</t>
-  </si>
-  <si>
     <t>https://licenciascol.com/cdn/shop/files/OneDrive.jpg</t>
   </si>
   <si>
-    <t>Kaspersky Standard x2</t>
-  </si>
-  <si>
-    <t>Kaspersky Plus x2</t>
-  </si>
-  <si>
     <t>https://giftcardoferta.com/tienda/wp-content/uploads/2022/07/Microsoft-orbit.png</t>
   </si>
   <si>
@@ -440,15 +410,9 @@
     <t>https://oechsle.vteximg.com.br/arquivos/ids/14341821-1000-1000/image-78abee6017a64318874246d7bbaec3d9.jpg</t>
   </si>
   <si>
-    <t>ESET Home Security Ultimate x5</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81-Ee4V3nnL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
-    <t>Kaspersky VPN x5</t>
-  </si>
-  <si>
     <t>https://buysalesbd.com/public/uploads/all/LaKp1XRWpOYtxF6zQwPw5SmKctHYuhms6HEJa2WV.webp</t>
   </si>
   <si>
@@ -548,9 +512,6 @@
     <t>Bitdefender Antivirus Plus x3</t>
   </si>
   <si>
-    <t>Eset NOD32 Antivirus x2</t>
-  </si>
-  <si>
     <t>https://digitalkeysoftware.com/wp-content/uploads/2022/11/eset-antivirus-1-user-2-year-main-image-600x744.jpg</t>
   </si>
   <si>
@@ -581,15 +542,9 @@
     <t>https://m.media-amazon.com/images/I/61Y4-isk9CL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
-    <t>McAfee Total Security</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61NqEtj66PL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
-    <t>Bitdefender Total Security x5</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61hLLPYZVgL._UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
@@ -635,9 +590,6 @@
     <t>DIG1000</t>
   </si>
   <si>
-    <t>AVG Internet Security x10</t>
-  </si>
-  <si>
     <t>Eset NOD32 Antivirus</t>
   </si>
   <si>
@@ -770,15 +722,9 @@
     <t>🤖 Expira: 04/09/2029</t>
   </si>
   <si>
-    <t>Eset NOD32 Antivirus x10</t>
-  </si>
-  <si>
     <t>EMPRESA</t>
   </si>
   <si>
-    <t>ESET</t>
-  </si>
-  <si>
     <t>Microsoft Visio Professional 2019</t>
   </si>
   <si>
@@ -870,6 +816,63 @@
   </si>
   <si>
     <t>https://media4.giphy.com/avatars/NetflixisaJoke/APDgNHsUtxbA.png</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Eset NOD32 Antivirus - 10 Equipos</t>
+  </si>
+  <si>
+    <t>ESET Home Security Essential - 10 Equipos</t>
+  </si>
+  <si>
+    <t>ESET Home Security Premium - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Standard - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Plus - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky VPN - 5 Equipos</t>
+  </si>
+  <si>
+    <t>AVG Internet Security - 10 Equipos</t>
+  </si>
+  <si>
+    <t>Bitdefender Total Security - 5 Equipos</t>
+  </si>
+  <si>
+    <t>ESET Home Security Ultimate - 5 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Premium - 3 Equipos</t>
+  </si>
+  <si>
+    <t>Bitdefender Total Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Antivirus - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Total Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Avast Premium Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>AVG Ultimate - 2 Equipos</t>
+  </si>
+  <si>
+    <t>Kaspersky Internet Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>McAfee Total Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>McAfee Internet Security - 2 Equipos</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1015,13 +1018,16 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1152,19 +1158,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1264,22 +1257,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:L137" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:L137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ANTIVIRUS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K137" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:K137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K131">
     <sortCondition ref="B1:B137"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="PRECIO $" dataDxfId="9"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FC7974D2-BFCA-4CF5-9C51-8903B6D3FE40}" name="EMPRESA" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{A77B5974-403A-44B5-B0CA-69956CDE9FE3}" name="MARCA" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO" dataDxfId="7">
       <calculatedColumnFormula>+Tabla1[[#This Row],[CODIGO]]</calculatedColumnFormula>
@@ -1289,7 +1276,6 @@
     <tableColumn id="9" xr3:uid="{3FF39CC4-8CB2-4D28-B9EE-C0B328F60771}" name="IMAGEN" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{AFA682DA-3085-48A6-B746-42DDF0A7ADBF}" name="MODAL" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{191AF3BF-553D-4A1E-A751-4CB733B9283B}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{8C2E25B3-856E-4672-9BAB-2E0D7C12C7F1}" name="EMPRESA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1582,1575 +1568,1568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>178</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H6" s="5">
         <v>26.964383561643835</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
       </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG300</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
       </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG017</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG017</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="5">
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
       </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG018</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" s="5">
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG018</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG018</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="5">
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H15" s="5">
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
       </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H17" s="5">
         <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
       </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H18" s="5">
         <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
       </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H19" s="5">
         <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
       </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
       </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG1000</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
       </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C25" s="9">
         <v>10</v>
       </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H25" s="5">
         <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C26" s="10">
         <v>0</v>
       </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG111</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H26" s="5">
         <v>10</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C27" s="9">
         <v>4</v>
       </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H27" s="5">
         <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="C28" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H28" s="5">
         <v>46</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C29" s="9">
         <v>10</v>
       </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H29" s="5">
         <v>12</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>200</v>
+        <v>157</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C30" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H30" s="5">
         <v>172</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H31" s="5">
         <v>63.643835616438359</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H32" s="5">
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
       </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="5">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
       </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F34" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG040</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="5">
         <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="C35" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H35" s="5">
         <v>46</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="5">
         <v>37</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C37" s="9">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="5">
-        <v>55</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C38" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H38" s="5">
         <v>190</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
       </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F39" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H39" s="5">
         <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
       </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F40" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H40" s="5">
         <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C41" s="10">
         <v>10</v>
       </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F41" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H41" s="5">
         <v>19</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="10">
         <v>10</v>
       </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F42" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG500</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="5">
         <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C43" s="10">
         <v>10</v>
       </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F43" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG600</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H43" s="5">
         <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C44" s="10">
         <v>10</v>
       </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG060</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H44" s="5">
         <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C45" s="10">
         <v>10</v>
       </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H45" s="5">
         <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C46" s="10">
         <v>10</v>
       </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="H46" s="5">
         <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
       </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F47" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H47" s="5">
         <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
       </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F48" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H48" s="5">
         <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C49" s="10">
         <v>10</v>
       </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F49" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H49" s="5">
         <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C50" s="10">
         <v>10</v>
       </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F50" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG800</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H50" s="5">
         <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
       </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H51" s="5">
         <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C52" s="10">
         <v>0</v>
       </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3160,2568 +3139,2539 @@
         <v>19</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
       </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H53" s="5">
         <v>17.334246575342465</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="C54" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="5">
         <v>254</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="9">
-        <v>10</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="5">
         <v>368</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L55" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="9">
-        <v>10</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H56" s="5">
         <v>361</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C57" s="10">
         <v>10</v>
       </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F57" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H57" s="5">
         <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C58" s="10">
         <v>10</v>
       </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F58" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG500</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="5">
         <v>28</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="10">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG060</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="10">
-        <v>10</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG060</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="H59" s="5">
         <v>28</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C60" s="10">
         <v>10</v>
       </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG900</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H60" s="5">
         <v>28</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C61" s="9">
         <v>10</v>
       </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H61" s="5">
         <v>28</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C62" s="9">
         <v>10</v>
       </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F62" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG90</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="5">
         <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C63" s="9">
         <v>10</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F63" s="5">
         <v>28</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H63" s="5">
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C64" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F64" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H64" s="5">
-        <v>18.246575342465754</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C65" s="10">
         <v>10</v>
       </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F65" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG0100</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H65" s="5">
         <v>30</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C66" s="9">
         <v>10</v>
       </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F66" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H66" s="5">
         <f>28.9*1.1</f>
         <v>31.790000000000003</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C67" s="9">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H67" s="5">
-        <v>12.367123287671232</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
       </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H68" s="5">
-        <v>21.997260273972604</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C69" s="10">
         <v>10</v>
       </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F69" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG060</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H69" s="5">
         <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C70" s="10">
         <v>10</v>
       </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H70" s="5">
         <v>37</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
       </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H71" s="5">
-        <v>9.7315068493150676</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="10">
         <v>10</v>
       </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG090</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H72" s="5">
         <v>37</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C73" s="10">
         <v>10</v>
       </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG090</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H73" s="5">
         <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C74" s="9">
         <v>10</v>
       </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F74" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H74" s="5">
         <v>37</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
       </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F75" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="H75" s="5">
-        <v>16.117808219178084</v>
+        <v>21.997260273972604</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C76" s="9">
         <v>10</v>
       </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F76" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H76" s="5">
         <f>40.9*1.1</f>
         <v>44.99</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
       </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F77" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H77" s="5">
-        <v>71.769863013698625</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
       </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F78" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H78" s="5">
-        <v>19.767123287671232</v>
+        <v>16.117808219178084</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
       </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG100</v>
+      </c>
+      <c r="G79" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="H79" s="5">
-        <v>29.194520547945206</v>
+        <v>19.767123287671232</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
       </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F80" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H80" s="5">
-        <v>32.945205479452056</v>
+        <v>29.194520547945206</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
       </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F81" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H81" s="5">
         <v>26.863013698630137</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F82" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" s="5">
         <v>46</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="C83" s="9">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D83" s="4"/>
       <c r="E83" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F83" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H83" s="5">
-        <v>46</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J83" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
       </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="5">
         <v>190</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C85" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="H85" s="5">
-        <v>370</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J85" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J85" s="2"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="C86" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H86" s="5">
         <v>73</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C87" s="9">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="E87" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="H87" s="5">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C88" s="9">
         <v>10</v>
       </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H88" s="5">
         <v>55</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C89" s="9">
         <v>10</v>
       </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F89" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H89" s="5">
         <f>52.9*1.1</f>
         <v>58.190000000000005</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
       </c>
+      <c r="D90" s="4"/>
       <c r="E90" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F90" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H90" s="5">
         <v>60</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C91" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F91" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H91" s="5">
         <v>40.328767123287676</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
       </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H92" s="5">
         <v>100.55890410958904</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>178</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="C93" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" s="5">
         <v>37</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="I93" s="4"/>
       <c r="J93" s="2"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>13</v>
+        <v>178</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C94" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H94" s="5">
         <v>69.235616438356161</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG070</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="10">
-        <v>10</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F95" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG070</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="H95" s="5">
         <v>73</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="C96" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4"/>
       <c r="E96" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H96" s="5">
         <v>46</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>17</v>
+        <v>178</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C97" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D97" s="4"/>
       <c r="E97" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H97" s="5">
         <v>13.561643835616438</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="C98" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D98" s="4"/>
       <c r="E98" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H98" s="5">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C99" s="10">
         <v>10</v>
       </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG600</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H99" s="5">
         <v>80</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>130</v>
+        <v>178</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C100" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D100" s="4"/>
       <c r="E100" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F100" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H100" s="5">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C101" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H101" s="5">
         <v>318</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
       </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" s="5">
         <v>100</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="C103" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D103" s="4"/>
       <c r="E103" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="H103" s="5">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>129</v>
+        <v>178</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C104" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D104" s="4"/>
       <c r="E104" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="H104" s="5">
-        <v>73</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C105" s="10">
         <v>10</v>
       </c>
+      <c r="D105" s="4"/>
       <c r="E105" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG080</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H105" s="5">
         <v>100</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
       </c>
+      <c r="D106" s="4"/>
       <c r="E106" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H106" s="5">
         <v>11</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C107" s="10">
         <v>0</v>
       </c>
+      <c r="D107" s="4"/>
       <c r="E107" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" s="5">
         <v>111</v>
       </c>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C108" s="10">
         <v>0</v>
       </c>
+      <c r="D108" s="4"/>
       <c r="E108" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG158</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" s="5">
         <v>125</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="C109" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D109" s="4"/>
       <c r="E109" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H109" s="5">
         <v>55</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C110" s="10">
         <v>0</v>
       </c>
+      <c r="D110" s="4"/>
       <c r="E110" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F110" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="5">
         <v>143</v>
       </c>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C111" s="10">
         <v>0</v>
       </c>
+      <c r="D111" s="4"/>
       <c r="E111" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" s="5">
         <v>143</v>
       </c>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" s="9">
-        <v>10</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H112" s="5">
         <v>100</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
       </c>
+      <c r="D113" s="4"/>
       <c r="E113" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="5">
         <v>159</v>
       </c>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C114" s="10">
         <v>0</v>
       </c>
+      <c r="D114" s="4"/>
       <c r="E114" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F114" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG162</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" s="5">
         <v>165</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="C115" s="9">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D115" s="4"/>
       <c r="E115" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H115" s="5">
         <v>145</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C116" s="10">
         <v>0</v>
       </c>
+      <c r="D116" s="4"/>
       <c r="E116" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H116" s="5">
         <v>175</v>
       </c>
+      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="9">
+        <v>2</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" s="9">
-        <v>0</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H117" s="5">
         <v>18.449315068493149</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C118" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D118" s="4"/>
       <c r="E118" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H118" s="5">
         <v>46</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
       </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F119" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119" s="5">
         <v>191</v>
       </c>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C120" s="10">
         <v>0</v>
       </c>
+      <c r="D120" s="4"/>
       <c r="E120" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F120" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H120" s="5">
         <v>222</v>
       </c>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C121" s="10">
         <v>0</v>
       </c>
+      <c r="D121" s="4"/>
       <c r="E121" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F121" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" s="5">
         <v>226</v>
       </c>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C122" s="10">
         <v>0</v>
       </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F122" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" s="5">
         <v>242</v>
       </c>
+      <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="9">
-        <v>10</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F123" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H123" s="5">
         <v>73</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C124" s="10">
         <v>0</v>
       </c>
+      <c r="D124" s="4"/>
       <c r="E124" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F124" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H124" s="5">
         <v>259</v>
       </c>
+      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
       </c>
+      <c r="D125" s="4"/>
       <c r="E125" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F125" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H125" s="5">
         <v>286</v>
       </c>
+      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C126" s="10">
         <v>10</v>
       </c>
+      <c r="D126" s="4"/>
       <c r="E126" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F126" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H126" s="5">
         <v>295</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C127" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D127" s="4"/>
       <c r="E127" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F127" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H127" s="5">
         <v>100</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
       </c>
+      <c r="D128" s="4"/>
       <c r="E128" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F128" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H128" s="5">
         <v>350</v>
       </c>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="9">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C129" s="9">
-        <v>10</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="F129" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H129" s="5">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C130" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D130" s="4"/>
       <c r="E130" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F130" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H130" s="5">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="9">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F131" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG010</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H131" s="5">
+        <v>55</v>
+      </c>
+      <c r="I131" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="9">
-        <v>10</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F131" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H131" s="5">
-        <v>136</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C132" s="10">
         <v>0</v>
       </c>
+      <c r="D132" s="4"/>
       <c r="E132" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F132" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H132" s="5">
         <v>382</v>
       </c>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C133" s="10">
         <v>0</v>
       </c>
+      <c r="D133" s="4"/>
       <c r="E133" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F133" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG200</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H133" s="5">
         <v>453</v>
       </c>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C134" s="10">
         <v>0</v>
       </c>
+      <c r="D134" s="4"/>
       <c r="E134" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F134" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H134" s="5">
         <v>485</v>
       </c>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C135" s="10">
         <v>0</v>
       </c>
+      <c r="D135" s="4"/>
       <c r="E135" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F135" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG020</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C136" s="10">
         <v>0</v>
       </c>
+      <c r="D136" s="4"/>
       <c r="E136" s="10"/>
       <c r="F136" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG183</v>
       </c>
       <c r="H136" s="5"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C137" s="10">
         <v>0</v>
       </c>
+      <c r="D137" s="4"/>
       <c r="E137" s="10"/>
       <c r="F137" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -5729,11 +5679,10 @@
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F25C6-AC92-427E-8924-FDD2FD855001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1760A832-FFB5-4388-A4B8-488B593D8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="285">
   <si>
     <t>CODIGO</t>
   </si>
@@ -236,9 +236,6 @@
     <t>https://expresskeys.cl/wp-content/uploads/2025/05/Revit-2026.webp</t>
   </si>
   <si>
-    <t>https://products.eneba.games/resized-products/JnDb6fsLmrz4W4IAu6Bs3imDaak4Ui6rIJBqfkzUJgk_350x200_1x-0.jpeg</t>
-  </si>
-  <si>
     <t>https://antiviruslicensekey.co.uk/wp-content/uploads/2022/03/avg-ultimate-protection.jpg</t>
   </si>
   <si>
@@ -873,6 +870,24 @@
   </si>
   <si>
     <t>McAfee Internet Security - 2 Equipos</t>
+  </si>
+  <si>
+    <t>avast</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>eset</t>
+  </si>
+  <si>
+    <t>bitdefender</t>
+  </si>
+  <si>
+    <t>kaspersky</t>
+  </si>
+  <si>
+    <t>mcafee</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1273,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K137" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <autoFilter ref="A1:K137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="avast"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ANTIVIRUS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K131">
     <sortCondition ref="B1:B137"/>
   </sortState>
@@ -1571,7 +1597,7 @@
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,8 +1622,8 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>229</v>
+      <c r="D1" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -1618,15 +1644,15 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -1640,7 +1666,7 @@
         <v>DIG010</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -1651,12 +1677,12 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -1670,23 +1696,23 @@
         <v>DIG1000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -1700,20 +1726,20 @@
         <v>DIG800</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -1730,20 +1756,20 @@
         <v>DIG200</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
@@ -1751,29 +1777,31 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="E6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="5">
         <v>26.964383561643835</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>37</v>
@@ -1790,7 +1818,7 @@
         <v>DIG200</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -1801,9 +1829,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -1820,20 +1848,20 @@
         <v>DIG300</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>22</v>
@@ -1861,9 +1889,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>23</v>
@@ -1891,9 +1919,9 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
@@ -1921,9 +1949,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1940,20 +1968,20 @@
         <v>DIG080</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
@@ -1970,20 +1998,20 @@
         <v>DIG080</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
@@ -2000,20 +2028,20 @@
         <v>DIG080</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
@@ -2030,20 +2058,20 @@
         <v>DIG080</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="5">
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
@@ -2060,23 +2088,23 @@
         <v>DIG080</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -2090,20 +2118,20 @@
         <v>DIG080</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H17" s="5">
         <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>61</v>
@@ -2120,7 +2148,7 @@
         <v>DIG010</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H18" s="5">
         <v>10</v>
@@ -2131,9 +2159,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>42</v>
@@ -2150,7 +2178,7 @@
         <v>DIG1000</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H19" s="5">
         <v>10</v>
@@ -2161,9 +2189,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -2180,20 +2208,20 @@
         <v>DIG1000</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H20" s="5">
         <v>10</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>45</v>
@@ -2210,20 +2238,20 @@
         <v>DIG1000</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>44</v>
@@ -2240,20 +2268,20 @@
         <v>DIG010</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>43</v>
@@ -2270,23 +2298,23 @@
         <v>DIG010</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -2300,23 +2328,23 @@
         <v>DIG010</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" s="5">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="9">
         <v>10</v>
@@ -2330,20 +2358,20 @@
         <v>DIG800</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H25" s="5">
         <v>10</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -2366,17 +2394,17 @@
         <v>10</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="C27" s="9">
         <v>4</v>
@@ -2390,53 +2418,55 @@
         <v>DIG80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H27" s="5">
         <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="E28" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H28" s="5">
-        <v>46</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="9">
         <v>10</v>
@@ -2450,80 +2480,84 @@
         <v>DIG010</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H29" s="5">
         <v>12</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="E30" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" s="5">
         <v>172</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="9">
         <v>2</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="E31" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="5">
         <v>63.643835616438359</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>35</v>
@@ -2533,30 +2567,30 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="5">
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -2576,14 +2610,14 @@
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>29</v>
@@ -2606,42 +2640,46 @@
         <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="9">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="E35" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H35" s="5">
-        <v>46</v>
-      </c>
-      <c r="I35" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>47</v>
@@ -2649,9 +2687,11 @@
       <c r="C36" s="9">
         <v>1</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E36" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2669,19 +2709,21 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E37" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -2697,42 +2739,44 @@
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E38" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H38" s="5">
         <v>190</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -2746,20 +2790,20 @@
         <v>DIG020</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H39" s="5">
         <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
@@ -2776,20 +2820,20 @@
         <v>DIG200</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5">
         <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>32</v>
@@ -2806,20 +2850,20 @@
         <v>DIG020</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="5">
         <v>19</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>40</v>
@@ -2842,14 +2886,14 @@
         <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>21</v>
@@ -2866,7 +2910,7 @@
         <v>DIG600</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H43" s="5">
         <v>19</v>
@@ -2877,9 +2921,9 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>18</v>
@@ -2896,20 +2940,20 @@
         <v>DIG060</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H44" s="5">
         <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>30</v>
@@ -2919,14 +2963,14 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="5">
         <v>19</v>
@@ -2937,9 +2981,9 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>25</v>
@@ -2949,30 +2993,30 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H46" s="5">
         <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
@@ -2986,23 +3030,23 @@
         <v>DIG080</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H47" s="5">
         <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
@@ -3016,23 +3060,23 @@
         <v>DIG800</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" s="5">
         <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="10">
         <v>10</v>
@@ -3046,23 +3090,23 @@
         <v>DIG800</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" s="5">
         <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="10">
         <v>10</v>
@@ -3076,23 +3120,23 @@
         <v>DIG800</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" s="5">
         <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
@@ -3106,20 +3150,20 @@
         <v>DIG080</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H51" s="5">
         <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>28</v>
@@ -3139,54 +3183,58 @@
         <v>19</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E53" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F53" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" s="5">
         <v>17.334246575342465</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C54" s="9">
         <v>1</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E54" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F54" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3199,26 +3247,28 @@
         <v>254</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -3231,51 +3281,53 @@
         <v>368</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E56" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H56" s="5">
         <v>361</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="10">
         <v>10</v>
@@ -3289,20 +3341,20 @@
         <v>DIG200</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H57" s="5">
         <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>41</v>
@@ -3325,17 +3377,17 @@
         <v>28</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="10">
         <v>10</v>
@@ -3349,20 +3401,20 @@
         <v>DIG060</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H59" s="5">
         <v>28</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>48</v>
@@ -3379,53 +3431,53 @@
         <v>DIG900</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="5">
         <v>28</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" s="9">
         <v>10</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F61" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H61" s="5">
         <v>28</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="C62" s="9">
         <v>10</v>
@@ -3445,17 +3497,17 @@
         <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="9">
         <v>10</v>
@@ -3470,53 +3522,55 @@
         <v>28</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H63" s="5">
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="9">
         <v>2</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E64" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F64" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H64" s="5">
         <v>71.769863013698625</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" s="10">
         <v>10</v>
@@ -3530,23 +3584,23 @@
         <v>DIG0100</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H65" s="5">
         <v>30</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C66" s="9">
         <v>10</v>
@@ -3560,84 +3614,88 @@
         <v>DIG010</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H66" s="5">
         <f>28.9*1.1</f>
         <v>31.790000000000003</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C67" s="9">
         <v>1</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E67" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" s="5">
         <v>32.945205479452056</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E68" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F68" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H68" s="5">
         <v>18.246575342465754</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="10">
         <v>10</v>
@@ -3651,20 +3709,20 @@
         <v>DIG060</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="5">
         <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -3674,57 +3732,59 @@
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F70" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H70" s="5">
         <v>37</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E71" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F71" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H71" s="5">
         <v>12.367123287671232</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>49</v>
@@ -3741,23 +3801,23 @@
         <v>DIG090</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H72" s="5">
         <v>37</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="10">
         <v>10</v>
@@ -3771,83 +3831,85 @@
         <v>DIG090</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H73" s="5">
         <v>37</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" s="9">
         <v>10</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F74" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H74" s="5">
         <v>37</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E75" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F75" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H75" s="5">
         <v>21.997260273972604</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C76" s="9">
         <v>10</v>
@@ -3861,171 +3923,181 @@
         <v>DIG010</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H76" s="5">
         <f>40.9*1.1</f>
         <v>44.99</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E77" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F77" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H77" s="5">
         <v>9.7315068493150676</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E78" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F78" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H78" s="5">
         <v>16.117808219178084</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E79" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F79" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H79" s="5">
         <v>19.767123287671232</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E80" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F80" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H80" s="5">
         <v>29.194520547945206</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E81" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F81" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H81" s="5">
         <v>26.863013698630137</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>13</v>
@@ -4033,9 +4105,11 @@
       <c r="C82" s="9">
         <v>2</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E82" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F82" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4048,54 +4122,58 @@
         <v>46</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" s="9">
         <v>2</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E83" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F83" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H83" s="5">
         <v>370</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E84" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4108,24 +4186,26 @@
         <v>190</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E85" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4138,54 +4218,58 @@
         <v>73</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E86" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F86" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H86" s="5">
         <v>73</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="9">
         <v>1</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E87" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F87" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4198,47 +4282,47 @@
         <v>46</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88" s="9">
         <v>10</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F88" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG700</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88" s="5">
         <v>55</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C89" s="9">
         <v>10</v>
@@ -4252,24 +4336,24 @@
         <v>DIG010</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" s="5">
         <f>52.9*1.1</f>
         <v>58.190000000000005</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" s="9">
         <v>10</v>
@@ -4283,90 +4367,96 @@
         <v>DIG010</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H90" s="5">
         <v>60</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="9">
         <v>2</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E91" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F91" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H91" s="5">
         <v>40.328767123287676</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E92" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F92" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H92" s="5">
         <v>100.55890410958904</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E93" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F93" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4382,9 +4472,9 @@
       <c r="J93" s="2"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>12</v>
@@ -4392,29 +4482,31 @@
       <c r="C94" s="9">
         <v>2</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E94" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H94" s="5">
         <v>69.235616438356161</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>25</v>
@@ -4424,57 +4516,59 @@
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F95" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H95" s="5">
         <v>73</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E96" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H96" s="5">
         <v>46</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>14</v>
@@ -4482,59 +4576,63 @@
       <c r="C97" s="9">
         <v>2</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E97" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H97" s="5">
         <v>13.561643835616438</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98" s="9">
         <v>1</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E98" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H98" s="5">
         <v>91</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>20</v>
@@ -4551,85 +4649,89 @@
         <v>DIG600</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H99" s="5">
         <v>80</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E100" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F100" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H100" s="5">
         <v>55</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101" s="9">
         <v>1</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E101" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H101" s="5">
         <v>318</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B102" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
@@ -4649,54 +4751,58 @@
         <v>100</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C103" s="9">
         <v>1</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E103" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H103" s="5">
         <v>73</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E104" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -4712,9 +4818,9 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>19</v>
@@ -4731,53 +4837,55 @@
         <v>DIG080</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H105" s="5">
         <v>100</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
       </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E106" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H106" s="5">
         <v>11</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="10">
         <v>0</v>
@@ -4799,15 +4907,15 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="10">
         <v>0</v>
@@ -4827,47 +4935,49 @@
         <v>125</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E109" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H109" s="5">
         <v>55</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="10">
         <v>0</v>
@@ -4889,15 +4999,15 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B111" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="10">
         <v>0</v>
@@ -4919,45 +5029,47 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C112" s="9">
         <v>1</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E112" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H112" s="5">
         <v>100</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
@@ -4979,15 +5091,15 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" s="10">
         <v>0</v>
@@ -5007,47 +5119,49 @@
         <v>165</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="9">
         <v>2</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E115" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F115" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H115" s="5">
         <v>145</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="10">
         <v>0</v>
@@ -5069,75 +5183,79 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C117" s="9">
         <v>2</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E117" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F117" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H117" s="5">
         <v>18.449315068493149</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E118" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H118" s="5">
         <v>46</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
@@ -5159,15 +5277,15 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B120" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="10">
         <v>0</v>
@@ -5181,7 +5299,7 @@
         <v>DIG200</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H120" s="5">
         <v>222</v>
@@ -5189,15 +5307,15 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B121" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="10">
         <v>0</v>
@@ -5219,15 +5337,15 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="10">
         <v>0</v>
@@ -5249,45 +5367,47 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C123" s="9">
         <v>1</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E123" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F123" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H123" s="5">
         <v>73</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C124" s="10">
         <v>0</v>
@@ -5301,7 +5421,7 @@
         <v>DIG200</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H124" s="5">
         <v>259</v>
@@ -5309,15 +5429,15 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B125" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
@@ -5331,7 +5451,7 @@
         <v>DIG200</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H125" s="5">
         <v>286</v>
@@ -5339,75 +5459,77 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="10">
         <v>10</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F126" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG070</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H126" s="5">
         <v>295</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C127" s="9">
         <v>1</v>
       </c>
-      <c r="D127" s="4"/>
+      <c r="D127" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E127" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F127" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H127" s="5">
         <v>100</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
@@ -5421,7 +5543,7 @@
         <v>DIG200</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H128" s="5">
         <v>350</v>
@@ -5429,105 +5551,111 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C129" s="9">
         <v>1</v>
       </c>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E129" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F129" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H129" s="5">
         <v>91</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C130" s="9">
         <v>1</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E130" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F130" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H130" s="5">
         <v>136</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E131" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F131" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG010</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H131" s="5">
         <v>55</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="10">
         <v>0</v>
@@ -5541,7 +5669,7 @@
         <v>DIG020</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H132" s="5">
         <v>382</v>
@@ -5549,15 +5677,15 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="B133" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="10">
         <v>0</v>
@@ -5571,7 +5699,7 @@
         <v>DIG200</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H133" s="5">
         <v>453</v>
@@ -5579,15 +5707,15 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C134" s="10">
         <v>0</v>
@@ -5601,7 +5729,7 @@
         <v>DIG020</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H134" s="5">
         <v>485</v>
@@ -5609,12 +5737,12 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>15</v>
@@ -5635,17 +5763,17 @@
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="10">
         <v>0</v>
@@ -5661,12 +5789,12 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C137" s="10">
         <v>0</v>
@@ -5679,7 +5807,7 @@
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>

--- a/digicode.xlsx
+++ b/digicode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\SC - Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1760A832-FFB5-4388-A4B8-488B593D8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9505444-49E3-4A2D-8E7F-FC7959E5A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="287">
   <si>
     <t>CODIGO</t>
   </si>
@@ -888,6 +888,12 @@
   </si>
   <si>
     <t>mcafee</t>
+  </si>
+  <si>
+    <t>https://keyhouse24.com/wp-content/uploads/2023/06/Bitdefender-Total-Security-5-Devices-3-Years-Global.png</t>
+  </si>
+  <si>
+    <t>https://royalcdkeys.com/cdn/shop/files/s-l1200_9e3bc7ae-8e68-44d2-ae70-657baf95f93a.webp</t>
   </si>
 </sst>
 </file>
@@ -1272,11 +1278,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K137" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:K137" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:K136" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:K136" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="3">
       <filters>
-        <filter val="avast"/>
+        <filter val="kaspersky"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -1285,8 +1291,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K131">
-    <sortCondition ref="B1:B137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A91:K111">
+    <sortCondition ref="G1:G136"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="11"/>
@@ -1594,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1773,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>177</v>
       </c>
@@ -2429,7 +2435,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>177</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>282</v>
@@ -2717,7 +2723,7 @@
         <v>271</v>
       </c>
       <c r="C37" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>282</v>
@@ -2735,7 +2741,9 @@
       <c r="H37" s="5">
         <v>100</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
     </row>
@@ -2747,7 +2755,7 @@
         <v>268</v>
       </c>
       <c r="C38" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>282</v>
@@ -3193,7 +3201,7 @@
         <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3209,13 +3217,13 @@
         <v>DIG100</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="H53" s="5">
-        <v>17.334246575342465</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3225,10 +3233,10 @@
         <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="C54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>281</v>
@@ -3240,29 +3248,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>11</v>
+      <c r="G54" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="H54" s="5">
-        <v>254</v>
+        <v>12.367123287671232</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="C55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>281</v>
@@ -3274,29 +3280,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>11</v>
+      <c r="G55" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="H55" s="5">
-        <v>368</v>
+        <v>16.117808219178084</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>269</v>
+        <v>177</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>281</v>
@@ -3306,21 +3310,19 @@
       </c>
       <c r="F56" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>218</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="H56" s="5">
-        <v>361</v>
+        <v>17.334246575342465</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -3554,10 +3556,10 @@
         <v>DIG100</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H64" s="5">
-        <v>71.769863013698625</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>174</v>
@@ -3634,7 +3636,7 @@
         <v>184</v>
       </c>
       <c r="C67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>281</v>
@@ -3647,10 +3649,10 @@
         <v>DIG100</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H67" s="5">
-        <v>32.945205479452056</v>
+        <v>19.767123287671232</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>174</v>
@@ -3679,10 +3681,10 @@
         <v>DIG100</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H68" s="5">
-        <v>18.246575342465754</v>
+        <v>21.997260273972604</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>174</v>
@@ -3771,10 +3773,10 @@
         <v>DIG100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H71" s="5">
-        <v>12.367123287671232</v>
+        <v>26.863013698630137</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>174</v>
@@ -3893,10 +3895,10 @@
         <v>DIG100</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H75" s="5">
-        <v>21.997260273972604</v>
+        <v>29.194520547945206</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>174</v>
@@ -3943,7 +3945,7 @@
         <v>184</v>
       </c>
       <c r="C77" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>281</v>
@@ -3956,10 +3958,10 @@
         <v>DIG100</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H77" s="5">
-        <v>9.7315068493150676</v>
+        <v>32.945205479452056</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>174</v>
@@ -3972,10 +3974,10 @@
         <v>177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="C78" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>281</v>
@@ -3987,16 +3989,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>211</v>
+      <c r="G78" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H78" s="5">
-        <v>16.117808219178084</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J78" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4004,10 +4006,10 @@
         <v>177</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C79" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>281</v>
@@ -4019,16 +4021,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>190</v>
+      <c r="G79" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H79" s="5">
-        <v>19.767123287671232</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4039,7 +4041,7 @@
         <v>184</v>
       </c>
       <c r="C80" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>281</v>
@@ -4052,10 +4054,10 @@
         <v>DIG100</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H80" s="5">
-        <v>29.194520547945206</v>
+        <v>71.769863013698625</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>174</v>
@@ -4068,10 +4070,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="C81" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>281</v>
@@ -4083,16 +4085,16 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>192</v>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H81" s="5">
-        <v>26.863013698630137</v>
-      </c>
-      <c r="I81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J81" s="4"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="4"/>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4100,10 +4102,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="C82" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>281</v>
@@ -4116,13 +4118,13 @@
         <v>DIG100</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H82" s="5">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="4"/>
@@ -4135,7 +4137,7 @@
         <v>261</v>
       </c>
       <c r="C83" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>281</v>
@@ -4148,10 +4150,10 @@
         <v>DIG100</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H83" s="5">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>174</v>
@@ -4164,10 +4166,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>281</v>
@@ -4183,20 +4185,22 @@
         <v>11</v>
       </c>
       <c r="H84" s="5">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>260</v>
+        <v>156</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
@@ -4209,29 +4213,31 @@
       </c>
       <c r="F85" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG010</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H85" s="5">
-        <v>73</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C86" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>281</v>
@@ -4244,23 +4250,25 @@
         <v>DIG100</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H86" s="5">
-        <v>73</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="C87" s="9">
         <v>1</v>
@@ -4276,15 +4284,15 @@
         <v>DIG100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H87" s="5">
-        <v>46</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J87" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4378,7 +4386,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>177</v>
       </c>
@@ -4410,7 +4418,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>177</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>108</v>
       </c>
       <c r="C92" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>283</v>
@@ -4442,7 +4450,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>177</v>
       </c>
@@ -4468,19 +4476,21 @@
       <c r="H93" s="5">
         <v>37</v>
       </c>
-      <c r="I93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="C94" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>283</v>
@@ -4492,14 +4502,14 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>224</v>
+      <c r="G94" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H94" s="5">
-        <v>69.235616438356161</v>
+        <v>46</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4534,12 +4544,12 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>276</v>
+      <c r="B96" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4554,27 +4564,27 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>218</v>
+      <c r="G96" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="H96" s="5">
-        <v>46</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J96" s="2"/>
+        <v>13.561643835616438</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>283</v>
@@ -4587,26 +4597,24 @@
         <v>DIG100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H97" s="5">
-        <v>13.561643835616438</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="H97" s="5"/>
       <c r="I97" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>283</v>
@@ -4622,10 +4630,10 @@
         <v>218</v>
       </c>
       <c r="H98" s="5">
-        <v>91</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="4"/>
@@ -4660,11 +4668,11 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C100" s="9">
@@ -4684,7 +4692,7 @@
         <v>218</v>
       </c>
       <c r="H100" s="5">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>84</v>
@@ -4694,77 +4702,75 @@
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C101" s="9">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="5">
+        <v>100</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E102" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F101" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H101" s="5">
-        <v>318</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="10">
-        <v>0</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="F102" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG100</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H102" s="5">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C103" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>283</v>
@@ -4780,204 +4786,204 @@
         <v>218</v>
       </c>
       <c r="H103" s="5">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" s="9">
-        <v>0</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>283</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+      <c r="D104" s="4"/>
       <c r="E104" s="9" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG080</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H104" s="5">
-        <v>46</v>
-      </c>
-      <c r="I104" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="10">
-        <v>10</v>
-      </c>
-      <c r="D105" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="9">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E105" s="9" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F105" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG080</v>
+        <v>DIG100</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>218</v>
       </c>
       <c r="H105" s="5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C106" s="9">
+        <v>109</v>
+      </c>
+      <c r="C106" s="10">
         <v>0</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>175</v>
+      <c r="D106" s="4"/>
+      <c r="E106" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F106" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H106" s="5">
-        <v>11</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C107" s="10">
         <v>0</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F107" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG158</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="5">
-        <v>111</v>
-      </c>
-      <c r="I107" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="J107" s="4"/>
-      <c r="K107" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="10">
-        <v>0</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="10" t="s">
-        <v>53</v>
+        <v>266</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F108" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG158</v>
+        <v>DIG010</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H108" s="5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C109" s="9">
+        <v>113</v>
+      </c>
+      <c r="C109" s="10">
         <v>0</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>175</v>
+      <c r="D109" s="4"/>
+      <c r="E109" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F109" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H109" s="5">
-        <v>55</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
+      <c r="K109" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C110" s="10">
         <v>0</v>
@@ -5002,31 +5008,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="10">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="10" t="s">
-        <v>16</v>
+        <v>270</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F111" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG010</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="H111" s="5">
-        <v>143</v>
-      </c>
-      <c r="I111" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
         <v>162</v>
@@ -5034,167 +5044,167 @@
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" s="9">
-        <v>1</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>175</v>
+        <v>116</v>
+      </c>
+      <c r="C112" s="10">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F112" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG010</v>
+        <v>DIG200</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H112" s="5">
-        <v>100</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F113" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG162</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="5">
-        <v>159</v>
-      </c>
-      <c r="I113" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="J113" s="4"/>
-      <c r="K113" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K113" s="4"/>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="10">
-        <v>0</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="10" t="s">
-        <v>53</v>
+        <v>177</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F114" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG162</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>11</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="H114" s="5">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="9">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="10">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="9" t="str">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>DIG200</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="5">
         <v>175</v>
       </c>
-      <c r="F115" s="9" t="str">
-        <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H115" s="5">
-        <v>145</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
+      <c r="K115" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="10">
-        <v>0</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="10" t="s">
-        <v>16</v>
+        <v>177</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F116" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>DIG100</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="H116" s="5">
-        <v>175</v>
-      </c>
-      <c r="I116" s="4"/>
+        <v>18.449315068493149</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="J116" s="4"/>
-      <c r="K116" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C117" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>284</v>
@@ -5206,56 +5216,54 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>DIG100</v>
       </c>
-      <c r="G117" s="13" t="s">
-        <v>226</v>
+      <c r="G117" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="H117" s="5">
-        <v>18.449315068493149</v>
+        <v>46</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="9">
+        <v>117</v>
+      </c>
+      <c r="C118" s="10">
         <v>0</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>175</v>
+      <c r="D118" s="4"/>
+      <c r="E118" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F118" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H118" s="5">
-        <v>46</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
+      <c r="K118" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
@@ -5269,10 +5277,10 @@
         <v>DIG200</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H119" s="5">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -5285,7 +5293,7 @@
         <v>163</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C120" s="10">
         <v>0</v>
@@ -5299,10 +5307,10 @@
         <v>DIG200</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H120" s="5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -5312,10 +5320,10 @@
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>115</v>
+        <v>164</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C121" s="10">
         <v>0</v>
@@ -5326,13 +5334,13 @@
       </c>
       <c r="F121" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG200</v>
+        <v>DIG020</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H121" s="5">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -5342,72 +5350,72 @@
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C122" s="10">
-        <v>0</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="10" t="s">
-        <v>16</v>
+        <v>177</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="9">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F122" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG020</v>
+        <v>DIG100</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="H122" s="5">
-        <v>242</v>
-      </c>
-      <c r="I122" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="J122" s="4"/>
-      <c r="K122" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C123" s="9">
-        <v>1</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>175</v>
+        <v>110</v>
+      </c>
+      <c r="C123" s="10">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F123" s="9" t="str">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
-        <v>DIG100</v>
+        <v>DIG200</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="H123" s="5">
-        <v>73</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="K123" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C124" s="10">
         <v>0</v>
@@ -5424,7 +5432,7 @@
         <v>111</v>
       </c>
       <c r="H124" s="5">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -5434,131 +5442,133 @@
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C125" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D125" s="4"/>
-      <c r="E125" s="10" t="s">
-        <v>1